--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>295000</v>
+        <v>353100</v>
       </c>
       <c r="E8" s="3">
-        <v>318000</v>
+        <v>287800</v>
       </c>
       <c r="F8" s="3">
-        <v>284100</v>
+        <v>310200</v>
       </c>
       <c r="G8" s="3">
-        <v>1707400</v>
+        <v>277200</v>
       </c>
       <c r="H8" s="3">
-        <v>313900</v>
+        <v>415500</v>
       </c>
       <c r="I8" s="3">
-        <v>428600</v>
+        <v>306200</v>
       </c>
       <c r="J8" s="3">
+        <v>418100</v>
+      </c>
+      <c r="K8" s="3">
         <v>540200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>270800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>224700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>175600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>148600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>155800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22400</v>
+        <v>24300</v>
       </c>
       <c r="E9" s="3">
-        <v>23400</v>
+        <v>21800</v>
       </c>
       <c r="F9" s="3">
-        <v>24700</v>
+        <v>22800</v>
       </c>
       <c r="G9" s="3">
-        <v>152300</v>
+        <v>24100</v>
       </c>
       <c r="H9" s="3">
-        <v>37600</v>
+        <v>31800</v>
       </c>
       <c r="I9" s="3">
-        <v>44100</v>
+        <v>36700</v>
       </c>
       <c r="J9" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K9" s="3">
         <v>38000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>272600</v>
+        <v>328800</v>
       </c>
       <c r="E10" s="3">
-        <v>294700</v>
+        <v>265900</v>
       </c>
       <c r="F10" s="3">
-        <v>259500</v>
+        <v>287400</v>
       </c>
       <c r="G10" s="3">
-        <v>1555100</v>
+        <v>253100</v>
       </c>
       <c r="H10" s="3">
-        <v>276300</v>
+        <v>383700</v>
       </c>
       <c r="I10" s="3">
-        <v>384500</v>
+        <v>269500</v>
       </c>
       <c r="J10" s="3">
+        <v>375100</v>
+      </c>
+      <c r="K10" s="3">
         <v>502200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>249000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>207000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>161800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>140000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>147500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>262500</v>
+        <v>260700</v>
       </c>
       <c r="E17" s="3">
-        <v>293800</v>
+        <v>256000</v>
       </c>
       <c r="F17" s="3">
-        <v>250900</v>
+        <v>286600</v>
       </c>
       <c r="G17" s="3">
-        <v>1501900</v>
+        <v>244800</v>
       </c>
       <c r="H17" s="3">
-        <v>337500</v>
+        <v>284700</v>
       </c>
       <c r="I17" s="3">
-        <v>416600</v>
+        <v>329200</v>
       </c>
       <c r="J17" s="3">
+        <v>406400</v>
+      </c>
+      <c r="K17" s="3">
         <v>455900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>191700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>98100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32500</v>
+        <v>92400</v>
       </c>
       <c r="E18" s="3">
-        <v>24200</v>
+        <v>31700</v>
       </c>
       <c r="F18" s="3">
-        <v>33200</v>
+        <v>23600</v>
       </c>
       <c r="G18" s="3">
-        <v>205500</v>
+        <v>32400</v>
       </c>
       <c r="H18" s="3">
-        <v>-23600</v>
+        <v>130700</v>
       </c>
       <c r="I18" s="3">
-        <v>12000</v>
+        <v>-23100</v>
       </c>
       <c r="J18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K18" s="3">
         <v>84200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>79100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>56100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>6800</v>
-      </c>
       <c r="F20" s="3">
-        <v>30700</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>49100</v>
+        <v>30000</v>
       </c>
       <c r="H20" s="3">
-        <v>9200</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>21900</v>
+        <v>9000</v>
       </c>
       <c r="J20" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>35700</v>
+        <v>69700</v>
       </c>
       <c r="E21" s="3">
-        <v>30800</v>
+        <v>34800</v>
       </c>
       <c r="F21" s="3">
-        <v>68600</v>
+        <v>30100</v>
       </c>
       <c r="G21" s="3">
-        <v>275800</v>
+        <v>66900</v>
       </c>
       <c r="H21" s="3">
-        <v>-14600</v>
+        <v>158200</v>
       </c>
       <c r="I21" s="3">
-        <v>33800</v>
+        <v>-14200</v>
       </c>
       <c r="J21" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K21" s="3">
         <v>94400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>58000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>59400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>61500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>59800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>35600</v>
+        <v>67900</v>
       </c>
       <c r="E23" s="3">
-        <v>31000</v>
+        <v>34700</v>
       </c>
       <c r="F23" s="3">
-        <v>63900</v>
+        <v>30300</v>
       </c>
       <c r="G23" s="3">
-        <v>254600</v>
+        <v>62400</v>
       </c>
       <c r="H23" s="3">
-        <v>-14400</v>
+        <v>142500</v>
       </c>
       <c r="I23" s="3">
-        <v>34000</v>
+        <v>-14100</v>
       </c>
       <c r="J23" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K23" s="3">
         <v>88900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>81100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>60900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>59700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>11300</v>
       </c>
       <c r="E24" s="3">
-        <v>8900</v>
+        <v>2800</v>
       </c>
       <c r="F24" s="3">
-        <v>11000</v>
+        <v>8700</v>
       </c>
       <c r="G24" s="3">
-        <v>27900</v>
+        <v>10700</v>
       </c>
       <c r="H24" s="3">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
-        <v>6200</v>
+        <v>4900</v>
       </c>
       <c r="J24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32700</v>
+        <v>56500</v>
       </c>
       <c r="E26" s="3">
-        <v>22200</v>
+        <v>31900</v>
       </c>
       <c r="F26" s="3">
-        <v>53000</v>
+        <v>21600</v>
       </c>
       <c r="G26" s="3">
-        <v>226700</v>
+        <v>51700</v>
       </c>
       <c r="H26" s="3">
-        <v>-19500</v>
+        <v>138000</v>
       </c>
       <c r="I26" s="3">
-        <v>27800</v>
+        <v>-19000</v>
       </c>
       <c r="J26" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K26" s="3">
         <v>76900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32700</v>
+        <v>56500</v>
       </c>
       <c r="E27" s="3">
-        <v>22200</v>
+        <v>31900</v>
       </c>
       <c r="F27" s="3">
-        <v>53000</v>
+        <v>21600</v>
       </c>
       <c r="G27" s="3">
-        <v>226700</v>
+        <v>51700</v>
       </c>
       <c r="H27" s="3">
-        <v>-19500</v>
+        <v>138000</v>
       </c>
       <c r="I27" s="3">
-        <v>27800</v>
+        <v>-19000</v>
       </c>
       <c r="J27" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K27" s="3">
         <v>76900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>55200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-6800</v>
-      </c>
       <c r="F32" s="3">
-        <v>-30700</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-49100</v>
+        <v>-30000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9200</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>-21900</v>
+        <v>-9000</v>
       </c>
       <c r="J32" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32700</v>
+        <v>56500</v>
       </c>
       <c r="E33" s="3">
-        <v>22200</v>
+        <v>31900</v>
       </c>
       <c r="F33" s="3">
-        <v>53000</v>
+        <v>21600</v>
       </c>
       <c r="G33" s="3">
-        <v>226700</v>
+        <v>51700</v>
       </c>
       <c r="H33" s="3">
-        <v>-19500</v>
+        <v>138000</v>
       </c>
       <c r="I33" s="3">
-        <v>27800</v>
+        <v>-19000</v>
       </c>
       <c r="J33" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K33" s="3">
         <v>76900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>55200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32700</v>
+        <v>56500</v>
       </c>
       <c r="E35" s="3">
-        <v>22200</v>
+        <v>31900</v>
       </c>
       <c r="F35" s="3">
-        <v>53000</v>
+        <v>21600</v>
       </c>
       <c r="G35" s="3">
-        <v>226700</v>
+        <v>51700</v>
       </c>
       <c r="H35" s="3">
-        <v>-19500</v>
+        <v>138000</v>
       </c>
       <c r="I35" s="3">
-        <v>27800</v>
+        <v>-19000</v>
       </c>
       <c r="J35" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K35" s="3">
         <v>76900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>55200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>377800</v>
+        <v>447600</v>
       </c>
       <c r="E41" s="3">
-        <v>388300</v>
+        <v>368500</v>
       </c>
       <c r="F41" s="3">
-        <v>361500</v>
+        <v>378800</v>
       </c>
       <c r="G41" s="3">
-        <v>374000</v>
+        <v>352600</v>
       </c>
       <c r="H41" s="3">
-        <v>115800</v>
+        <v>364900</v>
       </c>
       <c r="I41" s="3">
-        <v>81400</v>
+        <v>112900</v>
       </c>
       <c r="J41" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K41" s="3">
         <v>239200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>275600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>208300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>140800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2144,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>250500</v>
+        <v>138900</v>
       </c>
       <c r="E43" s="3">
-        <v>261000</v>
+        <v>244300</v>
       </c>
       <c r="F43" s="3">
-        <v>48900</v>
+        <v>254500</v>
       </c>
       <c r="G43" s="3">
-        <v>201200</v>
+        <v>47700</v>
       </c>
       <c r="H43" s="3">
-        <v>18400</v>
+        <v>196200</v>
       </c>
       <c r="I43" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="J43" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K43" s="3">
         <v>20100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4400</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,52 +2238,58 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>183800</v>
+        <v>186600</v>
       </c>
       <c r="E45" s="3">
-        <v>164000</v>
+        <v>179300</v>
       </c>
       <c r="F45" s="3">
-        <v>175200</v>
+        <v>159900</v>
       </c>
       <c r="G45" s="3">
-        <v>366200</v>
+        <v>170900</v>
       </c>
       <c r="H45" s="3">
-        <v>169400</v>
+        <v>357200</v>
       </c>
       <c r="I45" s="3">
-        <v>176200</v>
+        <v>165200</v>
       </c>
       <c r="J45" s="3">
+        <v>171900</v>
+      </c>
+      <c r="K45" s="3">
         <v>170900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>158600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>168700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91700</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>67900</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,96 +2332,105 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>538700</v>
+        <v>463900</v>
       </c>
       <c r="E47" s="3">
-        <v>602800</v>
+        <v>525500</v>
       </c>
       <c r="F47" s="3">
-        <v>853700</v>
+        <v>588000</v>
       </c>
       <c r="G47" s="3">
-        <v>956600</v>
+        <v>832800</v>
       </c>
       <c r="H47" s="3">
-        <v>680000</v>
+        <v>933200</v>
       </c>
       <c r="I47" s="3">
-        <v>725200</v>
+        <v>663300</v>
       </c>
       <c r="J47" s="3">
+        <v>707400</v>
+      </c>
+      <c r="K47" s="3">
         <v>617000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>261900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>255800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>314900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>297700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>236800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>85700</v>
+        <v>74200</v>
       </c>
       <c r="E48" s="3">
-        <v>90100</v>
+        <v>83600</v>
       </c>
       <c r="F48" s="3">
-        <v>90300</v>
+        <v>87900</v>
       </c>
       <c r="G48" s="3">
-        <v>38200</v>
+        <v>88100</v>
       </c>
       <c r="H48" s="3">
-        <v>13900</v>
+        <v>37200</v>
       </c>
       <c r="I48" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="J48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8900</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5200</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33600</v>
+        <v>16300</v>
       </c>
       <c r="E52" s="3">
-        <v>38100</v>
+        <v>32800</v>
       </c>
       <c r="F52" s="3">
-        <v>36500</v>
+        <v>37200</v>
       </c>
       <c r="G52" s="3">
-        <v>87800</v>
+        <v>35600</v>
       </c>
       <c r="H52" s="3">
-        <v>49400</v>
+        <v>85600</v>
       </c>
       <c r="I52" s="3">
-        <v>156800</v>
+        <v>48200</v>
       </c>
       <c r="J52" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K52" s="3">
         <v>290800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>386900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>361500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>337900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>205100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>240600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1490600</v>
+        <v>1349800</v>
       </c>
       <c r="E54" s="3">
-        <v>1564500</v>
+        <v>1454000</v>
       </c>
       <c r="F54" s="3">
-        <v>1586600</v>
+        <v>1526200</v>
       </c>
       <c r="G54" s="3">
-        <v>2044900</v>
+        <v>1547700</v>
       </c>
       <c r="H54" s="3">
-        <v>1046800</v>
+        <v>1994700</v>
       </c>
       <c r="I54" s="3">
-        <v>1171600</v>
+        <v>1021200</v>
       </c>
       <c r="J54" s="3">
+        <v>1142900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1349900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1115800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1036300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>888900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>782000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>695600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>6100</v>
       </c>
       <c r="E57" s="3">
-        <v>7800</v>
+        <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G57" s="3">
-        <v>44100</v>
+        <v>7500</v>
       </c>
       <c r="H57" s="3">
-        <v>4800</v>
+        <v>43000</v>
       </c>
       <c r="I57" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="J57" s="3">
         <v>5100</v>
       </c>
       <c r="K57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2840,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>425200</v>
+        <v>381800</v>
       </c>
       <c r="E59" s="3">
-        <v>398300</v>
+        <v>414800</v>
       </c>
       <c r="F59" s="3">
-        <v>404700</v>
+        <v>388500</v>
       </c>
       <c r="G59" s="3">
-        <v>1592100</v>
+        <v>394800</v>
       </c>
       <c r="H59" s="3">
-        <v>221500</v>
+        <v>1553000</v>
       </c>
       <c r="I59" s="3">
-        <v>370600</v>
+        <v>216100</v>
       </c>
       <c r="J59" s="3">
+        <v>361500</v>
+      </c>
+      <c r="K59" s="3">
         <v>189000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>220600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>277900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>152400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>205500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,43 +2981,46 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38400</v>
+        <v>30600</v>
       </c>
       <c r="E62" s="3">
-        <v>47300</v>
+        <v>37500</v>
       </c>
       <c r="F62" s="3">
-        <v>59900</v>
+        <v>46100</v>
       </c>
       <c r="G62" s="3">
-        <v>69800</v>
+        <v>58500</v>
       </c>
       <c r="H62" s="3">
-        <v>80500</v>
+        <v>68100</v>
       </c>
       <c r="I62" s="3">
-        <v>94400</v>
+        <v>78600</v>
       </c>
       <c r="J62" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K62" s="3">
         <v>90000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8900</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1071000</v>
+        <v>721400</v>
       </c>
       <c r="E66" s="3">
-        <v>1179900</v>
+        <v>1044800</v>
       </c>
       <c r="F66" s="3">
-        <v>1223200</v>
+        <v>1150900</v>
       </c>
       <c r="G66" s="3">
-        <v>2097000</v>
+        <v>1193200</v>
       </c>
       <c r="H66" s="3">
-        <v>361800</v>
+        <v>2045500</v>
       </c>
       <c r="I66" s="3">
-        <v>514400</v>
+        <v>353000</v>
       </c>
       <c r="J66" s="3">
+        <v>501700</v>
+      </c>
+      <c r="K66" s="3">
         <v>726100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>675100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>665900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>480400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>420000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>384400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-134400</v>
+        <v>-74700</v>
       </c>
       <c r="E72" s="3">
-        <v>-166600</v>
+        <v>-131100</v>
       </c>
       <c r="F72" s="3">
-        <v>-188000</v>
+        <v>-162500</v>
       </c>
       <c r="G72" s="3">
-        <v>306600</v>
+        <v>-183400</v>
       </c>
       <c r="H72" s="3">
-        <v>500700</v>
+        <v>299100</v>
       </c>
       <c r="I72" s="3">
-        <v>487500</v>
+        <v>488400</v>
       </c>
       <c r="J72" s="3">
+        <v>475500</v>
+      </c>
+      <c r="K72" s="3">
         <v>459100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>272300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>207200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>264700</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>171200</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>419500</v>
+        <v>628400</v>
       </c>
       <c r="E76" s="3">
-        <v>384700</v>
+        <v>409200</v>
       </c>
       <c r="F76" s="3">
-        <v>363500</v>
+        <v>375200</v>
       </c>
       <c r="G76" s="3">
-        <v>-52100</v>
+        <v>354600</v>
       </c>
       <c r="H76" s="3">
-        <v>685000</v>
+        <v>-50900</v>
       </c>
       <c r="I76" s="3">
-        <v>657300</v>
+        <v>668200</v>
       </c>
       <c r="J76" s="3">
+        <v>641200</v>
+      </c>
+      <c r="K76" s="3">
         <v>623800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>440800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>370400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>408500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>361900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>311200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32700</v>
+        <v>56500</v>
       </c>
       <c r="E81" s="3">
-        <v>22200</v>
+        <v>31900</v>
       </c>
       <c r="F81" s="3">
-        <v>53000</v>
+        <v>21600</v>
       </c>
       <c r="G81" s="3">
-        <v>226700</v>
+        <v>51700</v>
       </c>
       <c r="H81" s="3">
-        <v>-19500</v>
+        <v>138000</v>
       </c>
       <c r="I81" s="3">
-        <v>27800</v>
+        <v>-19000</v>
       </c>
       <c r="J81" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K81" s="3">
         <v>76900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>55200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>168800</v>
+        <v>12300</v>
       </c>
       <c r="E89" s="3">
-        <v>-47600</v>
+        <v>164600</v>
       </c>
       <c r="F89" s="3">
-        <v>-94500</v>
+        <v>-46500</v>
       </c>
       <c r="G89" s="3">
-        <v>-117700</v>
+        <v>-92100</v>
       </c>
       <c r="H89" s="3">
-        <v>-19800</v>
+        <v>143600</v>
       </c>
       <c r="I89" s="3">
-        <v>-196600</v>
+        <v>-19300</v>
       </c>
       <c r="J89" s="3">
+        <v>-191800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-48500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>189300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>82100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>121600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-185400</v>
+        <v>286000</v>
       </c>
       <c r="E94" s="3">
-        <v>83900</v>
+        <v>-180900</v>
       </c>
       <c r="F94" s="3">
-        <v>-32400</v>
+        <v>81900</v>
       </c>
       <c r="G94" s="3">
-        <v>473800</v>
+        <v>-31600</v>
       </c>
       <c r="H94" s="3">
-        <v>318500</v>
+        <v>122500</v>
       </c>
       <c r="I94" s="3">
-        <v>67300</v>
+        <v>310700</v>
       </c>
       <c r="J94" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-37700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>50800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-62200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-117500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-220700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-10500</v>
-      </c>
       <c r="F100" s="3">
-        <v>70800</v>
+        <v>-10300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3700</v>
+        <v>69100</v>
       </c>
       <c r="H100" s="3">
-        <v>-15100</v>
+        <v>-10100</v>
       </c>
       <c r="I100" s="3">
-        <v>-12100</v>
+        <v>-14800</v>
       </c>
       <c r="J100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K100" s="3">
         <v>33900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-86300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>500</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>500</v>
-      </c>
       <c r="H101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
-        <v>1200</v>
-      </c>
       <c r="J101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15200</v>
+        <v>77300</v>
       </c>
       <c r="E102" s="3">
-        <v>29400</v>
+        <v>-14800</v>
       </c>
       <c r="F102" s="3">
-        <v>-59800</v>
+        <v>28700</v>
       </c>
       <c r="G102" s="3">
-        <v>-207600</v>
+        <v>-58300</v>
       </c>
       <c r="H102" s="3">
-        <v>-5800</v>
+        <v>143600</v>
       </c>
       <c r="I102" s="3">
-        <v>-237700</v>
+        <v>-5600</v>
       </c>
       <c r="J102" s="3">
+        <v>-231900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-111400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>75600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>81000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>353100</v>
+        <v>148700</v>
       </c>
       <c r="E8" s="3">
-        <v>287800</v>
+        <v>366400</v>
       </c>
       <c r="F8" s="3">
-        <v>310200</v>
+        <v>298600</v>
       </c>
       <c r="G8" s="3">
-        <v>277200</v>
+        <v>321900</v>
       </c>
       <c r="H8" s="3">
-        <v>415500</v>
+        <v>287600</v>
       </c>
       <c r="I8" s="3">
-        <v>306200</v>
+        <v>431100</v>
       </c>
       <c r="J8" s="3">
+        <v>317700</v>
+      </c>
+      <c r="K8" s="3">
         <v>418100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>540200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>270800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>224700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>175600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>148600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>155800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24300</v>
+        <v>14900</v>
       </c>
       <c r="E9" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>23700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>43000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>38000</v>
+      </c>
+      <c r="M9" s="3">
         <v>21800</v>
       </c>
-      <c r="F9" s="3">
-        <v>22800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>24100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>31800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>36700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>43000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>38000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>21800</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>328800</v>
+        <v>133700</v>
       </c>
       <c r="E10" s="3">
-        <v>265900</v>
+        <v>341200</v>
       </c>
       <c r="F10" s="3">
-        <v>287400</v>
+        <v>275900</v>
       </c>
       <c r="G10" s="3">
-        <v>253100</v>
+        <v>298300</v>
       </c>
       <c r="H10" s="3">
-        <v>383700</v>
+        <v>262600</v>
       </c>
       <c r="I10" s="3">
-        <v>269500</v>
+        <v>398100</v>
       </c>
       <c r="J10" s="3">
+        <v>279600</v>
+      </c>
+      <c r="K10" s="3">
         <v>375100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>502200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>207000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>161800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>140000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>147500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>260700</v>
+        <v>146900</v>
       </c>
       <c r="E17" s="3">
-        <v>256000</v>
+        <v>270500</v>
       </c>
       <c r="F17" s="3">
-        <v>286600</v>
+        <v>265700</v>
       </c>
       <c r="G17" s="3">
-        <v>244800</v>
+        <v>297400</v>
       </c>
       <c r="H17" s="3">
-        <v>284700</v>
+        <v>254000</v>
       </c>
       <c r="I17" s="3">
-        <v>329200</v>
+        <v>295500</v>
       </c>
       <c r="J17" s="3">
+        <v>341600</v>
+      </c>
+      <c r="K17" s="3">
         <v>406400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>455900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>191700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>168600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>120200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>91400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>92400</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
-        <v>31700</v>
+        <v>95900</v>
       </c>
       <c r="F18" s="3">
-        <v>23600</v>
+        <v>32900</v>
       </c>
       <c r="G18" s="3">
-        <v>32400</v>
+        <v>24500</v>
       </c>
       <c r="H18" s="3">
-        <v>130700</v>
+        <v>33600</v>
       </c>
       <c r="I18" s="3">
-        <v>-23100</v>
+        <v>135600</v>
       </c>
       <c r="J18" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K18" s="3">
         <v>11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>84200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>79100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>56100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>55400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-24600</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>-25500</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
-        <v>30000</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>31100</v>
       </c>
       <c r="I20" s="3">
-        <v>9000</v>
+        <v>12300</v>
       </c>
       <c r="J20" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K20" s="3">
         <v>21400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>69700</v>
+        <v>7300</v>
       </c>
       <c r="E21" s="3">
-        <v>34800</v>
+        <v>72300</v>
       </c>
       <c r="F21" s="3">
-        <v>30100</v>
+        <v>36200</v>
       </c>
       <c r="G21" s="3">
-        <v>66900</v>
+        <v>31200</v>
       </c>
       <c r="H21" s="3">
-        <v>158200</v>
+        <v>69400</v>
       </c>
       <c r="I21" s="3">
-        <v>-14200</v>
+        <v>164200</v>
       </c>
       <c r="J21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K21" s="3">
         <v>33000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>94400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>58000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>59400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>61500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>59800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>67900</v>
+        <v>3400</v>
       </c>
       <c r="E23" s="3">
-        <v>34700</v>
+        <v>70400</v>
       </c>
       <c r="F23" s="3">
-        <v>30300</v>
+        <v>36000</v>
       </c>
       <c r="G23" s="3">
-        <v>62400</v>
+        <v>31400</v>
       </c>
       <c r="H23" s="3">
-        <v>142500</v>
+        <v>64700</v>
       </c>
       <c r="I23" s="3">
-        <v>-14100</v>
+        <v>147900</v>
       </c>
       <c r="J23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K23" s="3">
         <v>33100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>88900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>81100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>59300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>60900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11300</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>2800</v>
+        <v>11800</v>
       </c>
       <c r="F24" s="3">
-        <v>8700</v>
+        <v>2900</v>
       </c>
       <c r="G24" s="3">
-        <v>10700</v>
+        <v>9000</v>
       </c>
       <c r="H24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>14500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>12700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>19300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>9900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56500</v>
+        <v>2800</v>
       </c>
       <c r="E26" s="3">
-        <v>31900</v>
+        <v>58700</v>
       </c>
       <c r="F26" s="3">
-        <v>21600</v>
+        <v>33100</v>
       </c>
       <c r="G26" s="3">
-        <v>51700</v>
+        <v>22400</v>
       </c>
       <c r="H26" s="3">
-        <v>138000</v>
+        <v>53600</v>
       </c>
       <c r="I26" s="3">
-        <v>-19000</v>
+        <v>143200</v>
       </c>
       <c r="J26" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K26" s="3">
         <v>27100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>55200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56500</v>
+        <v>2800</v>
       </c>
       <c r="E27" s="3">
-        <v>31900</v>
+        <v>58700</v>
       </c>
       <c r="F27" s="3">
-        <v>21600</v>
+        <v>33100</v>
       </c>
       <c r="G27" s="3">
-        <v>51700</v>
+        <v>22400</v>
       </c>
       <c r="H27" s="3">
-        <v>138000</v>
+        <v>53600</v>
       </c>
       <c r="I27" s="3">
-        <v>-19000</v>
+        <v>143200</v>
       </c>
       <c r="J27" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K27" s="3">
         <v>27100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>66600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>55200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24600</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>25500</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-30000</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-31100</v>
       </c>
       <c r="I32" s="3">
-        <v>-9000</v>
+        <v>-12300</v>
       </c>
       <c r="J32" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56500</v>
+        <v>2800</v>
       </c>
       <c r="E33" s="3">
-        <v>31900</v>
+        <v>58700</v>
       </c>
       <c r="F33" s="3">
-        <v>21600</v>
+        <v>33100</v>
       </c>
       <c r="G33" s="3">
-        <v>51700</v>
+        <v>22400</v>
       </c>
       <c r="H33" s="3">
-        <v>138000</v>
+        <v>53600</v>
       </c>
       <c r="I33" s="3">
-        <v>-19000</v>
+        <v>143200</v>
       </c>
       <c r="J33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K33" s="3">
         <v>27100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>66600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>55200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56500</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="3">
-        <v>31900</v>
+        <v>58700</v>
       </c>
       <c r="F35" s="3">
-        <v>21600</v>
+        <v>33100</v>
       </c>
       <c r="G35" s="3">
-        <v>51700</v>
+        <v>22400</v>
       </c>
       <c r="H35" s="3">
-        <v>138000</v>
+        <v>53600</v>
       </c>
       <c r="I35" s="3">
-        <v>-19000</v>
+        <v>143200</v>
       </c>
       <c r="J35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K35" s="3">
         <v>27100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>66600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>55200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>447600</v>
+        <v>464000</v>
       </c>
       <c r="E41" s="3">
-        <v>368500</v>
+        <v>464500</v>
       </c>
       <c r="F41" s="3">
-        <v>378800</v>
+        <v>382400</v>
       </c>
       <c r="G41" s="3">
-        <v>352600</v>
+        <v>393100</v>
       </c>
       <c r="H41" s="3">
-        <v>364900</v>
+        <v>365900</v>
       </c>
       <c r="I41" s="3">
-        <v>112900</v>
+        <v>378600</v>
       </c>
       <c r="J41" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K41" s="3">
         <v>79400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>239200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>275600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>208300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>132300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>140800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>138900</v>
+        <v>234900</v>
       </c>
       <c r="E43" s="3">
-        <v>244300</v>
+        <v>144100</v>
       </c>
       <c r="F43" s="3">
-        <v>254500</v>
+        <v>253500</v>
       </c>
       <c r="G43" s="3">
-        <v>47700</v>
+        <v>264100</v>
       </c>
       <c r="H43" s="3">
-        <v>196200</v>
+        <v>49500</v>
       </c>
       <c r="I43" s="3">
-        <v>18000</v>
+        <v>203600</v>
       </c>
       <c r="J43" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K43" s="3">
         <v>17700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3300</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,55 +2337,61 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>186600</v>
+        <v>126100</v>
       </c>
       <c r="E45" s="3">
-        <v>179300</v>
+        <v>193600</v>
       </c>
       <c r="F45" s="3">
-        <v>159900</v>
+        <v>186000</v>
       </c>
       <c r="G45" s="3">
+        <v>166000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>177300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>370700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>171500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>171900</v>
+      </c>
+      <c r="L45" s="3">
         <v>170900</v>
       </c>
-      <c r="H45" s="3">
-        <v>357200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>165200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>171900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>170900</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>158600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>168700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91700</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>67900</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,102 +2437,111 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>463900</v>
+        <v>389300</v>
       </c>
       <c r="E47" s="3">
-        <v>525500</v>
+        <v>481400</v>
       </c>
       <c r="F47" s="3">
-        <v>588000</v>
+        <v>545300</v>
       </c>
       <c r="G47" s="3">
-        <v>832800</v>
+        <v>610100</v>
       </c>
       <c r="H47" s="3">
-        <v>933200</v>
+        <v>864100</v>
       </c>
       <c r="I47" s="3">
-        <v>663300</v>
+        <v>968300</v>
       </c>
       <c r="J47" s="3">
+        <v>688300</v>
+      </c>
+      <c r="K47" s="3">
         <v>707400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>617000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>261900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>255800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>314900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>297700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>236800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74200</v>
+        <v>69700</v>
       </c>
       <c r="E48" s="3">
-        <v>83600</v>
+        <v>77000</v>
       </c>
       <c r="F48" s="3">
-        <v>87900</v>
+        <v>86800</v>
       </c>
       <c r="G48" s="3">
-        <v>88100</v>
+        <v>91200</v>
       </c>
       <c r="H48" s="3">
-        <v>37200</v>
+        <v>91400</v>
       </c>
       <c r="I48" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K48" s="3">
         <v>13500</v>
       </c>
-      <c r="J48" s="3">
-        <v>13500</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8900</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5200</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16300</v>
+        <v>12400</v>
       </c>
       <c r="E52" s="3">
-        <v>32800</v>
+        <v>16900</v>
       </c>
       <c r="F52" s="3">
-        <v>37200</v>
+        <v>34000</v>
       </c>
       <c r="G52" s="3">
-        <v>35600</v>
+        <v>38600</v>
       </c>
       <c r="H52" s="3">
-        <v>85600</v>
+        <v>36900</v>
       </c>
       <c r="I52" s="3">
-        <v>48200</v>
+        <v>88800</v>
       </c>
       <c r="J52" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K52" s="3">
         <v>152900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>290800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>386900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>361500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>337900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>205100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>240600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1349800</v>
+        <v>1318200</v>
       </c>
       <c r="E54" s="3">
-        <v>1454000</v>
+        <v>1400700</v>
       </c>
       <c r="F54" s="3">
-        <v>1526200</v>
+        <v>1508700</v>
       </c>
       <c r="G54" s="3">
-        <v>1547700</v>
+        <v>1583600</v>
       </c>
       <c r="H54" s="3">
-        <v>1994700</v>
+        <v>1606000</v>
       </c>
       <c r="I54" s="3">
-        <v>1021200</v>
+        <v>2069800</v>
       </c>
       <c r="J54" s="3">
+        <v>1059600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1142900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1349900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1115800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1036300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>888900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>782000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>695600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="E57" s="3">
-        <v>8700</v>
+        <v>6300</v>
       </c>
       <c r="F57" s="3">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="G57" s="3">
-        <v>7500</v>
+        <v>7900</v>
       </c>
       <c r="H57" s="3">
-        <v>43000</v>
+        <v>7800</v>
       </c>
       <c r="I57" s="3">
-        <v>4600</v>
+        <v>44600</v>
       </c>
       <c r="J57" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="K57" s="3">
         <v>5100</v>
       </c>
       <c r="L57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,55 +2977,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>381800</v>
+        <v>336600</v>
       </c>
       <c r="E59" s="3">
-        <v>414800</v>
+        <v>396100</v>
       </c>
       <c r="F59" s="3">
-        <v>388500</v>
+        <v>430400</v>
       </c>
       <c r="G59" s="3">
-        <v>394800</v>
+        <v>403100</v>
       </c>
       <c r="H59" s="3">
-        <v>1553000</v>
+        <v>409700</v>
       </c>
       <c r="I59" s="3">
-        <v>216100</v>
+        <v>1611500</v>
       </c>
       <c r="J59" s="3">
+        <v>224200</v>
+      </c>
+      <c r="K59" s="3">
         <v>361500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>189000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>220600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>277900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>152400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>55300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>205500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,46 +3127,49 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30600</v>
+        <v>31400</v>
       </c>
       <c r="E62" s="3">
-        <v>37500</v>
+        <v>31800</v>
       </c>
       <c r="F62" s="3">
-        <v>46100</v>
+        <v>38900</v>
       </c>
       <c r="G62" s="3">
-        <v>58500</v>
+        <v>47800</v>
       </c>
       <c r="H62" s="3">
-        <v>68100</v>
+        <v>60700</v>
       </c>
       <c r="I62" s="3">
-        <v>78600</v>
+        <v>70700</v>
       </c>
       <c r="J62" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K62" s="3">
         <v>92100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>90000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8900</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>721400</v>
+        <v>666900</v>
       </c>
       <c r="E66" s="3">
-        <v>1044800</v>
+        <v>748600</v>
       </c>
       <c r="F66" s="3">
-        <v>1150900</v>
+        <v>1084100</v>
       </c>
       <c r="G66" s="3">
-        <v>1193200</v>
+        <v>1194300</v>
       </c>
       <c r="H66" s="3">
-        <v>2045500</v>
+        <v>1238100</v>
       </c>
       <c r="I66" s="3">
-        <v>353000</v>
+        <v>2122600</v>
       </c>
       <c r="J66" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K66" s="3">
         <v>501700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>726100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>675100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>665900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>480400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>420000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>384400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-74700</v>
+        <v>-78800</v>
       </c>
       <c r="E72" s="3">
-        <v>-131100</v>
+        <v>-77500</v>
       </c>
       <c r="F72" s="3">
-        <v>-162500</v>
+        <v>-136000</v>
       </c>
       <c r="G72" s="3">
-        <v>-183400</v>
+        <v>-168600</v>
       </c>
       <c r="H72" s="3">
-        <v>299100</v>
+        <v>-190300</v>
       </c>
       <c r="I72" s="3">
-        <v>488400</v>
+        <v>310400</v>
       </c>
       <c r="J72" s="3">
+        <v>506800</v>
+      </c>
+      <c r="K72" s="3">
         <v>475500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>459100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>272300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>207200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>264700</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>171200</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>628400</v>
+        <v>651300</v>
       </c>
       <c r="E76" s="3">
-        <v>409200</v>
+        <v>652100</v>
       </c>
       <c r="F76" s="3">
-        <v>375200</v>
+        <v>424600</v>
       </c>
       <c r="G76" s="3">
-        <v>354600</v>
+        <v>389400</v>
       </c>
       <c r="H76" s="3">
-        <v>-50900</v>
+        <v>367900</v>
       </c>
       <c r="I76" s="3">
-        <v>668200</v>
+        <v>-52800</v>
       </c>
       <c r="J76" s="3">
+        <v>693400</v>
+      </c>
+      <c r="K76" s="3">
         <v>641200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>623800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>440800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>370400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>408500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>361900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>311200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56500</v>
+        <v>2800</v>
       </c>
       <c r="E81" s="3">
-        <v>31900</v>
+        <v>58700</v>
       </c>
       <c r="F81" s="3">
-        <v>21600</v>
+        <v>33100</v>
       </c>
       <c r="G81" s="3">
-        <v>51700</v>
+        <v>22400</v>
       </c>
       <c r="H81" s="3">
-        <v>138000</v>
+        <v>53600</v>
       </c>
       <c r="I81" s="3">
-        <v>-19000</v>
+        <v>143200</v>
       </c>
       <c r="J81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K81" s="3">
         <v>27100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>66600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>55200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12300</v>
+        <v>81000</v>
       </c>
       <c r="E89" s="3">
-        <v>164600</v>
+        <v>12800</v>
       </c>
       <c r="F89" s="3">
-        <v>-46500</v>
+        <v>170800</v>
       </c>
       <c r="G89" s="3">
-        <v>-92100</v>
+        <v>-48200</v>
       </c>
       <c r="H89" s="3">
-        <v>143600</v>
+        <v>-95600</v>
       </c>
       <c r="I89" s="3">
-        <v>-19300</v>
+        <v>149000</v>
       </c>
       <c r="J89" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-191800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-48500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>189300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>82100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>121600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>286000</v>
+        <v>-76200</v>
       </c>
       <c r="E94" s="3">
-        <v>-180900</v>
+        <v>296700</v>
       </c>
       <c r="F94" s="3">
-        <v>81900</v>
+        <v>-187700</v>
       </c>
       <c r="G94" s="3">
-        <v>-31600</v>
+        <v>85000</v>
       </c>
       <c r="H94" s="3">
-        <v>122500</v>
+        <v>-32800</v>
       </c>
       <c r="I94" s="3">
-        <v>310700</v>
+        <v>127200</v>
       </c>
       <c r="J94" s="3">
+        <v>322400</v>
+      </c>
+      <c r="K94" s="3">
         <v>65700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>50800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-62200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-117500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-220700</v>
+        <v>-9500</v>
       </c>
       <c r="E100" s="3">
+        <v>-229000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-10300</v>
-      </c>
       <c r="G100" s="3">
-        <v>69100</v>
+        <v>-10700</v>
       </c>
       <c r="H100" s="3">
-        <v>-10100</v>
+        <v>71700</v>
       </c>
       <c r="I100" s="3">
-        <v>-14800</v>
+        <v>-10500</v>
       </c>
       <c r="J100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-86300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>400</v>
-      </c>
       <c r="F101" s="3">
+        <v>500</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1200</v>
-      </c>
       <c r="I101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>77300</v>
+        <v>-4500</v>
       </c>
       <c r="E102" s="3">
-        <v>-14800</v>
+        <v>80200</v>
       </c>
       <c r="F102" s="3">
-        <v>28700</v>
+        <v>-15400</v>
       </c>
       <c r="G102" s="3">
-        <v>-58300</v>
+        <v>29700</v>
       </c>
       <c r="H102" s="3">
-        <v>143600</v>
+        <v>-60500</v>
       </c>
       <c r="I102" s="3">
-        <v>-5600</v>
+        <v>149000</v>
       </c>
       <c r="J102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-231900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-111400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>75600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>81000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>148700</v>
+        <v>155600</v>
       </c>
       <c r="E8" s="3">
-        <v>366400</v>
+        <v>114800</v>
       </c>
       <c r="F8" s="3">
-        <v>298600</v>
+        <v>155700</v>
       </c>
       <c r="G8" s="3">
-        <v>321900</v>
+        <v>383800</v>
       </c>
       <c r="H8" s="3">
-        <v>287600</v>
+        <v>312800</v>
       </c>
       <c r="I8" s="3">
+        <v>337200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K8" s="3">
         <v>431100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>317700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>418100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>540200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>270800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>224700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>175600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>148600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>155800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14900</v>
+        <v>36500</v>
       </c>
       <c r="E9" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="F9" s="3">
-        <v>22700</v>
+        <v>15700</v>
       </c>
       <c r="G9" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H9" s="3">
         <v>23700</v>
       </c>
-      <c r="H9" s="3">
-        <v>25000</v>
-      </c>
       <c r="I9" s="3">
+        <v>24800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K9" s="3">
         <v>33000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>38100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>43000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>38000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>21800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>17700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>13800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>133700</v>
+        <v>119100</v>
       </c>
       <c r="E10" s="3">
-        <v>341200</v>
+        <v>89700</v>
       </c>
       <c r="F10" s="3">
-        <v>275900</v>
+        <v>140100</v>
       </c>
       <c r="G10" s="3">
-        <v>298300</v>
+        <v>357300</v>
       </c>
       <c r="H10" s="3">
-        <v>262600</v>
+        <v>289000</v>
       </c>
       <c r="I10" s="3">
+        <v>312400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>275100</v>
+      </c>
+      <c r="K10" s="3">
         <v>398100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>279600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>375100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>502200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>249000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>207000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>161800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>140000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>147500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>146900</v>
+        <v>138300</v>
       </c>
       <c r="E17" s="3">
-        <v>270500</v>
+        <v>154400</v>
       </c>
       <c r="F17" s="3">
-        <v>265700</v>
+        <v>153900</v>
       </c>
       <c r="G17" s="3">
-        <v>297400</v>
+        <v>283300</v>
       </c>
       <c r="H17" s="3">
-        <v>254000</v>
+        <v>278300</v>
       </c>
       <c r="I17" s="3">
+        <v>311500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>266000</v>
+      </c>
+      <c r="K17" s="3">
         <v>295500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>341600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>406400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>455900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>191700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>168600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>120200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>91400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>98100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1700</v>
+        <v>17300</v>
       </c>
       <c r="E18" s="3">
-        <v>95900</v>
+        <v>-39600</v>
       </c>
       <c r="F18" s="3">
-        <v>32900</v>
+        <v>1800</v>
       </c>
       <c r="G18" s="3">
-        <v>24500</v>
+        <v>100500</v>
       </c>
       <c r="H18" s="3">
-        <v>33600</v>
+        <v>34500</v>
       </c>
       <c r="I18" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K18" s="3">
         <v>135600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>84200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>79100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>56100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>55400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>57100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>57700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>21400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>31100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7300</v>
+        <v>14500</v>
       </c>
       <c r="E21" s="3">
-        <v>72300</v>
+        <v>-43000</v>
       </c>
       <c r="F21" s="3">
-        <v>36200</v>
+        <v>7700</v>
       </c>
       <c r="G21" s="3">
-        <v>31200</v>
+        <v>75700</v>
       </c>
       <c r="H21" s="3">
-        <v>69400</v>
+        <v>37900</v>
       </c>
       <c r="I21" s="3">
+        <v>32700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K21" s="3">
         <v>164200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-14800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>33000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>94400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>81200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>58000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>59400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>61500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>59800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3400</v>
+        <v>14600</v>
       </c>
       <c r="E23" s="3">
-        <v>70400</v>
+        <v>-42600</v>
       </c>
       <c r="F23" s="3">
-        <v>36000</v>
+        <v>3500</v>
       </c>
       <c r="G23" s="3">
-        <v>31400</v>
+        <v>73800</v>
       </c>
       <c r="H23" s="3">
-        <v>64700</v>
+        <v>37700</v>
       </c>
       <c r="I23" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K23" s="3">
         <v>147900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>33100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>88900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>81100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>57700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>59300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>60900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>59700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>11800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2900</v>
-      </c>
       <c r="G24" s="3">
-        <v>9000</v>
+        <v>12300</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>19300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>12100</v>
       </c>
       <c r="E26" s="3">
-        <v>58700</v>
+        <v>-35300</v>
       </c>
       <c r="F26" s="3">
-        <v>33100</v>
+        <v>2900</v>
       </c>
       <c r="G26" s="3">
-        <v>22400</v>
+        <v>61500</v>
       </c>
       <c r="H26" s="3">
-        <v>53600</v>
+        <v>34700</v>
       </c>
       <c r="I26" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K26" s="3">
         <v>143200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>27100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>76900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>66600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>45000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>39900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>55200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2800</v>
+        <v>12100</v>
       </c>
       <c r="E27" s="3">
-        <v>58700</v>
+        <v>-35300</v>
       </c>
       <c r="F27" s="3">
-        <v>33100</v>
+        <v>2900</v>
       </c>
       <c r="G27" s="3">
-        <v>22400</v>
+        <v>61500</v>
       </c>
       <c r="H27" s="3">
-        <v>53600</v>
+        <v>34700</v>
       </c>
       <c r="I27" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K27" s="3">
         <v>143200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>27100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>76900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>66600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>45000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>39900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>55200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>26700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>25500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-31100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2800</v>
+        <v>12100</v>
       </c>
       <c r="E33" s="3">
-        <v>58700</v>
+        <v>-35300</v>
       </c>
       <c r="F33" s="3">
-        <v>33100</v>
+        <v>2900</v>
       </c>
       <c r="G33" s="3">
-        <v>22400</v>
+        <v>61500</v>
       </c>
       <c r="H33" s="3">
-        <v>53600</v>
+        <v>34700</v>
       </c>
       <c r="I33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K33" s="3">
         <v>143200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>27100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>76900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>66600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>45000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>39900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>55200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2800</v>
+        <v>12100</v>
       </c>
       <c r="E35" s="3">
-        <v>58700</v>
+        <v>-35300</v>
       </c>
       <c r="F35" s="3">
-        <v>33100</v>
+        <v>2900</v>
       </c>
       <c r="G35" s="3">
-        <v>22400</v>
+        <v>61500</v>
       </c>
       <c r="H35" s="3">
-        <v>53600</v>
+        <v>34700</v>
       </c>
       <c r="I35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K35" s="3">
         <v>143200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>27100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>76900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>66600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>45000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>39900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>55200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>464000</v>
+        <v>431400</v>
       </c>
       <c r="E41" s="3">
-        <v>464500</v>
+        <v>446600</v>
       </c>
       <c r="F41" s="3">
-        <v>382400</v>
+        <v>486000</v>
       </c>
       <c r="G41" s="3">
-        <v>393100</v>
+        <v>486500</v>
       </c>
       <c r="H41" s="3">
-        <v>365900</v>
+        <v>400500</v>
       </c>
       <c r="I41" s="3">
+        <v>411700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>383300</v>
+      </c>
+      <c r="K41" s="3">
         <v>378600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>117200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>79400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>239200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>275600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>208300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>132300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>125700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>140800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2420,70 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>234900</v>
+        <v>256300</v>
       </c>
       <c r="E43" s="3">
-        <v>144100</v>
+        <v>241500</v>
       </c>
       <c r="F43" s="3">
-        <v>253500</v>
+        <v>246100</v>
       </c>
       <c r="G43" s="3">
-        <v>264100</v>
+        <v>150900</v>
       </c>
       <c r="H43" s="3">
-        <v>49500</v>
+        <v>265600</v>
       </c>
       <c r="I43" s="3">
+        <v>276700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K43" s="3">
         <v>203600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>18700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>20100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>20600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>29800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3300</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>4400</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,58 +2532,70 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>126100</v>
+        <v>150100</v>
       </c>
       <c r="E45" s="3">
-        <v>193600</v>
+        <v>172500</v>
       </c>
       <c r="F45" s="3">
-        <v>186000</v>
+        <v>132100</v>
       </c>
       <c r="G45" s="3">
-        <v>166000</v>
+        <v>202800</v>
       </c>
       <c r="H45" s="3">
-        <v>177300</v>
+        <v>194800</v>
       </c>
       <c r="I45" s="3">
+        <v>173800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K45" s="3">
         <v>370700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>171500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>171900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>170900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>158600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>168700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>91700</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>67900</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>67900</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,108 +2644,126 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>389300</v>
+        <v>333600</v>
       </c>
       <c r="E47" s="3">
-        <v>481400</v>
+        <v>330900</v>
       </c>
       <c r="F47" s="3">
-        <v>545300</v>
+        <v>407800</v>
       </c>
       <c r="G47" s="3">
-        <v>610100</v>
+        <v>504200</v>
       </c>
       <c r="H47" s="3">
-        <v>864100</v>
+        <v>571100</v>
       </c>
       <c r="I47" s="3">
+        <v>639100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>905100</v>
+      </c>
+      <c r="K47" s="3">
         <v>968300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>688300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>707400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>617000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>261900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>255800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>314900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>297700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>236800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69700</v>
+        <v>49400</v>
       </c>
       <c r="E48" s="3">
-        <v>77000</v>
+        <v>62200</v>
       </c>
       <c r="F48" s="3">
-        <v>86800</v>
+        <v>73000</v>
       </c>
       <c r="G48" s="3">
-        <v>91200</v>
+        <v>80600</v>
       </c>
       <c r="H48" s="3">
-        <v>91400</v>
+        <v>90900</v>
       </c>
       <c r="I48" s="3">
+        <v>95600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K48" s="3">
         <v>38600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8900</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5200</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12400</v>
+        <v>33800</v>
       </c>
       <c r="E52" s="3">
-        <v>16900</v>
+        <v>21300</v>
       </c>
       <c r="F52" s="3">
-        <v>34000</v>
+        <v>12900</v>
       </c>
       <c r="G52" s="3">
-        <v>38600</v>
+        <v>17700</v>
       </c>
       <c r="H52" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="I52" s="3">
+        <v>40400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K52" s="3">
         <v>88800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>50000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>152900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>290800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>386900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>361500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>337900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>205100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>240600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1318200</v>
+        <v>1273500</v>
       </c>
       <c r="E54" s="3">
-        <v>1400700</v>
+        <v>1297200</v>
       </c>
       <c r="F54" s="3">
-        <v>1508700</v>
+        <v>1380800</v>
       </c>
       <c r="G54" s="3">
-        <v>1583600</v>
+        <v>1467100</v>
       </c>
       <c r="H54" s="3">
-        <v>1606000</v>
+        <v>1580300</v>
       </c>
       <c r="I54" s="3">
+        <v>1658800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1682200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2069800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1059600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1142900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1349900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1115800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1036300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>888900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>782000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>695600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="E57" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="F57" s="3">
-        <v>9000</v>
+        <v>5900</v>
       </c>
       <c r="G57" s="3">
-        <v>7900</v>
+        <v>6600</v>
       </c>
       <c r="H57" s="3">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="I57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K57" s="3">
         <v>44600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2000</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,58 +3248,70 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>336600</v>
+        <v>368500</v>
       </c>
       <c r="E59" s="3">
-        <v>396100</v>
+        <v>360600</v>
       </c>
       <c r="F59" s="3">
-        <v>430400</v>
+        <v>352500</v>
       </c>
       <c r="G59" s="3">
-        <v>403100</v>
+        <v>414900</v>
       </c>
       <c r="H59" s="3">
-        <v>409700</v>
+        <v>450800</v>
       </c>
       <c r="I59" s="3">
+        <v>422300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>429100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1611500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>224200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>361500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>189000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>220600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>277900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>152400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>55300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>205500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3360,14 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,58 +3416,70 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31400</v>
+        <v>22900</v>
       </c>
       <c r="E62" s="3">
-        <v>31800</v>
+        <v>24600</v>
       </c>
       <c r="F62" s="3">
-        <v>38900</v>
+        <v>32900</v>
       </c>
       <c r="G62" s="3">
-        <v>47800</v>
+        <v>33300</v>
       </c>
       <c r="H62" s="3">
-        <v>60700</v>
+        <v>40700</v>
       </c>
       <c r="I62" s="3">
+        <v>50100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K62" s="3">
         <v>70700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>81500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>92100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>90000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8900</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>666900</v>
+        <v>613100</v>
       </c>
       <c r="E66" s="3">
-        <v>748600</v>
+        <v>649200</v>
       </c>
       <c r="F66" s="3">
-        <v>1084100</v>
+        <v>698600</v>
       </c>
       <c r="G66" s="3">
-        <v>1194300</v>
+        <v>784100</v>
       </c>
       <c r="H66" s="3">
-        <v>1238100</v>
+        <v>1135500</v>
       </c>
       <c r="I66" s="3">
+        <v>1250900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1296800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2122600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>366300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>501700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>726100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>675100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>665900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>480400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>420000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>384400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-78800</v>
+        <v>-106000</v>
       </c>
       <c r="E72" s="3">
-        <v>-77500</v>
+        <v>-118100</v>
       </c>
       <c r="F72" s="3">
-        <v>-136000</v>
+        <v>-82500</v>
       </c>
       <c r="G72" s="3">
-        <v>-168600</v>
+        <v>-81200</v>
       </c>
       <c r="H72" s="3">
-        <v>-190300</v>
+        <v>-142500</v>
       </c>
       <c r="I72" s="3">
+        <v>-176600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-199300</v>
+      </c>
+      <c r="K72" s="3">
         <v>310400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>506800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>475500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>459100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>272300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>207200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>264700</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>171200</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>171200</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>651300</v>
+        <v>660400</v>
       </c>
       <c r="E76" s="3">
-        <v>652100</v>
+        <v>648100</v>
       </c>
       <c r="F76" s="3">
-        <v>424600</v>
+        <v>682200</v>
       </c>
       <c r="G76" s="3">
-        <v>389400</v>
+        <v>683000</v>
       </c>
       <c r="H76" s="3">
-        <v>367900</v>
+        <v>444800</v>
       </c>
       <c r="I76" s="3">
+        <v>407800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>385400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-52800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>693400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>641200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>623800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>440800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>370400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>408500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>361900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>311200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2800</v>
+        <v>12100</v>
       </c>
       <c r="E81" s="3">
-        <v>58700</v>
+        <v>-35300</v>
       </c>
       <c r="F81" s="3">
-        <v>33100</v>
+        <v>2900</v>
       </c>
       <c r="G81" s="3">
-        <v>22400</v>
+        <v>61500</v>
       </c>
       <c r="H81" s="3">
-        <v>53600</v>
+        <v>34700</v>
       </c>
       <c r="I81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K81" s="3">
         <v>143200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>27100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>76900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>66600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>45000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>39900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>55200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>81000</v>
+        <v>4600</v>
       </c>
       <c r="E89" s="3">
-        <v>12800</v>
+        <v>-13200</v>
       </c>
       <c r="F89" s="3">
-        <v>170800</v>
+        <v>84800</v>
       </c>
       <c r="G89" s="3">
-        <v>-48200</v>
+        <v>13400</v>
       </c>
       <c r="H89" s="3">
-        <v>-95600</v>
+        <v>178900</v>
       </c>
       <c r="I89" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="K89" s="3">
         <v>149000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-20100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-191800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-48500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>189300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>51400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>78700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>82100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>121600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76200</v>
+        <v>-19200</v>
       </c>
       <c r="E94" s="3">
-        <v>296700</v>
+        <v>-25000</v>
       </c>
       <c r="F94" s="3">
-        <v>-187700</v>
+        <v>-79800</v>
       </c>
       <c r="G94" s="3">
-        <v>85000</v>
+        <v>310800</v>
       </c>
       <c r="H94" s="3">
-        <v>-32800</v>
+        <v>-196600</v>
       </c>
       <c r="I94" s="3">
+        <v>89000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="K94" s="3">
         <v>127200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>322400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>65700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-37700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-28700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>50800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-117500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9500</v>
+        <v>12400</v>
       </c>
       <c r="E100" s="3">
-        <v>-229000</v>
+        <v>6100</v>
       </c>
       <c r="F100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-239800</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>71700</v>
-      </c>
       <c r="I100" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-10500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>33900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-86300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-14100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>8800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>500</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="K101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R101" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4500</v>
+        <v>-2700</v>
       </c>
       <c r="E102" s="3">
-        <v>80200</v>
+        <v>-32200</v>
       </c>
       <c r="F102" s="3">
-        <v>-15400</v>
+        <v>-4700</v>
       </c>
       <c r="G102" s="3">
-        <v>29700</v>
+        <v>84000</v>
       </c>
       <c r="H102" s="3">
-        <v>-60500</v>
+        <v>-16100</v>
       </c>
       <c r="I102" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K102" s="3">
         <v>149000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-231900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-111400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>75600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>81000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>49500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>12800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>15400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>155600</v>
+        <v>156300</v>
       </c>
       <c r="E8" s="3">
-        <v>114800</v>
+        <v>115300</v>
       </c>
       <c r="F8" s="3">
-        <v>155700</v>
+        <v>156400</v>
       </c>
       <c r="G8" s="3">
-        <v>383800</v>
+        <v>385500</v>
       </c>
       <c r="H8" s="3">
-        <v>312800</v>
+        <v>314100</v>
       </c>
       <c r="I8" s="3">
-        <v>337200</v>
+        <v>338700</v>
       </c>
       <c r="J8" s="3">
-        <v>301300</v>
+        <v>302600</v>
       </c>
       <c r="K8" s="3">
         <v>431100</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="E9" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="F9" s="3">
         <v>15700</v>
       </c>
       <c r="G9" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="H9" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="I9" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="J9" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="K9" s="3">
         <v>33000</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>119100</v>
+        <v>119600</v>
       </c>
       <c r="E10" s="3">
-        <v>89700</v>
+        <v>90100</v>
       </c>
       <c r="F10" s="3">
-        <v>140100</v>
+        <v>140700</v>
       </c>
       <c r="G10" s="3">
-        <v>357300</v>
+        <v>358900</v>
       </c>
       <c r="H10" s="3">
-        <v>289000</v>
+        <v>290300</v>
       </c>
       <c r="I10" s="3">
-        <v>312400</v>
+        <v>313800</v>
       </c>
       <c r="J10" s="3">
-        <v>275100</v>
+        <v>276300</v>
       </c>
       <c r="K10" s="3">
         <v>398100</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>138300</v>
+        <v>138900</v>
       </c>
       <c r="E17" s="3">
-        <v>154400</v>
+        <v>155100</v>
       </c>
       <c r="F17" s="3">
-        <v>153900</v>
+        <v>154600</v>
       </c>
       <c r="G17" s="3">
-        <v>283300</v>
+        <v>284600</v>
       </c>
       <c r="H17" s="3">
-        <v>278300</v>
+        <v>279500</v>
       </c>
       <c r="I17" s="3">
-        <v>311500</v>
+        <v>312900</v>
       </c>
       <c r="J17" s="3">
-        <v>266000</v>
+        <v>267200</v>
       </c>
       <c r="K17" s="3">
         <v>295500</v>
@@ -1244,22 +1244,22 @@
         <v>17300</v>
       </c>
       <c r="E18" s="3">
-        <v>-39600</v>
+        <v>-39800</v>
       </c>
       <c r="F18" s="3">
         <v>1800</v>
       </c>
       <c r="G18" s="3">
-        <v>100500</v>
+        <v>100900</v>
       </c>
       <c r="H18" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="I18" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="J18" s="3">
-        <v>35200</v>
+        <v>35400</v>
       </c>
       <c r="K18" s="3">
         <v>135600</v>
@@ -1328,7 +1328,7 @@
         <v>1700</v>
       </c>
       <c r="G20" s="3">
-        <v>-26700</v>
+        <v>-26800</v>
       </c>
       <c r="H20" s="3">
         <v>3200</v>
@@ -1337,7 +1337,7 @@
         <v>7300</v>
       </c>
       <c r="J20" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="K20" s="3">
         <v>12300</v>
@@ -1378,22 +1378,22 @@
         <v>14500</v>
       </c>
       <c r="E21" s="3">
-        <v>-43000</v>
+        <v>-43200</v>
       </c>
       <c r="F21" s="3">
         <v>7700</v>
       </c>
       <c r="G21" s="3">
-        <v>75700</v>
+        <v>76100</v>
       </c>
       <c r="H21" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="I21" s="3">
-        <v>32700</v>
+        <v>32800</v>
       </c>
       <c r="J21" s="3">
-        <v>72700</v>
+        <v>73100</v>
       </c>
       <c r="K21" s="3">
         <v>164200</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="E23" s="3">
-        <v>-42600</v>
+        <v>-42700</v>
       </c>
       <c r="F23" s="3">
         <v>3500</v>
       </c>
       <c r="G23" s="3">
-        <v>73800</v>
+        <v>74100</v>
       </c>
       <c r="H23" s="3">
-        <v>37700</v>
+        <v>37900</v>
       </c>
       <c r="I23" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="J23" s="3">
-        <v>67800</v>
+        <v>68100</v>
       </c>
       <c r="K23" s="3">
         <v>147900</v>
@@ -1546,22 +1546,22 @@
         <v>2500</v>
       </c>
       <c r="E24" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="H24" s="3">
         <v>3000</v>
       </c>
       <c r="I24" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J24" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="K24" s="3">
         <v>4700</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E26" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="F26" s="3">
         <v>2900</v>
       </c>
       <c r="G26" s="3">
-        <v>61500</v>
+        <v>61700</v>
       </c>
       <c r="H26" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="I26" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="J26" s="3">
-        <v>56200</v>
+        <v>56400</v>
       </c>
       <c r="K26" s="3">
         <v>143200</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E27" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="F27" s="3">
         <v>2900</v>
       </c>
       <c r="G27" s="3">
-        <v>61500</v>
+        <v>61700</v>
       </c>
       <c r="H27" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="I27" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="J27" s="3">
-        <v>56200</v>
+        <v>56400</v>
       </c>
       <c r="K27" s="3">
         <v>143200</v>
@@ -2000,7 +2000,7 @@
         <v>-1700</v>
       </c>
       <c r="G32" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="H32" s="3">
         <v>-3200</v>
@@ -2009,7 +2009,7 @@
         <v>-7300</v>
       </c>
       <c r="J32" s="3">
-        <v>-32600</v>
+        <v>-32700</v>
       </c>
       <c r="K32" s="3">
         <v>-12300</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E33" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="F33" s="3">
         <v>2900</v>
       </c>
       <c r="G33" s="3">
-        <v>61500</v>
+        <v>61700</v>
       </c>
       <c r="H33" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="I33" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="J33" s="3">
-        <v>56200</v>
+        <v>56400</v>
       </c>
       <c r="K33" s="3">
         <v>143200</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E35" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="F35" s="3">
         <v>2900</v>
       </c>
       <c r="G35" s="3">
-        <v>61500</v>
+        <v>61700</v>
       </c>
       <c r="H35" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="I35" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="J35" s="3">
-        <v>56200</v>
+        <v>56400</v>
       </c>
       <c r="K35" s="3">
         <v>143200</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>431400</v>
+        <v>433300</v>
       </c>
       <c r="E41" s="3">
-        <v>446600</v>
+        <v>448500</v>
       </c>
       <c r="F41" s="3">
-        <v>486000</v>
+        <v>488100</v>
       </c>
       <c r="G41" s="3">
-        <v>486500</v>
+        <v>488600</v>
       </c>
       <c r="H41" s="3">
-        <v>400500</v>
+        <v>402300</v>
       </c>
       <c r="I41" s="3">
-        <v>411700</v>
+        <v>413500</v>
       </c>
       <c r="J41" s="3">
-        <v>383300</v>
+        <v>384900</v>
       </c>
       <c r="K41" s="3">
         <v>378600</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>256300</v>
+        <v>257400</v>
       </c>
       <c r="E43" s="3">
-        <v>241500</v>
+        <v>242600</v>
       </c>
       <c r="F43" s="3">
-        <v>246100</v>
+        <v>247200</v>
       </c>
       <c r="G43" s="3">
-        <v>150900</v>
+        <v>151600</v>
       </c>
       <c r="H43" s="3">
-        <v>265600</v>
+        <v>266700</v>
       </c>
       <c r="I43" s="3">
-        <v>276700</v>
+        <v>277900</v>
       </c>
       <c r="J43" s="3">
-        <v>51900</v>
+        <v>52100</v>
       </c>
       <c r="K43" s="3">
         <v>203600</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>150100</v>
+        <v>150800</v>
       </c>
       <c r="E45" s="3">
-        <v>172500</v>
+        <v>173300</v>
       </c>
       <c r="F45" s="3">
-        <v>132100</v>
+        <v>132700</v>
       </c>
       <c r="G45" s="3">
-        <v>202800</v>
+        <v>203700</v>
       </c>
       <c r="H45" s="3">
-        <v>194800</v>
+        <v>195700</v>
       </c>
       <c r="I45" s="3">
-        <v>173800</v>
+        <v>174600</v>
       </c>
       <c r="J45" s="3">
-        <v>185700</v>
+        <v>186600</v>
       </c>
       <c r="K45" s="3">
         <v>370700</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>333600</v>
+        <v>335000</v>
       </c>
       <c r="E47" s="3">
-        <v>330900</v>
+        <v>332400</v>
       </c>
       <c r="F47" s="3">
-        <v>407800</v>
+        <v>409600</v>
       </c>
       <c r="G47" s="3">
-        <v>504200</v>
+        <v>506400</v>
       </c>
       <c r="H47" s="3">
-        <v>571100</v>
+        <v>573600</v>
       </c>
       <c r="I47" s="3">
-        <v>639100</v>
+        <v>641800</v>
       </c>
       <c r="J47" s="3">
-        <v>905100</v>
+        <v>909100</v>
       </c>
       <c r="K47" s="3">
         <v>968300</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49400</v>
+        <v>49600</v>
       </c>
       <c r="E48" s="3">
-        <v>62200</v>
+        <v>62500</v>
       </c>
       <c r="F48" s="3">
-        <v>73000</v>
+        <v>73300</v>
       </c>
       <c r="G48" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="H48" s="3">
-        <v>90900</v>
+        <v>91300</v>
       </c>
       <c r="I48" s="3">
-        <v>95600</v>
+        <v>96000</v>
       </c>
       <c r="J48" s="3">
-        <v>95700</v>
+        <v>96100</v>
       </c>
       <c r="K48" s="3">
         <v>38600</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="E52" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="F52" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="H52" s="3">
-        <v>35600</v>
+        <v>35800</v>
       </c>
       <c r="I52" s="3">
-        <v>40400</v>
+        <v>40600</v>
       </c>
       <c r="J52" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="K52" s="3">
         <v>88800</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1273500</v>
+        <v>1279000</v>
       </c>
       <c r="E54" s="3">
-        <v>1297200</v>
+        <v>1302900</v>
       </c>
       <c r="F54" s="3">
-        <v>1380800</v>
+        <v>1386800</v>
       </c>
       <c r="G54" s="3">
-        <v>1467100</v>
+        <v>1473500</v>
       </c>
       <c r="H54" s="3">
-        <v>1580300</v>
+        <v>1587200</v>
       </c>
       <c r="I54" s="3">
-        <v>1658800</v>
+        <v>1666000</v>
       </c>
       <c r="J54" s="3">
-        <v>1682200</v>
+        <v>1689500</v>
       </c>
       <c r="K54" s="3">
         <v>2069800</v>
@@ -3151,19 +3151,19 @@
         <v>3800</v>
       </c>
       <c r="E57" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F57" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
         <v>9500</v>
       </c>
       <c r="I57" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="J57" s="3">
         <v>8200</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>368500</v>
+        <v>370100</v>
       </c>
       <c r="E59" s="3">
-        <v>360600</v>
+        <v>362200</v>
       </c>
       <c r="F59" s="3">
-        <v>352500</v>
+        <v>354100</v>
       </c>
       <c r="G59" s="3">
-        <v>414900</v>
+        <v>416700</v>
       </c>
       <c r="H59" s="3">
-        <v>450800</v>
+        <v>452800</v>
       </c>
       <c r="I59" s="3">
-        <v>422300</v>
+        <v>424100</v>
       </c>
       <c r="J59" s="3">
-        <v>429100</v>
+        <v>431000</v>
       </c>
       <c r="K59" s="3">
         <v>1611500</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="E62" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="F62" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="G62" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="H62" s="3">
-        <v>40700</v>
+        <v>40900</v>
       </c>
       <c r="I62" s="3">
-        <v>50100</v>
+        <v>50300</v>
       </c>
       <c r="J62" s="3">
-        <v>63500</v>
+        <v>63800</v>
       </c>
       <c r="K62" s="3">
         <v>70700</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>613100</v>
+        <v>615800</v>
       </c>
       <c r="E66" s="3">
-        <v>649200</v>
+        <v>652000</v>
       </c>
       <c r="F66" s="3">
-        <v>698600</v>
+        <v>701600</v>
       </c>
       <c r="G66" s="3">
-        <v>784100</v>
+        <v>787500</v>
       </c>
       <c r="H66" s="3">
-        <v>1135500</v>
+        <v>1140500</v>
       </c>
       <c r="I66" s="3">
-        <v>1250900</v>
+        <v>1256300</v>
       </c>
       <c r="J66" s="3">
-        <v>1296800</v>
+        <v>1302400</v>
       </c>
       <c r="K66" s="3">
         <v>2122600</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-106000</v>
+        <v>-106500</v>
       </c>
       <c r="E72" s="3">
-        <v>-118100</v>
+        <v>-118600</v>
       </c>
       <c r="F72" s="3">
-        <v>-82500</v>
+        <v>-82900</v>
       </c>
       <c r="G72" s="3">
-        <v>-81200</v>
+        <v>-81500</v>
       </c>
       <c r="H72" s="3">
-        <v>-142500</v>
+        <v>-143100</v>
       </c>
       <c r="I72" s="3">
-        <v>-176600</v>
+        <v>-177400</v>
       </c>
       <c r="J72" s="3">
-        <v>-199300</v>
+        <v>-200200</v>
       </c>
       <c r="K72" s="3">
         <v>310400</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>660400</v>
+        <v>663200</v>
       </c>
       <c r="E76" s="3">
-        <v>648100</v>
+        <v>650900</v>
       </c>
       <c r="F76" s="3">
-        <v>682200</v>
+        <v>685200</v>
       </c>
       <c r="G76" s="3">
-        <v>683000</v>
+        <v>686000</v>
       </c>
       <c r="H76" s="3">
-        <v>444800</v>
+        <v>446700</v>
       </c>
       <c r="I76" s="3">
-        <v>407800</v>
+        <v>409600</v>
       </c>
       <c r="J76" s="3">
-        <v>385400</v>
+        <v>387000</v>
       </c>
       <c r="K76" s="3">
         <v>-52800</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E81" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="F81" s="3">
         <v>2900</v>
       </c>
       <c r="G81" s="3">
-        <v>61500</v>
+        <v>61700</v>
       </c>
       <c r="H81" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="I81" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="J81" s="3">
-        <v>56200</v>
+        <v>56400</v>
       </c>
       <c r="K81" s="3">
         <v>143200</v>
@@ -4768,22 +4768,22 @@
         <v>4600</v>
       </c>
       <c r="E89" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="F89" s="3">
-        <v>84800</v>
+        <v>85200</v>
       </c>
       <c r="G89" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="H89" s="3">
-        <v>178900</v>
+        <v>179700</v>
       </c>
       <c r="I89" s="3">
-        <v>-50500</v>
+        <v>-50700</v>
       </c>
       <c r="J89" s="3">
-        <v>-100100</v>
+        <v>-100600</v>
       </c>
       <c r="K89" s="3">
         <v>149000</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="E94" s="3">
-        <v>-25000</v>
+        <v>-25200</v>
       </c>
       <c r="F94" s="3">
-        <v>-79800</v>
+        <v>-80100</v>
       </c>
       <c r="G94" s="3">
-        <v>310800</v>
+        <v>312200</v>
       </c>
       <c r="H94" s="3">
-        <v>-196600</v>
+        <v>-197400</v>
       </c>
       <c r="I94" s="3">
-        <v>89000</v>
+        <v>89400</v>
       </c>
       <c r="J94" s="3">
-        <v>-34400</v>
+        <v>-34500</v>
       </c>
       <c r="K94" s="3">
         <v>127200</v>
@@ -5313,7 +5313,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E100" s="3">
         <v>6100</v>
@@ -5322,16 +5322,16 @@
         <v>-10000</v>
       </c>
       <c r="G100" s="3">
-        <v>-239800</v>
+        <v>-240900</v>
       </c>
       <c r="H100" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I100" s="3">
         <v>-11200</v>
       </c>
       <c r="J100" s="3">
-        <v>75100</v>
+        <v>75400</v>
       </c>
       <c r="K100" s="3">
         <v>-10500</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E102" s="3">
-        <v>-32200</v>
+        <v>-32300</v>
       </c>
       <c r="F102" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G102" s="3">
-        <v>84000</v>
+        <v>84400</v>
       </c>
       <c r="H102" s="3">
-        <v>-16100</v>
+        <v>-16200</v>
       </c>
       <c r="I102" s="3">
-        <v>31100</v>
+        <v>31300</v>
       </c>
       <c r="J102" s="3">
-        <v>-63400</v>
+        <v>-63600</v>
       </c>
       <c r="K102" s="3">
         <v>149000</v>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>156300</v>
+        <v>181100</v>
       </c>
       <c r="E8" s="3">
-        <v>115300</v>
+        <v>159600</v>
       </c>
       <c r="F8" s="3">
-        <v>156400</v>
+        <v>117700</v>
       </c>
       <c r="G8" s="3">
-        <v>385500</v>
+        <v>159700</v>
       </c>
       <c r="H8" s="3">
-        <v>314100</v>
+        <v>393600</v>
       </c>
       <c r="I8" s="3">
-        <v>338700</v>
+        <v>320800</v>
       </c>
       <c r="J8" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K8" s="3">
         <v>302600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>431100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>317700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>418100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>540200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>270800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>224700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>175600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>148600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>155800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36600</v>
+        <v>93100</v>
       </c>
       <c r="E9" s="3">
-        <v>25200</v>
+        <v>37400</v>
       </c>
       <c r="F9" s="3">
-        <v>15700</v>
+        <v>25800</v>
       </c>
       <c r="G9" s="3">
-        <v>26600</v>
+        <v>16100</v>
       </c>
       <c r="H9" s="3">
-        <v>23800</v>
+        <v>27100</v>
       </c>
       <c r="I9" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="J9" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K9" s="3">
         <v>26300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>119600</v>
+        <v>88000</v>
       </c>
       <c r="E10" s="3">
-        <v>90100</v>
+        <v>122200</v>
       </c>
       <c r="F10" s="3">
-        <v>140700</v>
+        <v>92000</v>
       </c>
       <c r="G10" s="3">
-        <v>358900</v>
+        <v>143700</v>
       </c>
       <c r="H10" s="3">
-        <v>290300</v>
+        <v>366500</v>
       </c>
       <c r="I10" s="3">
-        <v>313800</v>
+        <v>296400</v>
       </c>
       <c r="J10" s="3">
+        <v>320400</v>
+      </c>
+      <c r="K10" s="3">
         <v>276300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>398100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>279600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>375100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>502200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>249000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>207000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>161800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>140000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>147500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>102300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>138900</v>
+        <v>270200</v>
       </c>
       <c r="E17" s="3">
-        <v>155100</v>
+        <v>141900</v>
       </c>
       <c r="F17" s="3">
-        <v>154600</v>
+        <v>158300</v>
       </c>
       <c r="G17" s="3">
-        <v>284600</v>
+        <v>157800</v>
       </c>
       <c r="H17" s="3">
-        <v>279500</v>
+        <v>290600</v>
       </c>
       <c r="I17" s="3">
-        <v>312900</v>
+        <v>285400</v>
       </c>
       <c r="J17" s="3">
+        <v>319500</v>
+      </c>
+      <c r="K17" s="3">
         <v>267200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>295500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>341600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>406400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>455900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>191700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>168600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>120200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>91400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>98100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17300</v>
+        <v>-89000</v>
       </c>
       <c r="E18" s="3">
-        <v>-39800</v>
+        <v>17700</v>
       </c>
       <c r="F18" s="3">
-        <v>1800</v>
+        <v>-40600</v>
       </c>
       <c r="G18" s="3">
-        <v>100900</v>
+        <v>1900</v>
       </c>
       <c r="H18" s="3">
-        <v>34700</v>
+        <v>103000</v>
       </c>
       <c r="I18" s="3">
-        <v>25800</v>
+        <v>35400</v>
       </c>
       <c r="J18" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K18" s="3">
         <v>35400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>135600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>79100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>56100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-6600</v>
       </c>
       <c r="E20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>1700</v>
-      </c>
       <c r="G20" s="3">
-        <v>-26800</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="3">
-        <v>3200</v>
+        <v>-27400</v>
       </c>
       <c r="I20" s="3">
-        <v>7300</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K20" s="3">
         <v>32700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14500</v>
+        <v>-96700</v>
       </c>
       <c r="E21" s="3">
-        <v>-43200</v>
+        <v>14900</v>
       </c>
       <c r="F21" s="3">
-        <v>7700</v>
+        <v>-44100</v>
       </c>
       <c r="G21" s="3">
-        <v>76100</v>
+        <v>7900</v>
       </c>
       <c r="H21" s="3">
-        <v>38000</v>
+        <v>77700</v>
       </c>
       <c r="I21" s="3">
-        <v>32800</v>
+        <v>38800</v>
       </c>
       <c r="J21" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K21" s="3">
         <v>73100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>164200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>94400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>58000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>59400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>61500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>59800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14700</v>
+        <v>-95600</v>
       </c>
       <c r="E23" s="3">
-        <v>-42700</v>
+        <v>15000</v>
       </c>
       <c r="F23" s="3">
-        <v>3500</v>
+        <v>-43600</v>
       </c>
       <c r="G23" s="3">
-        <v>74100</v>
+        <v>3600</v>
       </c>
       <c r="H23" s="3">
-        <v>37900</v>
+        <v>75600</v>
       </c>
       <c r="I23" s="3">
-        <v>33000</v>
+        <v>38700</v>
       </c>
       <c r="J23" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K23" s="3">
         <v>68100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>88900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>60900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2500</v>
+        <v>-8300</v>
       </c>
       <c r="E24" s="3">
-        <v>-7300</v>
+        <v>2600</v>
       </c>
       <c r="F24" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
-        <v>12400</v>
-      </c>
       <c r="H24" s="3">
-        <v>3000</v>
+        <v>12600</v>
       </c>
       <c r="I24" s="3">
-        <v>9500</v>
+        <v>3100</v>
       </c>
       <c r="J24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K24" s="3">
         <v>11700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12200</v>
+        <v>-87300</v>
       </c>
       <c r="E26" s="3">
-        <v>-35500</v>
+        <v>12500</v>
       </c>
       <c r="F26" s="3">
-        <v>2900</v>
+        <v>-36200</v>
       </c>
       <c r="G26" s="3">
-        <v>61700</v>
+        <v>3000</v>
       </c>
       <c r="H26" s="3">
-        <v>34800</v>
+        <v>63000</v>
       </c>
       <c r="I26" s="3">
-        <v>23600</v>
+        <v>35600</v>
       </c>
       <c r="J26" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K26" s="3">
         <v>56400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>143200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>55200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12200</v>
+        <v>-87300</v>
       </c>
       <c r="E27" s="3">
-        <v>-35500</v>
+        <v>12500</v>
       </c>
       <c r="F27" s="3">
-        <v>2900</v>
+        <v>-36200</v>
       </c>
       <c r="G27" s="3">
-        <v>61700</v>
+        <v>3000</v>
       </c>
       <c r="H27" s="3">
-        <v>34800</v>
+        <v>63000</v>
       </c>
       <c r="I27" s="3">
-        <v>23600</v>
+        <v>35600</v>
       </c>
       <c r="J27" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K27" s="3">
         <v>56400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>143200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>66600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>55200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>6600</v>
       </c>
       <c r="E32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="G32" s="3">
-        <v>26800</v>
+        <v>-1800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3200</v>
+        <v>27400</v>
       </c>
       <c r="I32" s="3">
-        <v>-7300</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12200</v>
+        <v>-87300</v>
       </c>
       <c r="E33" s="3">
-        <v>-35500</v>
+        <v>12500</v>
       </c>
       <c r="F33" s="3">
-        <v>2900</v>
+        <v>-36200</v>
       </c>
       <c r="G33" s="3">
-        <v>61700</v>
+        <v>3000</v>
       </c>
       <c r="H33" s="3">
-        <v>34800</v>
+        <v>63000</v>
       </c>
       <c r="I33" s="3">
-        <v>23600</v>
+        <v>35600</v>
       </c>
       <c r="J33" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K33" s="3">
         <v>56400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>66600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>55200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12200</v>
+        <v>-87300</v>
       </c>
       <c r="E35" s="3">
-        <v>-35500</v>
+        <v>12500</v>
       </c>
       <c r="F35" s="3">
-        <v>2900</v>
+        <v>-36200</v>
       </c>
       <c r="G35" s="3">
-        <v>61700</v>
+        <v>3000</v>
       </c>
       <c r="H35" s="3">
-        <v>34800</v>
+        <v>63000</v>
       </c>
       <c r="I35" s="3">
-        <v>23600</v>
+        <v>35600</v>
       </c>
       <c r="J35" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K35" s="3">
         <v>56400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>66600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>55200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>433300</v>
+        <v>385300</v>
       </c>
       <c r="E41" s="3">
-        <v>448500</v>
+        <v>442500</v>
       </c>
       <c r="F41" s="3">
-        <v>488100</v>
+        <v>458000</v>
       </c>
       <c r="G41" s="3">
-        <v>488600</v>
+        <v>498500</v>
       </c>
       <c r="H41" s="3">
-        <v>402300</v>
+        <v>498900</v>
       </c>
       <c r="I41" s="3">
-        <v>413500</v>
+        <v>410800</v>
       </c>
       <c r="J41" s="3">
+        <v>422200</v>
+      </c>
+      <c r="K41" s="3">
         <v>384900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>378600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>239200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>275600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>208300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>125700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>140800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>257400</v>
+        <v>157100</v>
       </c>
       <c r="E43" s="3">
-        <v>242600</v>
+        <v>262800</v>
       </c>
       <c r="F43" s="3">
-        <v>247200</v>
+        <v>247700</v>
       </c>
       <c r="G43" s="3">
-        <v>151600</v>
+        <v>252400</v>
       </c>
       <c r="H43" s="3">
-        <v>266700</v>
+        <v>154800</v>
       </c>
       <c r="I43" s="3">
-        <v>277900</v>
+        <v>272400</v>
       </c>
       <c r="J43" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K43" s="3">
         <v>52100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>203600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3300</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4400</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,64 +2633,70 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>150800</v>
+        <v>43500</v>
       </c>
       <c r="E45" s="3">
-        <v>173300</v>
+        <v>153900</v>
       </c>
       <c r="F45" s="3">
-        <v>132700</v>
+        <v>177000</v>
       </c>
       <c r="G45" s="3">
-        <v>203700</v>
+        <v>135500</v>
       </c>
       <c r="H45" s="3">
-        <v>195700</v>
+        <v>208000</v>
       </c>
       <c r="I45" s="3">
-        <v>174600</v>
+        <v>199800</v>
       </c>
       <c r="J45" s="3">
+        <v>178300</v>
+      </c>
+      <c r="K45" s="3">
         <v>186600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>370700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>171500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>170900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>158600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>168700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>91700</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>67900</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,120 +2751,129 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>335000</v>
+        <v>370500</v>
       </c>
       <c r="E47" s="3">
-        <v>332400</v>
+        <v>342100</v>
       </c>
       <c r="F47" s="3">
-        <v>409600</v>
+        <v>339400</v>
       </c>
       <c r="G47" s="3">
-        <v>506400</v>
+        <v>418200</v>
       </c>
       <c r="H47" s="3">
-        <v>573600</v>
+        <v>517100</v>
       </c>
       <c r="I47" s="3">
-        <v>641800</v>
+        <v>585700</v>
       </c>
       <c r="J47" s="3">
+        <v>655400</v>
+      </c>
+      <c r="K47" s="3">
         <v>909100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>968300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>688300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>707400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>617000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>261900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>255800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>314900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>297700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>236800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49600</v>
+        <v>39400</v>
       </c>
       <c r="E48" s="3">
-        <v>62500</v>
+        <v>50600</v>
       </c>
       <c r="F48" s="3">
-        <v>73300</v>
+        <v>63800</v>
       </c>
       <c r="G48" s="3">
-        <v>81000</v>
+        <v>74900</v>
       </c>
       <c r="H48" s="3">
-        <v>91300</v>
+        <v>82700</v>
       </c>
       <c r="I48" s="3">
-        <v>96000</v>
+        <v>93200</v>
       </c>
       <c r="J48" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K48" s="3">
         <v>96100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8900</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5200</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34000</v>
+        <v>39600</v>
       </c>
       <c r="E52" s="3">
-        <v>21400</v>
+        <v>34700</v>
       </c>
       <c r="F52" s="3">
-        <v>13000</v>
+        <v>21800</v>
       </c>
       <c r="G52" s="3">
-        <v>17800</v>
+        <v>13300</v>
       </c>
       <c r="H52" s="3">
-        <v>35800</v>
+        <v>18200</v>
       </c>
       <c r="I52" s="3">
-        <v>40600</v>
+        <v>36500</v>
       </c>
       <c r="J52" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K52" s="3">
         <v>38800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>88800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>152900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>290800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>386900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>361500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>337900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>205100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>240600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1279000</v>
+        <v>1045600</v>
       </c>
       <c r="E54" s="3">
-        <v>1302900</v>
+        <v>1306000</v>
       </c>
       <c r="F54" s="3">
-        <v>1386800</v>
+        <v>1330400</v>
       </c>
       <c r="G54" s="3">
-        <v>1473500</v>
+        <v>1416100</v>
       </c>
       <c r="H54" s="3">
-        <v>1587200</v>
+        <v>1504600</v>
       </c>
       <c r="I54" s="3">
-        <v>1666000</v>
+        <v>1620700</v>
       </c>
       <c r="J54" s="3">
+        <v>1701200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1689500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2069800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1059600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1142900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1349900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1115800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1036300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>888900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>782000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>695600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>6200</v>
+        <v>3900</v>
       </c>
       <c r="F57" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="H57" s="3">
-        <v>9500</v>
+        <v>6800</v>
       </c>
       <c r="I57" s="3">
-        <v>8300</v>
+        <v>9700</v>
       </c>
       <c r="J57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>5100</v>
       </c>
       <c r="N57" s="3">
         <v>5100</v>
       </c>
       <c r="O57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>370100</v>
+        <v>361000</v>
       </c>
       <c r="E59" s="3">
-        <v>362200</v>
+        <v>377900</v>
       </c>
       <c r="F59" s="3">
-        <v>354100</v>
+        <v>369800</v>
       </c>
       <c r="G59" s="3">
-        <v>416700</v>
+        <v>361500</v>
       </c>
       <c r="H59" s="3">
-        <v>452800</v>
+        <v>425600</v>
       </c>
       <c r="I59" s="3">
-        <v>424100</v>
+        <v>462400</v>
       </c>
       <c r="J59" s="3">
+        <v>433100</v>
+      </c>
+      <c r="K59" s="3">
         <v>431000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1611500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>224200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>361500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>189000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>220600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>277900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>152400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>205500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,13 +3505,16 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>78100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3422,55 +3564,58 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="E62" s="3">
-        <v>24800</v>
+        <v>23500</v>
       </c>
       <c r="F62" s="3">
-        <v>33000</v>
+        <v>25300</v>
       </c>
       <c r="G62" s="3">
-        <v>33400</v>
+        <v>33700</v>
       </c>
       <c r="H62" s="3">
-        <v>40900</v>
+        <v>34100</v>
       </c>
       <c r="I62" s="3">
-        <v>50300</v>
+        <v>41800</v>
       </c>
       <c r="J62" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K62" s="3">
         <v>63800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>81500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>92100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>90000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8900</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>615800</v>
+        <v>456300</v>
       </c>
       <c r="E66" s="3">
-        <v>652000</v>
+        <v>628800</v>
       </c>
       <c r="F66" s="3">
-        <v>701600</v>
+        <v>665800</v>
       </c>
       <c r="G66" s="3">
-        <v>787500</v>
+        <v>716400</v>
       </c>
       <c r="H66" s="3">
-        <v>1140500</v>
+        <v>804100</v>
       </c>
       <c r="I66" s="3">
-        <v>1256300</v>
+        <v>1164600</v>
       </c>
       <c r="J66" s="3">
+        <v>1282900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1302400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2122600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>366300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>501700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>726100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>675100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>665900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>480400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>420000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>384400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-106500</v>
+        <v>-196200</v>
       </c>
       <c r="E72" s="3">
-        <v>-118600</v>
+        <v>-108700</v>
       </c>
       <c r="F72" s="3">
-        <v>-82900</v>
+        <v>-121100</v>
       </c>
       <c r="G72" s="3">
-        <v>-81500</v>
+        <v>-84600</v>
       </c>
       <c r="H72" s="3">
-        <v>-143100</v>
+        <v>-83200</v>
       </c>
       <c r="I72" s="3">
-        <v>-177400</v>
+        <v>-146100</v>
       </c>
       <c r="J72" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-200200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>310400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>506800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>475500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>459100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>272300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>207200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>264700</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>171200</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>663200</v>
+        <v>589400</v>
       </c>
       <c r="E76" s="3">
-        <v>650900</v>
+        <v>677200</v>
       </c>
       <c r="F76" s="3">
-        <v>685200</v>
+        <v>664600</v>
       </c>
       <c r="G76" s="3">
-        <v>686000</v>
+        <v>699600</v>
       </c>
       <c r="H76" s="3">
-        <v>446700</v>
+        <v>700500</v>
       </c>
       <c r="I76" s="3">
-        <v>409600</v>
+        <v>456200</v>
       </c>
       <c r="J76" s="3">
+        <v>418300</v>
+      </c>
+      <c r="K76" s="3">
         <v>387000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-52800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>693400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>641200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>623800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>440800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>370400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>408500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>361900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>311200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12200</v>
+        <v>-87300</v>
       </c>
       <c r="E81" s="3">
-        <v>-35500</v>
+        <v>12500</v>
       </c>
       <c r="F81" s="3">
-        <v>2900</v>
+        <v>-36200</v>
       </c>
       <c r="G81" s="3">
-        <v>61700</v>
+        <v>3000</v>
       </c>
       <c r="H81" s="3">
-        <v>34800</v>
+        <v>63000</v>
       </c>
       <c r="I81" s="3">
-        <v>23600</v>
+        <v>35600</v>
       </c>
       <c r="J81" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K81" s="3">
         <v>56400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>66600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>55200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4600</v>
+        <v>-34200</v>
       </c>
       <c r="E89" s="3">
-        <v>-13300</v>
+        <v>4700</v>
       </c>
       <c r="F89" s="3">
-        <v>85200</v>
+        <v>-13500</v>
       </c>
       <c r="G89" s="3">
-        <v>13500</v>
+        <v>87000</v>
       </c>
       <c r="H89" s="3">
-        <v>179700</v>
+        <v>13700</v>
       </c>
       <c r="I89" s="3">
-        <v>-50700</v>
+        <v>183500</v>
       </c>
       <c r="J89" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>149000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-191800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-48500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>189300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>51400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>78700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>82100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>121600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19300</v>
+        <v>-153100</v>
       </c>
       <c r="E94" s="3">
-        <v>-25200</v>
+        <v>-19700</v>
       </c>
       <c r="F94" s="3">
-        <v>-80100</v>
+        <v>-25700</v>
       </c>
       <c r="G94" s="3">
-        <v>312200</v>
+        <v>-81800</v>
       </c>
       <c r="H94" s="3">
-        <v>-197400</v>
+        <v>318800</v>
       </c>
       <c r="I94" s="3">
-        <v>89400</v>
+        <v>-201600</v>
       </c>
       <c r="J94" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>127200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>322400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>65700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>50800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-62200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-117500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>12500</v>
+        <v>140300</v>
       </c>
       <c r="E100" s="3">
-        <v>6100</v>
+        <v>12700</v>
       </c>
       <c r="F100" s="3">
-        <v>-10000</v>
+        <v>6200</v>
       </c>
       <c r="G100" s="3">
-        <v>-240900</v>
+        <v>-10200</v>
       </c>
       <c r="H100" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-11200</v>
-      </c>
       <c r="J100" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K100" s="3">
         <v>75400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>33900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-86300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-32300</v>
-      </c>
       <c r="F102" s="3">
-        <v>-4800</v>
+        <v>-33000</v>
       </c>
       <c r="G102" s="3">
-        <v>84400</v>
+        <v>-4900</v>
       </c>
       <c r="H102" s="3">
-        <v>-16200</v>
+        <v>86200</v>
       </c>
       <c r="I102" s="3">
-        <v>31300</v>
+        <v>-16500</v>
       </c>
       <c r="J102" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-63600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>149000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-231900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-111400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>75600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>181100</v>
+        <v>169400</v>
       </c>
       <c r="E8" s="3">
-        <v>159600</v>
+        <v>178800</v>
       </c>
       <c r="F8" s="3">
-        <v>117700</v>
+        <v>157500</v>
       </c>
       <c r="G8" s="3">
-        <v>159700</v>
+        <v>116200</v>
       </c>
       <c r="H8" s="3">
-        <v>393600</v>
+        <v>157600</v>
       </c>
       <c r="I8" s="3">
-        <v>320800</v>
+        <v>388500</v>
       </c>
       <c r="J8" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K8" s="3">
         <v>345800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>302600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>431100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>317700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>418100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>540200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>270800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>224700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>175600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>148600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>155800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>93100</v>
+        <v>26900</v>
       </c>
       <c r="E9" s="3">
-        <v>37400</v>
+        <v>91900</v>
       </c>
       <c r="F9" s="3">
-        <v>25800</v>
+        <v>36900</v>
       </c>
       <c r="G9" s="3">
-        <v>16100</v>
+        <v>25400</v>
       </c>
       <c r="H9" s="3">
-        <v>27100</v>
+        <v>15800</v>
       </c>
       <c r="I9" s="3">
-        <v>24300</v>
+        <v>26800</v>
       </c>
       <c r="J9" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K9" s="3">
         <v>25400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>43000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>88000</v>
+        <v>142500</v>
       </c>
       <c r="E10" s="3">
-        <v>122200</v>
+        <v>86800</v>
       </c>
       <c r="F10" s="3">
-        <v>92000</v>
+        <v>120600</v>
       </c>
       <c r="G10" s="3">
-        <v>143700</v>
+        <v>90800</v>
       </c>
       <c r="H10" s="3">
-        <v>366500</v>
+        <v>141800</v>
       </c>
       <c r="I10" s="3">
-        <v>296400</v>
+        <v>361700</v>
       </c>
       <c r="J10" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K10" s="3">
         <v>320400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>276300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>398100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>279600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>375100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>502200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>249000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>207000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>161800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>140000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>147500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>102300</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>101000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>270200</v>
+        <v>129500</v>
       </c>
       <c r="E17" s="3">
-        <v>141900</v>
+        <v>266600</v>
       </c>
       <c r="F17" s="3">
-        <v>158300</v>
+        <v>140000</v>
       </c>
       <c r="G17" s="3">
-        <v>157800</v>
+        <v>156300</v>
       </c>
       <c r="H17" s="3">
-        <v>290600</v>
+        <v>155800</v>
       </c>
       <c r="I17" s="3">
-        <v>285400</v>
+        <v>286800</v>
       </c>
       <c r="J17" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K17" s="3">
         <v>319500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>267200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>295500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>341600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>406400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>455900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>191700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>168600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>120200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>91400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>98100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-89000</v>
+        <v>39900</v>
       </c>
       <c r="E18" s="3">
-        <v>17700</v>
+        <v>-87900</v>
       </c>
       <c r="F18" s="3">
-        <v>-40600</v>
+        <v>17500</v>
       </c>
       <c r="G18" s="3">
-        <v>1900</v>
+        <v>-40100</v>
       </c>
       <c r="H18" s="3">
-        <v>103000</v>
+        <v>1800</v>
       </c>
       <c r="I18" s="3">
+        <v>101700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>26300</v>
+      </c>
+      <c r="L18" s="3">
         <v>35400</v>
       </c>
-      <c r="J18" s="3">
-        <v>26300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>35400</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>135600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>79100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>56100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>55400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>57700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6600</v>
+        <v>-5200</v>
       </c>
       <c r="E20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>1800</v>
-      </c>
       <c r="H20" s="3">
-        <v>-27400</v>
+        <v>1700</v>
       </c>
       <c r="I20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-96700</v>
+        <v>37100</v>
       </c>
       <c r="E21" s="3">
-        <v>14900</v>
+        <v>-95400</v>
       </c>
       <c r="F21" s="3">
-        <v>-44100</v>
+        <v>14700</v>
       </c>
       <c r="G21" s="3">
-        <v>7900</v>
+        <v>-43500</v>
       </c>
       <c r="H21" s="3">
-        <v>77700</v>
+        <v>7700</v>
       </c>
       <c r="I21" s="3">
-        <v>38800</v>
+        <v>76700</v>
       </c>
       <c r="J21" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K21" s="3">
         <v>33500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>73100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>164200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>94400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>58000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>59400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>61500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>59800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-95600</v>
+        <v>34700</v>
       </c>
       <c r="E23" s="3">
-        <v>15000</v>
+        <v>-94400</v>
       </c>
       <c r="F23" s="3">
-        <v>-43600</v>
+        <v>14800</v>
       </c>
       <c r="G23" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="H23" s="3">
         <v>3600</v>
       </c>
-      <c r="H23" s="3">
-        <v>75600</v>
-      </c>
       <c r="I23" s="3">
-        <v>38700</v>
+        <v>74700</v>
       </c>
       <c r="J23" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K23" s="3">
         <v>33700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>60900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>59700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8300</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
-        <v>2600</v>
+        <v>-8200</v>
       </c>
       <c r="F24" s="3">
-        <v>-7400</v>
+        <v>2500</v>
       </c>
       <c r="G24" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>12600</v>
-      </c>
       <c r="I24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-87300</v>
+        <v>27900</v>
       </c>
       <c r="E26" s="3">
-        <v>12500</v>
+        <v>-86200</v>
       </c>
       <c r="F26" s="3">
-        <v>-36200</v>
+        <v>12300</v>
       </c>
       <c r="G26" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="H26" s="3">
-        <v>63000</v>
-      </c>
       <c r="I26" s="3">
-        <v>35600</v>
+        <v>62200</v>
       </c>
       <c r="J26" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K26" s="3">
         <v>24100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>143200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>76900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>66600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>55200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-87300</v>
+        <v>27900</v>
       </c>
       <c r="E27" s="3">
-        <v>12500</v>
+        <v>-86200</v>
       </c>
       <c r="F27" s="3">
-        <v>-36200</v>
+        <v>12300</v>
       </c>
       <c r="G27" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="H27" s="3">
-        <v>63000</v>
-      </c>
       <c r="I27" s="3">
-        <v>35600</v>
+        <v>62200</v>
       </c>
       <c r="J27" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K27" s="3">
         <v>24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>143200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>66600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>55200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6600</v>
+        <v>5200</v>
       </c>
       <c r="E32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H32" s="3">
-        <v>27400</v>
+        <v>-1700</v>
       </c>
       <c r="I32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-87300</v>
+        <v>27900</v>
       </c>
       <c r="E33" s="3">
-        <v>12500</v>
+        <v>-86200</v>
       </c>
       <c r="F33" s="3">
-        <v>-36200</v>
+        <v>12300</v>
       </c>
       <c r="G33" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="H33" s="3">
-        <v>63000</v>
-      </c>
       <c r="I33" s="3">
-        <v>35600</v>
+        <v>62200</v>
       </c>
       <c r="J33" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K33" s="3">
         <v>24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>143200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>55200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-87300</v>
+        <v>27900</v>
       </c>
       <c r="E35" s="3">
-        <v>12500</v>
+        <v>-86200</v>
       </c>
       <c r="F35" s="3">
-        <v>-36200</v>
+        <v>12300</v>
       </c>
       <c r="G35" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="H35" s="3">
-        <v>63000</v>
-      </c>
       <c r="I35" s="3">
-        <v>35600</v>
+        <v>62200</v>
       </c>
       <c r="J35" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K35" s="3">
         <v>24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>143200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>55200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>385300</v>
+        <v>363700</v>
       </c>
       <c r="E41" s="3">
-        <v>442500</v>
+        <v>380300</v>
       </c>
       <c r="F41" s="3">
-        <v>458000</v>
+        <v>436700</v>
       </c>
       <c r="G41" s="3">
-        <v>498500</v>
+        <v>452000</v>
       </c>
       <c r="H41" s="3">
-        <v>498900</v>
+        <v>492000</v>
       </c>
       <c r="I41" s="3">
-        <v>410800</v>
+        <v>492400</v>
       </c>
       <c r="J41" s="3">
+        <v>405400</v>
+      </c>
+      <c r="K41" s="3">
         <v>422200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>384900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>378600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>239200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>275600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>208300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>132300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>125700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>140800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>157100</v>
+        <v>163200</v>
       </c>
       <c r="E43" s="3">
-        <v>262800</v>
+        <v>155000</v>
       </c>
       <c r="F43" s="3">
-        <v>247700</v>
+        <v>259400</v>
       </c>
       <c r="G43" s="3">
-        <v>252400</v>
+        <v>244500</v>
       </c>
       <c r="H43" s="3">
-        <v>154800</v>
+        <v>249100</v>
       </c>
       <c r="I43" s="3">
-        <v>272400</v>
+        <v>152800</v>
       </c>
       <c r="J43" s="3">
+        <v>268800</v>
+      </c>
+      <c r="K43" s="3">
         <v>283700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>203600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3300</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4400</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,67 +2732,73 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43500</v>
+        <v>33100</v>
       </c>
       <c r="E45" s="3">
-        <v>153900</v>
+        <v>42900</v>
       </c>
       <c r="F45" s="3">
-        <v>177000</v>
+        <v>151900</v>
       </c>
       <c r="G45" s="3">
-        <v>135500</v>
+        <v>174700</v>
       </c>
       <c r="H45" s="3">
-        <v>208000</v>
+        <v>133700</v>
       </c>
       <c r="I45" s="3">
-        <v>199800</v>
+        <v>205300</v>
       </c>
       <c r="J45" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K45" s="3">
         <v>178300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>186600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>370700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>171900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>170900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>158600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>168700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>91700</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>67900</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,126 +2856,135 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>370500</v>
+        <v>431600</v>
       </c>
       <c r="E47" s="3">
-        <v>342100</v>
+        <v>365600</v>
       </c>
       <c r="F47" s="3">
-        <v>339400</v>
+        <v>337600</v>
       </c>
       <c r="G47" s="3">
-        <v>418200</v>
+        <v>335000</v>
       </c>
       <c r="H47" s="3">
-        <v>517100</v>
+        <v>412800</v>
       </c>
       <c r="I47" s="3">
-        <v>585700</v>
+        <v>510400</v>
       </c>
       <c r="J47" s="3">
+        <v>578100</v>
+      </c>
+      <c r="K47" s="3">
         <v>655400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>909100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>968300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>688300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>707400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>617000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>261900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>255800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>314900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>297700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>236800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39400</v>
+        <v>35800</v>
       </c>
       <c r="E48" s="3">
-        <v>50600</v>
+        <v>38900</v>
       </c>
       <c r="F48" s="3">
-        <v>63800</v>
+        <v>50000</v>
       </c>
       <c r="G48" s="3">
-        <v>74900</v>
+        <v>63000</v>
       </c>
       <c r="H48" s="3">
-        <v>82700</v>
+        <v>73900</v>
       </c>
       <c r="I48" s="3">
-        <v>93200</v>
+        <v>81600</v>
       </c>
       <c r="J48" s="3">
+        <v>92000</v>
+      </c>
+      <c r="K48" s="3">
         <v>98000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>96100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8900</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5200</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39600</v>
+        <v>32300</v>
       </c>
       <c r="E52" s="3">
-        <v>34700</v>
+        <v>39100</v>
       </c>
       <c r="F52" s="3">
-        <v>21800</v>
+        <v>34200</v>
       </c>
       <c r="G52" s="3">
-        <v>13300</v>
+        <v>21500</v>
       </c>
       <c r="H52" s="3">
-        <v>18200</v>
+        <v>13100</v>
       </c>
       <c r="I52" s="3">
-        <v>36500</v>
+        <v>17900</v>
       </c>
       <c r="J52" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K52" s="3">
         <v>41400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>88800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>152900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>290800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>386900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>361500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>337900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>205100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>240600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1045600</v>
+        <v>1069400</v>
       </c>
       <c r="E54" s="3">
-        <v>1306000</v>
+        <v>1032000</v>
       </c>
       <c r="F54" s="3">
-        <v>1330400</v>
+        <v>1289000</v>
       </c>
       <c r="G54" s="3">
-        <v>1416100</v>
+        <v>1313100</v>
       </c>
       <c r="H54" s="3">
-        <v>1504600</v>
+        <v>1397600</v>
       </c>
       <c r="I54" s="3">
-        <v>1620700</v>
+        <v>1485000</v>
       </c>
       <c r="J54" s="3">
+        <v>1599600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1701200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1689500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2069800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1059600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1142900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1349900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1115800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1036300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>888900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>782000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>695600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
-        <v>3900</v>
-      </c>
       <c r="F57" s="3">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="G57" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="I57" s="3">
-        <v>9700</v>
+        <v>6700</v>
       </c>
       <c r="J57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>5100</v>
       </c>
       <c r="O57" s="3">
         <v>5100</v>
       </c>
       <c r="P57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,67 +3524,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>361000</v>
+        <v>315200</v>
       </c>
       <c r="E59" s="3">
-        <v>377900</v>
+        <v>356300</v>
       </c>
       <c r="F59" s="3">
-        <v>369800</v>
+        <v>373000</v>
       </c>
       <c r="G59" s="3">
+        <v>365000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>356800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>420000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>456400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>433100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1611500</v>
+      </c>
+      <c r="N59" s="3">
+        <v>224200</v>
+      </c>
+      <c r="O59" s="3">
         <v>361500</v>
       </c>
-      <c r="H59" s="3">
-        <v>425600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>462400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>433100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>431000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1611500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>224200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>361500</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>189000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>220600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>277900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>152400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>55300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>205500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,16 +3648,19 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78100</v>
+        <v>123100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>77100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3567,58 +3710,61 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E62" s="3">
         <v>6000</v>
       </c>
-      <c r="E62" s="3">
-        <v>23500</v>
-      </c>
       <c r="F62" s="3">
-        <v>25300</v>
+        <v>23200</v>
       </c>
       <c r="G62" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>33300</v>
+      </c>
+      <c r="I62" s="3">
         <v>33700</v>
       </c>
-      <c r="H62" s="3">
-        <v>34100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>41800</v>
-      </c>
       <c r="J62" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K62" s="3">
         <v>51400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>81500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>92100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>90000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8900</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>456300</v>
+        <v>459900</v>
       </c>
       <c r="E66" s="3">
-        <v>628800</v>
+        <v>450300</v>
       </c>
       <c r="F66" s="3">
-        <v>665800</v>
+        <v>620600</v>
       </c>
       <c r="G66" s="3">
-        <v>716400</v>
+        <v>657100</v>
       </c>
       <c r="H66" s="3">
-        <v>804100</v>
+        <v>707100</v>
       </c>
       <c r="I66" s="3">
-        <v>1164600</v>
+        <v>793700</v>
       </c>
       <c r="J66" s="3">
+        <v>1149400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1282900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1302400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2122600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>366300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>501700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>726100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>675100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>665900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>480400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>420000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>384400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-196200</v>
+        <v>-165900</v>
       </c>
       <c r="E72" s="3">
-        <v>-108700</v>
+        <v>-193600</v>
       </c>
       <c r="F72" s="3">
-        <v>-121100</v>
+        <v>-107300</v>
       </c>
       <c r="G72" s="3">
-        <v>-84600</v>
+        <v>-119600</v>
       </c>
       <c r="H72" s="3">
-        <v>-83200</v>
+        <v>-83500</v>
       </c>
       <c r="I72" s="3">
-        <v>-146100</v>
+        <v>-82100</v>
       </c>
       <c r="J72" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-181100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-200200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>310400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>506800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>475500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>459100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>272300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>207200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>264700</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>171200</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>589400</v>
+        <v>609500</v>
       </c>
       <c r="E76" s="3">
-        <v>677200</v>
+        <v>581700</v>
       </c>
       <c r="F76" s="3">
-        <v>664600</v>
+        <v>668400</v>
       </c>
       <c r="G76" s="3">
-        <v>699600</v>
+        <v>656000</v>
       </c>
       <c r="H76" s="3">
-        <v>700500</v>
+        <v>690500</v>
       </c>
       <c r="I76" s="3">
-        <v>456200</v>
+        <v>691400</v>
       </c>
       <c r="J76" s="3">
+        <v>450200</v>
+      </c>
+      <c r="K76" s="3">
         <v>418300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>387000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-52800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>693400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>641200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>623800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>440800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>370400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>408500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>361900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>311200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-87300</v>
+        <v>27900</v>
       </c>
       <c r="E81" s="3">
-        <v>12500</v>
+        <v>-86200</v>
       </c>
       <c r="F81" s="3">
-        <v>-36200</v>
+        <v>12300</v>
       </c>
       <c r="G81" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="H81" s="3">
-        <v>63000</v>
-      </c>
       <c r="I81" s="3">
-        <v>35600</v>
+        <v>62200</v>
       </c>
       <c r="J81" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K81" s="3">
         <v>24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>143200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>55200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-34200</v>
+        <v>-21900</v>
       </c>
       <c r="E89" s="3">
-        <v>4700</v>
+        <v>-33700</v>
       </c>
       <c r="F89" s="3">
-        <v>-13500</v>
+        <v>4600</v>
       </c>
       <c r="G89" s="3">
-        <v>87000</v>
+        <v>-13400</v>
       </c>
       <c r="H89" s="3">
-        <v>13700</v>
+        <v>85900</v>
       </c>
       <c r="I89" s="3">
-        <v>183500</v>
+        <v>13600</v>
       </c>
       <c r="J89" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-51800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>149000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-191800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-48500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>189300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>51400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>82100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>121600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-153100</v>
+        <v>-44000</v>
       </c>
       <c r="E94" s="3">
-        <v>-19700</v>
+        <v>-151100</v>
       </c>
       <c r="F94" s="3">
-        <v>-25700</v>
+        <v>-19500</v>
       </c>
       <c r="G94" s="3">
-        <v>-81800</v>
+        <v>-25300</v>
       </c>
       <c r="H94" s="3">
-        <v>318800</v>
+        <v>-80800</v>
       </c>
       <c r="I94" s="3">
-        <v>-201600</v>
+        <v>314600</v>
       </c>
       <c r="J94" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="K94" s="3">
         <v>91300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>127200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>322400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>65700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>50800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-117500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>140300</v>
+        <v>43000</v>
       </c>
       <c r="E100" s="3">
-        <v>12700</v>
+        <v>138500</v>
       </c>
       <c r="F100" s="3">
-        <v>6200</v>
+        <v>12600</v>
       </c>
       <c r="G100" s="3">
-        <v>-10200</v>
+        <v>6100</v>
       </c>
       <c r="H100" s="3">
-        <v>-246000</v>
+        <v>-10100</v>
       </c>
       <c r="I100" s="3">
+        <v>-242800</v>
+      </c>
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>75400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>33900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-86300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-47000</v>
+        <v>-22900</v>
       </c>
       <c r="E102" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-33000</v>
-      </c>
       <c r="G102" s="3">
-        <v>-4900</v>
+        <v>-32600</v>
       </c>
       <c r="H102" s="3">
-        <v>86200</v>
+        <v>-4800</v>
       </c>
       <c r="I102" s="3">
-        <v>-16500</v>
+        <v>85100</v>
       </c>
       <c r="J102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K102" s="3">
         <v>31900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>149000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-231900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-111400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>75600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>169400</v>
+        <v>192900</v>
       </c>
       <c r="E8" s="3">
-        <v>178800</v>
+        <v>176100</v>
       </c>
       <c r="F8" s="3">
-        <v>157500</v>
+        <v>172200</v>
       </c>
       <c r="G8" s="3">
-        <v>116200</v>
+        <v>181800</v>
       </c>
       <c r="H8" s="3">
-        <v>157600</v>
+        <v>160100</v>
       </c>
       <c r="I8" s="3">
+        <v>118200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K8" s="3">
         <v>388500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>316600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>345800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>302600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>431100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>317700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>418100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>540200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>270800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>224700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>175600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>148600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>155800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26900</v>
+        <v>29300</v>
       </c>
       <c r="E9" s="3">
-        <v>91900</v>
+        <v>28600</v>
       </c>
       <c r="F9" s="3">
-        <v>36900</v>
+        <v>27300</v>
       </c>
       <c r="G9" s="3">
+        <v>93500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>37500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>26800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>24000</v>
+      </c>
+      <c r="M9" s="3">
         <v>25400</v>
       </c>
-      <c r="H9" s="3">
-        <v>15800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>26800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>24000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>25400</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>26300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>33000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>38100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>43000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>38000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>21800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>17700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>13800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>8500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>142500</v>
+        <v>163600</v>
       </c>
       <c r="E10" s="3">
-        <v>86800</v>
+        <v>147500</v>
       </c>
       <c r="F10" s="3">
+        <v>144900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>88300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>122600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>92300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>144200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>361700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>292600</v>
+      </c>
+      <c r="M10" s="3">
+        <v>320400</v>
+      </c>
+      <c r="N10" s="3">
+        <v>276300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>398100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>279600</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>375100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>502200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>249000</v>
+      </c>
+      <c r="T10" s="3">
+        <v>207000</v>
+      </c>
+      <c r="U10" s="3">
+        <v>161800</v>
+      </c>
+      <c r="V10" s="3">
+        <v>140000</v>
+      </c>
+      <c r="W10" s="3">
+        <v>147500</v>
+      </c>
+      <c r="X10" s="3">
         <v>120600</v>
       </c>
-      <c r="G10" s="3">
-        <v>90800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>141800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>361700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>292600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>320400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>276300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>398100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>279600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>375100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>502200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>249000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>207000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>161800</v>
-      </c>
-      <c r="T10" s="3">
-        <v>140000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>147500</v>
-      </c>
-      <c r="V10" s="3">
-        <v>120600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,22 +1121,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>101000</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>102700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1116,11 +1156,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>129500</v>
+        <v>127900</v>
       </c>
       <c r="E17" s="3">
-        <v>266600</v>
+        <v>131600</v>
       </c>
       <c r="F17" s="3">
-        <v>140000</v>
+        <v>131600</v>
       </c>
       <c r="G17" s="3">
-        <v>156300</v>
+        <v>271100</v>
       </c>
       <c r="H17" s="3">
-        <v>155800</v>
+        <v>142400</v>
       </c>
       <c r="I17" s="3">
+        <v>158900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>158400</v>
+      </c>
+      <c r="K17" s="3">
         <v>286800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>281700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>319500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>267200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>295500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>341600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>406400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>455900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>191700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>168600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>120200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>91400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>98100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>39900</v>
+        <v>65000</v>
       </c>
       <c r="E18" s="3">
-        <v>-87900</v>
+        <v>44500</v>
       </c>
       <c r="F18" s="3">
-        <v>17500</v>
+        <v>40600</v>
       </c>
       <c r="G18" s="3">
-        <v>-40100</v>
+        <v>-89400</v>
       </c>
       <c r="H18" s="3">
-        <v>1800</v>
+        <v>17800</v>
       </c>
       <c r="I18" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K18" s="3">
         <v>101700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>34900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>35400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>135600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-23900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>84200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>79100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>56100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>55400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>57100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>57700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5200</v>
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
-        <v>-6500</v>
+        <v>-4500</v>
       </c>
       <c r="F20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1700</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>32700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>12300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>9300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>21400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>37100</v>
+        <v>61500</v>
       </c>
       <c r="E21" s="3">
-        <v>-95400</v>
+        <v>39500</v>
       </c>
       <c r="F21" s="3">
-        <v>14700</v>
+        <v>37700</v>
       </c>
       <c r="G21" s="3">
-        <v>-43500</v>
+        <v>-97000</v>
       </c>
       <c r="H21" s="3">
-        <v>7700</v>
+        <v>14900</v>
       </c>
       <c r="I21" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K21" s="3">
         <v>76700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>38300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>33500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>73100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>164200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-14800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>33000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>94400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>81200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>58000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>59400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>61500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>59800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34700</v>
+        <v>62100</v>
       </c>
       <c r="E23" s="3">
-        <v>-94400</v>
+        <v>40000</v>
       </c>
       <c r="F23" s="3">
-        <v>14800</v>
+        <v>35300</v>
       </c>
       <c r="G23" s="3">
-        <v>-43100</v>
+        <v>-96000</v>
       </c>
       <c r="H23" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="J23" s="3">
         <v>3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>74700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>38200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>33700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>68100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>147900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>33100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>88900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>81100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>57700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>59300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>60900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>59700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6800</v>
+        <v>11900</v>
       </c>
       <c r="E24" s="3">
-        <v>-8200</v>
+        <v>8700</v>
       </c>
       <c r="F24" s="3">
-        <v>2500</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>-7300</v>
+        <v>-8400</v>
       </c>
       <c r="H24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>12700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>19300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>9900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27900</v>
+        <v>50200</v>
       </c>
       <c r="E26" s="3">
-        <v>-86200</v>
+        <v>31300</v>
       </c>
       <c r="F26" s="3">
-        <v>12300</v>
+        <v>28400</v>
       </c>
       <c r="G26" s="3">
-        <v>-35800</v>
+        <v>-87600</v>
       </c>
       <c r="H26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>62200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>35100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>24100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>56400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>143200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-19700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>27100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>76900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>66600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>45000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>39900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>51000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>55200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27900</v>
+        <v>50200</v>
       </c>
       <c r="E27" s="3">
-        <v>-86200</v>
+        <v>31300</v>
       </c>
       <c r="F27" s="3">
-        <v>12300</v>
+        <v>28400</v>
       </c>
       <c r="G27" s="3">
-        <v>-35800</v>
+        <v>-87600</v>
       </c>
       <c r="H27" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>62200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>35100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>56400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>143200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>27100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>66600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>45000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>39900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>51000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>55200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="F32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="I32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-32700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-12300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-9300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-21400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27900</v>
+        <v>50200</v>
       </c>
       <c r="E33" s="3">
-        <v>-86200</v>
+        <v>31300</v>
       </c>
       <c r="F33" s="3">
-        <v>12300</v>
+        <v>28400</v>
       </c>
       <c r="G33" s="3">
-        <v>-35800</v>
+        <v>-87600</v>
       </c>
       <c r="H33" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>62200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>35100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>56400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>143200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>27100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>76900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>66600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>45000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>39900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>51000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>55200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27900</v>
+        <v>50200</v>
       </c>
       <c r="E35" s="3">
-        <v>-86200</v>
+        <v>31300</v>
       </c>
       <c r="F35" s="3">
-        <v>12300</v>
+        <v>28400</v>
       </c>
       <c r="G35" s="3">
-        <v>-35800</v>
+        <v>-87600</v>
       </c>
       <c r="H35" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>62200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>35100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>56400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>143200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>27100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>76900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>66600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>45000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>39900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>51000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>55200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>363700</v>
+        <v>364500</v>
       </c>
       <c r="E41" s="3">
-        <v>380300</v>
+        <v>343300</v>
       </c>
       <c r="F41" s="3">
-        <v>436700</v>
+        <v>369800</v>
       </c>
       <c r="G41" s="3">
-        <v>452000</v>
+        <v>386700</v>
       </c>
       <c r="H41" s="3">
-        <v>492000</v>
+        <v>444000</v>
       </c>
       <c r="I41" s="3">
+        <v>459600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>500200</v>
+      </c>
+      <c r="K41" s="3">
         <v>492400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>405400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>422200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>384900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>378600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>117200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>79400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>239200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>275600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>208300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>132300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>125700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>140800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2791,82 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>163200</v>
+        <v>160800</v>
       </c>
       <c r="E43" s="3">
-        <v>155000</v>
+        <v>202500</v>
       </c>
       <c r="F43" s="3">
-        <v>259400</v>
+        <v>166000</v>
       </c>
       <c r="G43" s="3">
-        <v>244500</v>
+        <v>157600</v>
       </c>
       <c r="H43" s="3">
-        <v>249100</v>
+        <v>263800</v>
       </c>
       <c r="I43" s="3">
+        <v>248600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>253300</v>
+      </c>
+      <c r="K43" s="3">
         <v>152800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>268800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>283700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>52100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>203600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>18700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>17700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>20100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>20600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>29800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3300</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U43" s="3">
-        <v>4400</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,70 +2927,82 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33100</v>
+        <v>56100</v>
       </c>
       <c r="E45" s="3">
-        <v>42900</v>
+        <v>33500</v>
       </c>
       <c r="F45" s="3">
-        <v>151900</v>
+        <v>33700</v>
       </c>
       <c r="G45" s="3">
-        <v>174700</v>
+        <v>43600</v>
       </c>
       <c r="H45" s="3">
-        <v>133700</v>
+        <v>154500</v>
       </c>
       <c r="I45" s="3">
+        <v>177600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K45" s="3">
         <v>205300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>197200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>178300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>186600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>370700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>171500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>171900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>170900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>158600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>168700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>91700</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U45" s="3">
-        <v>67900</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>67900</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,132 +3063,150 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>431600</v>
+        <v>551600</v>
       </c>
       <c r="E47" s="3">
-        <v>365600</v>
+        <v>491900</v>
       </c>
       <c r="F47" s="3">
-        <v>337600</v>
+        <v>438800</v>
       </c>
       <c r="G47" s="3">
-        <v>335000</v>
+        <v>371800</v>
       </c>
       <c r="H47" s="3">
-        <v>412800</v>
+        <v>343300</v>
       </c>
       <c r="I47" s="3">
+        <v>340600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>419700</v>
+      </c>
+      <c r="K47" s="3">
         <v>510400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>578100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>655400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>909100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>968300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>688300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>707400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>617000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>261900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>255800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>314900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>297700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>236800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35800</v>
+        <v>29200</v>
       </c>
       <c r="E48" s="3">
-        <v>38900</v>
+        <v>34000</v>
       </c>
       <c r="F48" s="3">
-        <v>50000</v>
+        <v>36400</v>
       </c>
       <c r="G48" s="3">
-        <v>63000</v>
+        <v>39600</v>
       </c>
       <c r="H48" s="3">
-        <v>73900</v>
+        <v>50800</v>
       </c>
       <c r="I48" s="3">
+        <v>64000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K48" s="3">
         <v>81600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>92000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>98000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>96100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>38600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>14000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>13500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>11900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>12200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>12100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8900</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5200</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32300</v>
+        <v>15400</v>
       </c>
       <c r="E52" s="3">
-        <v>39100</v>
+        <v>15200</v>
       </c>
       <c r="F52" s="3">
-        <v>34200</v>
+        <v>32900</v>
       </c>
       <c r="G52" s="3">
-        <v>21500</v>
+        <v>39800</v>
       </c>
       <c r="H52" s="3">
-        <v>13100</v>
+        <v>34800</v>
       </c>
       <c r="I52" s="3">
+        <v>21900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K52" s="3">
         <v>17900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>36100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>41400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>38800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>88800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>50000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>152900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>290800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>386900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>361500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>337900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>205100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>240600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1069400</v>
+        <v>1183000</v>
       </c>
       <c r="E54" s="3">
-        <v>1032000</v>
+        <v>1127300</v>
       </c>
       <c r="F54" s="3">
-        <v>1289000</v>
+        <v>1087300</v>
       </c>
       <c r="G54" s="3">
-        <v>1313100</v>
+        <v>1049300</v>
       </c>
       <c r="H54" s="3">
-        <v>1397600</v>
+        <v>1310600</v>
       </c>
       <c r="I54" s="3">
+        <v>1335100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1421100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1485000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1599600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1701200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1689500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2069800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1059600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1142900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1349900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1115800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1036300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>888900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>782000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>695600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3800</v>
-      </c>
       <c r="G57" s="3">
-        <v>6200</v>
+        <v>1600</v>
       </c>
       <c r="H57" s="3">
-        <v>6000</v>
+        <v>3900</v>
       </c>
       <c r="I57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>44600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2000</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3795,82 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>315200</v>
+        <v>285600</v>
       </c>
       <c r="E59" s="3">
-        <v>356300</v>
+        <v>290900</v>
       </c>
       <c r="F59" s="3">
-        <v>373000</v>
+        <v>320500</v>
       </c>
       <c r="G59" s="3">
-        <v>365000</v>
+        <v>362200</v>
       </c>
       <c r="H59" s="3">
-        <v>356800</v>
+        <v>379300</v>
       </c>
       <c r="I59" s="3">
+        <v>371100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>362800</v>
+      </c>
+      <c r="K59" s="3">
         <v>420000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>456400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>433100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>431000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1611500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>224200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>361500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>189000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>220600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>277900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>152400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>55300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>205500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,22 +3931,28 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>123100</v>
+        <v>162600</v>
       </c>
       <c r="E61" s="3">
-        <v>77100</v>
+        <v>151600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>125100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>78400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3713,70 +3999,82 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11700</v>
+        <v>23100</v>
       </c>
       <c r="E62" s="3">
-        <v>6000</v>
+        <v>18600</v>
       </c>
       <c r="F62" s="3">
-        <v>23200</v>
+        <v>11900</v>
       </c>
       <c r="G62" s="3">
-        <v>24900</v>
+        <v>6100</v>
       </c>
       <c r="H62" s="3">
-        <v>33300</v>
+        <v>23600</v>
       </c>
       <c r="I62" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K62" s="3">
         <v>33700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>41200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>51400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>63800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>70700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>81500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>92100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>90000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>8900</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>459900</v>
+        <v>479800</v>
       </c>
       <c r="E66" s="3">
-        <v>450300</v>
+        <v>475500</v>
       </c>
       <c r="F66" s="3">
-        <v>620600</v>
+        <v>467700</v>
       </c>
       <c r="G66" s="3">
-        <v>657100</v>
+        <v>457900</v>
       </c>
       <c r="H66" s="3">
-        <v>707100</v>
+        <v>631000</v>
       </c>
       <c r="I66" s="3">
+        <v>668100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>719000</v>
+      </c>
+      <c r="K66" s="3">
         <v>793700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1149400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1282900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1302400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2122600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>366300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>501700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>726100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>675100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>665900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>480400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>420000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>384400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-165900</v>
+        <v>-90400</v>
       </c>
       <c r="E72" s="3">
-        <v>-193600</v>
+        <v>-137500</v>
       </c>
       <c r="F72" s="3">
-        <v>-107300</v>
+        <v>-168700</v>
       </c>
       <c r="G72" s="3">
-        <v>-119600</v>
+        <v>-196900</v>
       </c>
       <c r="H72" s="3">
-        <v>-83500</v>
+        <v>-109100</v>
       </c>
       <c r="I72" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-82100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-144200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-181100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>310400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>506800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>475500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>459100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>272300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>207200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>264700</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3">
-        <v>171200</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>171200</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>609500</v>
+        <v>703200</v>
       </c>
       <c r="E76" s="3">
-        <v>581700</v>
+        <v>651700</v>
       </c>
       <c r="F76" s="3">
-        <v>668400</v>
+        <v>619700</v>
       </c>
       <c r="G76" s="3">
-        <v>656000</v>
+        <v>591400</v>
       </c>
       <c r="H76" s="3">
-        <v>690500</v>
+        <v>679600</v>
       </c>
       <c r="I76" s="3">
+        <v>667000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>702100</v>
+      </c>
+      <c r="K76" s="3">
         <v>691400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>450200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>418300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>387000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-52800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>693400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>641200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>623800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>440800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>370400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>408500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>361900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>311200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27900</v>
+        <v>50200</v>
       </c>
       <c r="E81" s="3">
-        <v>-86200</v>
+        <v>31300</v>
       </c>
       <c r="F81" s="3">
-        <v>12300</v>
+        <v>28400</v>
       </c>
       <c r="G81" s="3">
-        <v>-35800</v>
+        <v>-87600</v>
       </c>
       <c r="H81" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>62200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>35100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>56400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>143200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>27100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>76900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>66600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>45000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>39900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>51000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>55200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21900</v>
+        <v>50700</v>
       </c>
       <c r="E89" s="3">
-        <v>-33700</v>
+        <v>-33300</v>
       </c>
       <c r="F89" s="3">
-        <v>4600</v>
+        <v>-22200</v>
       </c>
       <c r="G89" s="3">
-        <v>-13400</v>
+        <v>-34300</v>
       </c>
       <c r="H89" s="3">
-        <v>85900</v>
+        <v>4700</v>
       </c>
       <c r="I89" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K89" s="3">
         <v>13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>181100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-51800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>149000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-20100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-191800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>189300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>51400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>78700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>82100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>121600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44000</v>
+        <v>-36600</v>
       </c>
       <c r="E94" s="3">
-        <v>-151100</v>
+        <v>-32600</v>
       </c>
       <c r="F94" s="3">
-        <v>-19500</v>
+        <v>-44800</v>
       </c>
       <c r="G94" s="3">
-        <v>-25300</v>
+        <v>-153600</v>
       </c>
       <c r="H94" s="3">
-        <v>-80800</v>
+        <v>-19800</v>
       </c>
       <c r="I94" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="K94" s="3">
         <v>314600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-199000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>91300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-34500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>127200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>322400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>65700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-37700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-28700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>50800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-14200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-62200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-117500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>43000</v>
+        <v>7800</v>
       </c>
       <c r="E100" s="3">
-        <v>138500</v>
+        <v>22600</v>
       </c>
       <c r="F100" s="3">
-        <v>12600</v>
+        <v>43700</v>
       </c>
       <c r="G100" s="3">
-        <v>6100</v>
+        <v>140800</v>
       </c>
       <c r="H100" s="3">
-        <v>-10100</v>
+        <v>12800</v>
       </c>
       <c r="I100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-242800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>75400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-10500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-15300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-11800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>33900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-86300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-19000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-14100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-6500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>8800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5869,119 +6367,131 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-22900</v>
+        <v>21800</v>
       </c>
       <c r="E102" s="3">
-        <v>-46400</v>
+        <v>-43500</v>
       </c>
       <c r="F102" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-4800</v>
-      </c>
       <c r="I102" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K102" s="3">
         <v>85100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>31900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-63600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>149000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-231900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-111400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>75600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>81000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>49500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>12800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>15400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>192900</v>
+        <v>194400</v>
       </c>
       <c r="E8" s="3">
-        <v>176100</v>
+        <v>177500</v>
       </c>
       <c r="F8" s="3">
-        <v>172200</v>
+        <v>173500</v>
       </c>
       <c r="G8" s="3">
-        <v>181800</v>
+        <v>183100</v>
       </c>
       <c r="H8" s="3">
-        <v>160100</v>
+        <v>161400</v>
       </c>
       <c r="I8" s="3">
-        <v>118200</v>
+        <v>119100</v>
       </c>
       <c r="J8" s="3">
-        <v>160300</v>
+        <v>161500</v>
       </c>
       <c r="K8" s="3">
         <v>388500</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="E9" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="F9" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="G9" s="3">
-        <v>93500</v>
+        <v>94200</v>
       </c>
       <c r="H9" s="3">
-        <v>37500</v>
+        <v>37800</v>
       </c>
       <c r="I9" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="J9" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="K9" s="3">
         <v>26800</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>163600</v>
+        <v>164900</v>
       </c>
       <c r="E10" s="3">
-        <v>147500</v>
+        <v>148700</v>
       </c>
       <c r="F10" s="3">
-        <v>144900</v>
+        <v>146000</v>
       </c>
       <c r="G10" s="3">
-        <v>88300</v>
+        <v>89000</v>
       </c>
       <c r="H10" s="3">
-        <v>122600</v>
+        <v>123500</v>
       </c>
       <c r="I10" s="3">
-        <v>92300</v>
+        <v>93000</v>
       </c>
       <c r="J10" s="3">
-        <v>144200</v>
+        <v>145300</v>
       </c>
       <c r="K10" s="3">
         <v>361700</v>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>102700</v>
+        <v>103500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>127900</v>
+        <v>128900</v>
       </c>
       <c r="E17" s="3">
-        <v>131600</v>
+        <v>132600</v>
       </c>
       <c r="F17" s="3">
-        <v>131600</v>
+        <v>132600</v>
       </c>
       <c r="G17" s="3">
-        <v>271100</v>
+        <v>273200</v>
       </c>
       <c r="H17" s="3">
-        <v>142400</v>
+        <v>143500</v>
       </c>
       <c r="I17" s="3">
-        <v>158900</v>
+        <v>160100</v>
       </c>
       <c r="J17" s="3">
-        <v>158400</v>
+        <v>159600</v>
       </c>
       <c r="K17" s="3">
         <v>286800</v>
@@ -1360,22 +1360,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>65000</v>
+        <v>65500</v>
       </c>
       <c r="E18" s="3">
-        <v>44500</v>
+        <v>44900</v>
       </c>
       <c r="F18" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="G18" s="3">
-        <v>-89400</v>
+        <v>-90000</v>
       </c>
       <c r="H18" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="I18" s="3">
-        <v>-40700</v>
+        <v>-41100</v>
       </c>
       <c r="J18" s="3">
         <v>1900</v>
@@ -1454,16 +1454,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F20" s="3">
         <v>-5300</v>
       </c>
       <c r="G20" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="H20" s="3">
         <v>-2700</v>
@@ -1522,22 +1522,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>61500</v>
+        <v>62000</v>
       </c>
       <c r="E21" s="3">
-        <v>39500</v>
+        <v>39800</v>
       </c>
       <c r="F21" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="G21" s="3">
-        <v>-97000</v>
+        <v>-97700</v>
       </c>
       <c r="H21" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="I21" s="3">
-        <v>-44200</v>
+        <v>-44600</v>
       </c>
       <c r="J21" s="3">
         <v>7900</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="E23" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="F23" s="3">
-        <v>35300</v>
+        <v>35600</v>
       </c>
       <c r="G23" s="3">
-        <v>-96000</v>
+        <v>-96700</v>
       </c>
       <c r="H23" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="I23" s="3">
-        <v>-43800</v>
+        <v>-44100</v>
       </c>
       <c r="J23" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K23" s="3">
         <v>74700</v>
@@ -1726,13 +1726,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="E24" s="3">
         <v>8700</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G24" s="3">
         <v>-8400</v>
@@ -1741,7 +1741,7 @@
         <v>2600</v>
       </c>
       <c r="I24" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1862,22 +1862,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="E26" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="F26" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="G26" s="3">
-        <v>-87600</v>
+        <v>-88300</v>
       </c>
       <c r="H26" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I26" s="3">
-        <v>-36400</v>
+        <v>-36600</v>
       </c>
       <c r="J26" s="3">
         <v>3000</v>
@@ -1930,22 +1930,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="E27" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="F27" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="G27" s="3">
-        <v>-87600</v>
+        <v>-88300</v>
       </c>
       <c r="H27" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I27" s="3">
-        <v>-36400</v>
+        <v>-36600</v>
       </c>
       <c r="J27" s="3">
         <v>3000</v>
@@ -2270,16 +2270,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F32" s="3">
         <v>5300</v>
       </c>
       <c r="G32" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H32" s="3">
         <v>2700</v>
@@ -2338,22 +2338,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="E33" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="F33" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="G33" s="3">
-        <v>-87600</v>
+        <v>-88300</v>
       </c>
       <c r="H33" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I33" s="3">
-        <v>-36400</v>
+        <v>-36600</v>
       </c>
       <c r="J33" s="3">
         <v>3000</v>
@@ -2474,22 +2474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="E35" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="F35" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="G35" s="3">
-        <v>-87600</v>
+        <v>-88300</v>
       </c>
       <c r="H35" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I35" s="3">
-        <v>-36400</v>
+        <v>-36600</v>
       </c>
       <c r="J35" s="3">
         <v>3000</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>364500</v>
+        <v>367300</v>
       </c>
       <c r="E41" s="3">
-        <v>343300</v>
+        <v>345900</v>
       </c>
       <c r="F41" s="3">
-        <v>369800</v>
+        <v>372700</v>
       </c>
       <c r="G41" s="3">
-        <v>386700</v>
+        <v>389700</v>
       </c>
       <c r="H41" s="3">
-        <v>444000</v>
+        <v>447400</v>
       </c>
       <c r="I41" s="3">
-        <v>459600</v>
+        <v>463100</v>
       </c>
       <c r="J41" s="3">
-        <v>500200</v>
+        <v>504000</v>
       </c>
       <c r="K41" s="3">
         <v>492400</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>160800</v>
+        <v>162100</v>
       </c>
       <c r="E43" s="3">
-        <v>202500</v>
+        <v>204000</v>
       </c>
       <c r="F43" s="3">
-        <v>166000</v>
+        <v>167200</v>
       </c>
       <c r="G43" s="3">
-        <v>157600</v>
+        <v>158800</v>
       </c>
       <c r="H43" s="3">
-        <v>263800</v>
+        <v>265800</v>
       </c>
       <c r="I43" s="3">
-        <v>248600</v>
+        <v>250500</v>
       </c>
       <c r="J43" s="3">
-        <v>253300</v>
+        <v>255200</v>
       </c>
       <c r="K43" s="3">
         <v>152800</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56100</v>
+        <v>56500</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>33800</v>
       </c>
       <c r="F45" s="3">
-        <v>33700</v>
+        <v>33900</v>
       </c>
       <c r="G45" s="3">
-        <v>43600</v>
+        <v>44000</v>
       </c>
       <c r="H45" s="3">
-        <v>154500</v>
+        <v>155700</v>
       </c>
       <c r="I45" s="3">
-        <v>177600</v>
+        <v>178900</v>
       </c>
       <c r="J45" s="3">
-        <v>136000</v>
+        <v>137000</v>
       </c>
       <c r="K45" s="3">
         <v>205300</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>551600</v>
+        <v>555900</v>
       </c>
       <c r="E47" s="3">
-        <v>491900</v>
+        <v>495600</v>
       </c>
       <c r="F47" s="3">
-        <v>438800</v>
+        <v>442200</v>
       </c>
       <c r="G47" s="3">
-        <v>371800</v>
+        <v>374600</v>
       </c>
       <c r="H47" s="3">
-        <v>343300</v>
+        <v>345900</v>
       </c>
       <c r="I47" s="3">
-        <v>340600</v>
+        <v>343200</v>
       </c>
       <c r="J47" s="3">
-        <v>419700</v>
+        <v>422900</v>
       </c>
       <c r="K47" s="3">
         <v>510400</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="E48" s="3">
-        <v>34000</v>
+        <v>34300</v>
       </c>
       <c r="F48" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="G48" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="H48" s="3">
-        <v>50800</v>
+        <v>51200</v>
       </c>
       <c r="I48" s="3">
-        <v>64000</v>
+        <v>64500</v>
       </c>
       <c r="J48" s="3">
-        <v>75100</v>
+        <v>75700</v>
       </c>
       <c r="K48" s="3">
         <v>81600</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="E52" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="F52" s="3">
-        <v>32900</v>
+        <v>33100</v>
       </c>
       <c r="G52" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="H52" s="3">
-        <v>34800</v>
+        <v>35100</v>
       </c>
       <c r="I52" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="J52" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="K52" s="3">
         <v>17900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1183000</v>
+        <v>1192100</v>
       </c>
       <c r="E54" s="3">
-        <v>1127300</v>
+        <v>1135900</v>
       </c>
       <c r="F54" s="3">
-        <v>1087300</v>
+        <v>1095700</v>
       </c>
       <c r="G54" s="3">
-        <v>1049300</v>
+        <v>1057300</v>
       </c>
       <c r="H54" s="3">
-        <v>1310600</v>
+        <v>1320700</v>
       </c>
       <c r="I54" s="3">
-        <v>1335100</v>
+        <v>1345300</v>
       </c>
       <c r="J54" s="3">
-        <v>1421100</v>
+        <v>1432000</v>
       </c>
       <c r="K54" s="3">
         <v>1485000</v>
@@ -3674,7 +3674,7 @@
         <v>5800</v>
       </c>
       <c r="E57" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="F57" s="3">
         <v>2000</v>
@@ -3686,10 +3686,10 @@
         <v>3900</v>
       </c>
       <c r="I57" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J57" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K57" s="3">
         <v>6700</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>285600</v>
+        <v>287800</v>
       </c>
       <c r="E59" s="3">
-        <v>290900</v>
+        <v>293100</v>
       </c>
       <c r="F59" s="3">
-        <v>320500</v>
+        <v>323000</v>
       </c>
       <c r="G59" s="3">
-        <v>362200</v>
+        <v>365000</v>
       </c>
       <c r="H59" s="3">
-        <v>379300</v>
+        <v>382200</v>
       </c>
       <c r="I59" s="3">
-        <v>371100</v>
+        <v>374000</v>
       </c>
       <c r="J59" s="3">
-        <v>362800</v>
+        <v>365600</v>
       </c>
       <c r="K59" s="3">
         <v>420000</v>
@@ -3943,16 +3943,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>162600</v>
+        <v>163800</v>
       </c>
       <c r="E61" s="3">
-        <v>151600</v>
+        <v>152800</v>
       </c>
       <c r="F61" s="3">
-        <v>125100</v>
+        <v>126100</v>
       </c>
       <c r="G61" s="3">
-        <v>78400</v>
+        <v>79000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="E62" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="F62" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G62" s="3">
         <v>6100</v>
       </c>
       <c r="H62" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="I62" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="J62" s="3">
-        <v>33900</v>
+        <v>34100</v>
       </c>
       <c r="K62" s="3">
         <v>33700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>479800</v>
+        <v>483500</v>
       </c>
       <c r="E66" s="3">
-        <v>475500</v>
+        <v>479200</v>
       </c>
       <c r="F66" s="3">
-        <v>467700</v>
+        <v>471200</v>
       </c>
       <c r="G66" s="3">
-        <v>457900</v>
+        <v>461400</v>
       </c>
       <c r="H66" s="3">
-        <v>631000</v>
+        <v>635800</v>
       </c>
       <c r="I66" s="3">
-        <v>668100</v>
+        <v>673200</v>
       </c>
       <c r="J66" s="3">
-        <v>719000</v>
+        <v>724500</v>
       </c>
       <c r="K66" s="3">
         <v>793700</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-90400</v>
+        <v>-91100</v>
       </c>
       <c r="E72" s="3">
-        <v>-137500</v>
+        <v>-138600</v>
       </c>
       <c r="F72" s="3">
-        <v>-168700</v>
+        <v>-170000</v>
       </c>
       <c r="G72" s="3">
-        <v>-196900</v>
+        <v>-198400</v>
       </c>
       <c r="H72" s="3">
-        <v>-109100</v>
+        <v>-110000</v>
       </c>
       <c r="I72" s="3">
-        <v>-121600</v>
+        <v>-122500</v>
       </c>
       <c r="J72" s="3">
-        <v>-84900</v>
+        <v>-85600</v>
       </c>
       <c r="K72" s="3">
         <v>-82100</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>703200</v>
+        <v>708600</v>
       </c>
       <c r="E76" s="3">
-        <v>651700</v>
+        <v>656700</v>
       </c>
       <c r="F76" s="3">
-        <v>619700</v>
+        <v>624400</v>
       </c>
       <c r="G76" s="3">
-        <v>591400</v>
+        <v>596000</v>
       </c>
       <c r="H76" s="3">
-        <v>679600</v>
+        <v>684800</v>
       </c>
       <c r="I76" s="3">
-        <v>667000</v>
+        <v>672100</v>
       </c>
       <c r="J76" s="3">
-        <v>702100</v>
+        <v>707500</v>
       </c>
       <c r="K76" s="3">
         <v>691400</v>
@@ -5130,22 +5130,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="E81" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="F81" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="G81" s="3">
-        <v>-87600</v>
+        <v>-88300</v>
       </c>
       <c r="H81" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I81" s="3">
-        <v>-36400</v>
+        <v>-36600</v>
       </c>
       <c r="J81" s="3">
         <v>3000</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50700</v>
+        <v>51100</v>
       </c>
       <c r="E89" s="3">
-        <v>-33300</v>
+        <v>-33600</v>
       </c>
       <c r="F89" s="3">
-        <v>-22200</v>
+        <v>-22400</v>
       </c>
       <c r="G89" s="3">
-        <v>-34300</v>
+        <v>-34600</v>
       </c>
       <c r="H89" s="3">
         <v>4700</v>
       </c>
       <c r="I89" s="3">
-        <v>-13600</v>
+        <v>-13700</v>
       </c>
       <c r="J89" s="3">
-        <v>87300</v>
+        <v>88000</v>
       </c>
       <c r="K89" s="3">
         <v>13600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="E94" s="3">
-        <v>-32600</v>
+        <v>-32900</v>
       </c>
       <c r="F94" s="3">
-        <v>-44800</v>
+        <v>-45100</v>
       </c>
       <c r="G94" s="3">
-        <v>-153600</v>
+        <v>-154800</v>
       </c>
       <c r="H94" s="3">
-        <v>-19800</v>
+        <v>-20000</v>
       </c>
       <c r="I94" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="J94" s="3">
-        <v>-82100</v>
+        <v>-82700</v>
       </c>
       <c r="K94" s="3">
         <v>314600</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E100" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="F100" s="3">
-        <v>43700</v>
+        <v>44100</v>
       </c>
       <c r="G100" s="3">
-        <v>140800</v>
+        <v>141900</v>
       </c>
       <c r="H100" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="I100" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="J100" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K100" s="3">
         <v>-242800</v>
@@ -6432,22 +6432,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21800</v>
+        <v>22000</v>
       </c>
       <c r="E102" s="3">
-        <v>-43500</v>
+        <v>-43800</v>
       </c>
       <c r="F102" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="G102" s="3">
-        <v>-47200</v>
+        <v>-47500</v>
       </c>
       <c r="H102" s="3">
         <v>-2800</v>
       </c>
       <c r="I102" s="3">
-        <v>-33100</v>
+        <v>-33400</v>
       </c>
       <c r="J102" s="3">
         <v>-4900</v>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>194400</v>
+        <v>181500</v>
       </c>
       <c r="E8" s="3">
-        <v>177500</v>
+        <v>165800</v>
       </c>
       <c r="F8" s="3">
-        <v>173500</v>
+        <v>162100</v>
       </c>
       <c r="G8" s="3">
-        <v>183100</v>
+        <v>171100</v>
       </c>
       <c r="H8" s="3">
-        <v>161400</v>
+        <v>150700</v>
       </c>
       <c r="I8" s="3">
-        <v>119100</v>
+        <v>111200</v>
       </c>
       <c r="J8" s="3">
-        <v>161500</v>
+        <v>150900</v>
       </c>
       <c r="K8" s="3">
         <v>388500</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="E9" s="3">
-        <v>28800</v>
+        <v>26900</v>
       </c>
       <c r="F9" s="3">
-        <v>27500</v>
+        <v>25700</v>
       </c>
       <c r="G9" s="3">
-        <v>94200</v>
+        <v>88000</v>
       </c>
       <c r="H9" s="3">
-        <v>37800</v>
+        <v>35300</v>
       </c>
       <c r="I9" s="3">
-        <v>26100</v>
+        <v>24300</v>
       </c>
       <c r="J9" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="K9" s="3">
         <v>26800</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>164900</v>
+        <v>154000</v>
       </c>
       <c r="E10" s="3">
-        <v>148700</v>
+        <v>138900</v>
       </c>
       <c r="F10" s="3">
-        <v>146000</v>
+        <v>136400</v>
       </c>
       <c r="G10" s="3">
-        <v>89000</v>
+        <v>83100</v>
       </c>
       <c r="H10" s="3">
-        <v>123500</v>
+        <v>115400</v>
       </c>
       <c r="I10" s="3">
-        <v>93000</v>
+        <v>86900</v>
       </c>
       <c r="J10" s="3">
-        <v>145300</v>
+        <v>135700</v>
       </c>
       <c r="K10" s="3">
         <v>361700</v>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>103500</v>
+        <v>96600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>128900</v>
+        <v>120400</v>
       </c>
       <c r="E17" s="3">
-        <v>132600</v>
+        <v>123900</v>
       </c>
       <c r="F17" s="3">
-        <v>132600</v>
+        <v>123900</v>
       </c>
       <c r="G17" s="3">
-        <v>273200</v>
+        <v>255200</v>
       </c>
       <c r="H17" s="3">
-        <v>143500</v>
+        <v>134000</v>
       </c>
       <c r="I17" s="3">
-        <v>160100</v>
+        <v>149600</v>
       </c>
       <c r="J17" s="3">
-        <v>159600</v>
+        <v>149100</v>
       </c>
       <c r="K17" s="3">
         <v>286800</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>65500</v>
+        <v>61200</v>
       </c>
       <c r="E18" s="3">
-        <v>44900</v>
+        <v>41900</v>
       </c>
       <c r="F18" s="3">
-        <v>40900</v>
+        <v>38200</v>
       </c>
       <c r="G18" s="3">
-        <v>-90000</v>
+        <v>-84100</v>
       </c>
       <c r="H18" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="I18" s="3">
-        <v>-41100</v>
+        <v>-38300</v>
       </c>
       <c r="J18" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K18" s="3">
         <v>101700</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3100</v>
-      </c>
       <c r="J20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K20" s="3">
         <v>-27000</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="E21" s="3">
-        <v>39800</v>
+        <v>37200</v>
       </c>
       <c r="F21" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="G21" s="3">
-        <v>-97700</v>
+        <v>-91300</v>
       </c>
       <c r="H21" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="I21" s="3">
-        <v>-44600</v>
+        <v>-41600</v>
       </c>
       <c r="J21" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="K21" s="3">
         <v>76700</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62600</v>
+        <v>58500</v>
       </c>
       <c r="E23" s="3">
-        <v>40300</v>
+        <v>37600</v>
       </c>
       <c r="F23" s="3">
-        <v>35600</v>
+        <v>33200</v>
       </c>
       <c r="G23" s="3">
-        <v>-96700</v>
+        <v>-90300</v>
       </c>
       <c r="H23" s="3">
-        <v>15200</v>
+        <v>14200</v>
       </c>
       <c r="I23" s="3">
-        <v>-44100</v>
+        <v>-41200</v>
       </c>
       <c r="J23" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="K23" s="3">
         <v>74700</v>
@@ -1726,22 +1726,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="F24" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="G24" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="H24" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I24" s="3">
-        <v>-7500</v>
+        <v>-7000</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>50600</v>
+        <v>47300</v>
       </c>
       <c r="E26" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="F26" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="G26" s="3">
-        <v>-88300</v>
+        <v>-82500</v>
       </c>
       <c r="H26" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="I26" s="3">
-        <v>-36600</v>
+        <v>-34200</v>
       </c>
       <c r="J26" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K26" s="3">
         <v>62200</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50600</v>
+        <v>47300</v>
       </c>
       <c r="E27" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="F27" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="G27" s="3">
-        <v>-88300</v>
+        <v>-82500</v>
       </c>
       <c r="H27" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="I27" s="3">
-        <v>-36600</v>
+        <v>-34200</v>
       </c>
       <c r="J27" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K27" s="3">
         <v>62200</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3100</v>
-      </c>
       <c r="J32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K32" s="3">
         <v>27000</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50600</v>
+        <v>47300</v>
       </c>
       <c r="E33" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="F33" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="G33" s="3">
-        <v>-88300</v>
+        <v>-82500</v>
       </c>
       <c r="H33" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="I33" s="3">
-        <v>-36600</v>
+        <v>-34200</v>
       </c>
       <c r="J33" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K33" s="3">
         <v>62200</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50600</v>
+        <v>47300</v>
       </c>
       <c r="E35" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="F35" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="G35" s="3">
-        <v>-88300</v>
+        <v>-82500</v>
       </c>
       <c r="H35" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="I35" s="3">
-        <v>-36600</v>
+        <v>-34200</v>
       </c>
       <c r="J35" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K35" s="3">
         <v>62200</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>367300</v>
+        <v>343100</v>
       </c>
       <c r="E41" s="3">
-        <v>345900</v>
+        <v>323100</v>
       </c>
       <c r="F41" s="3">
-        <v>372700</v>
+        <v>348100</v>
       </c>
       <c r="G41" s="3">
-        <v>389700</v>
+        <v>364000</v>
       </c>
       <c r="H41" s="3">
-        <v>447400</v>
+        <v>417900</v>
       </c>
       <c r="I41" s="3">
-        <v>463100</v>
+        <v>432600</v>
       </c>
       <c r="J41" s="3">
-        <v>504000</v>
+        <v>470800</v>
       </c>
       <c r="K41" s="3">
         <v>492400</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>162100</v>
+        <v>151400</v>
       </c>
       <c r="E43" s="3">
-        <v>204000</v>
+        <v>190600</v>
       </c>
       <c r="F43" s="3">
-        <v>167200</v>
+        <v>156200</v>
       </c>
       <c r="G43" s="3">
-        <v>158800</v>
+        <v>148400</v>
       </c>
       <c r="H43" s="3">
-        <v>265800</v>
+        <v>248300</v>
       </c>
       <c r="I43" s="3">
-        <v>250500</v>
+        <v>234000</v>
       </c>
       <c r="J43" s="3">
-        <v>255200</v>
+        <v>238400</v>
       </c>
       <c r="K43" s="3">
         <v>152800</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56500</v>
+        <v>52800</v>
       </c>
       <c r="E45" s="3">
-        <v>33800</v>
+        <v>31500</v>
       </c>
       <c r="F45" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="G45" s="3">
-        <v>44000</v>
+        <v>41100</v>
       </c>
       <c r="H45" s="3">
-        <v>155700</v>
+        <v>145400</v>
       </c>
       <c r="I45" s="3">
-        <v>178900</v>
+        <v>167100</v>
       </c>
       <c r="J45" s="3">
-        <v>137000</v>
+        <v>128000</v>
       </c>
       <c r="K45" s="3">
         <v>205300</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>555900</v>
+        <v>519200</v>
       </c>
       <c r="E47" s="3">
-        <v>495600</v>
+        <v>463000</v>
       </c>
       <c r="F47" s="3">
-        <v>442200</v>
+        <v>413000</v>
       </c>
       <c r="G47" s="3">
-        <v>374600</v>
+        <v>349900</v>
       </c>
       <c r="H47" s="3">
-        <v>345900</v>
+        <v>323100</v>
       </c>
       <c r="I47" s="3">
-        <v>343200</v>
+        <v>320600</v>
       </c>
       <c r="J47" s="3">
-        <v>422900</v>
+        <v>395000</v>
       </c>
       <c r="K47" s="3">
         <v>510400</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29400</v>
+        <v>27400</v>
       </c>
       <c r="E48" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F48" s="3">
         <v>34300</v>
       </c>
-      <c r="F48" s="3">
-        <v>36700</v>
-      </c>
       <c r="G48" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="H48" s="3">
-        <v>51200</v>
+        <v>47800</v>
       </c>
       <c r="I48" s="3">
-        <v>64500</v>
+        <v>60300</v>
       </c>
       <c r="J48" s="3">
-        <v>75700</v>
+        <v>70700</v>
       </c>
       <c r="K48" s="3">
         <v>81600</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="E52" s="3">
-        <v>15300</v>
+        <v>14300</v>
       </c>
       <c r="F52" s="3">
-        <v>33100</v>
+        <v>30900</v>
       </c>
       <c r="G52" s="3">
-        <v>40100</v>
+        <v>37400</v>
       </c>
       <c r="H52" s="3">
-        <v>35100</v>
+        <v>32800</v>
       </c>
       <c r="I52" s="3">
-        <v>22100</v>
+        <v>20600</v>
       </c>
       <c r="J52" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="K52" s="3">
         <v>17900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1192100</v>
+        <v>1113500</v>
       </c>
       <c r="E54" s="3">
-        <v>1135900</v>
+        <v>1061000</v>
       </c>
       <c r="F54" s="3">
-        <v>1095700</v>
+        <v>1023400</v>
       </c>
       <c r="G54" s="3">
-        <v>1057300</v>
+        <v>987600</v>
       </c>
       <c r="H54" s="3">
-        <v>1320700</v>
+        <v>1233600</v>
       </c>
       <c r="I54" s="3">
-        <v>1345300</v>
+        <v>1256600</v>
       </c>
       <c r="J54" s="3">
-        <v>1432000</v>
+        <v>1337600</v>
       </c>
       <c r="K54" s="3">
         <v>1485000</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J57" s="3">
         <v>5800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>6200</v>
       </c>
       <c r="K57" s="3">
         <v>6700</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>287800</v>
+        <v>268800</v>
       </c>
       <c r="E59" s="3">
-        <v>293100</v>
+        <v>273800</v>
       </c>
       <c r="F59" s="3">
-        <v>323000</v>
+        <v>301700</v>
       </c>
       <c r="G59" s="3">
-        <v>365000</v>
+        <v>340900</v>
       </c>
       <c r="H59" s="3">
-        <v>382200</v>
+        <v>357000</v>
       </c>
       <c r="I59" s="3">
-        <v>374000</v>
+        <v>349300</v>
       </c>
       <c r="J59" s="3">
-        <v>365600</v>
+        <v>341500</v>
       </c>
       <c r="K59" s="3">
         <v>420000</v>
@@ -3943,16 +3943,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>163800</v>
+        <v>153000</v>
       </c>
       <c r="E61" s="3">
-        <v>152800</v>
+        <v>142700</v>
       </c>
       <c r="F61" s="3">
-        <v>126100</v>
+        <v>117800</v>
       </c>
       <c r="G61" s="3">
-        <v>79000</v>
+        <v>73800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23300</v>
+        <v>21700</v>
       </c>
       <c r="E62" s="3">
-        <v>18700</v>
+        <v>17500</v>
       </c>
       <c r="F62" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="G62" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="H62" s="3">
-        <v>23700</v>
+        <v>22200</v>
       </c>
       <c r="I62" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="J62" s="3">
-        <v>34100</v>
+        <v>31900</v>
       </c>
       <c r="K62" s="3">
         <v>33700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>483500</v>
+        <v>451700</v>
       </c>
       <c r="E66" s="3">
-        <v>479200</v>
+        <v>447600</v>
       </c>
       <c r="F66" s="3">
-        <v>471200</v>
+        <v>440200</v>
       </c>
       <c r="G66" s="3">
-        <v>461400</v>
+        <v>431000</v>
       </c>
       <c r="H66" s="3">
-        <v>635800</v>
+        <v>593900</v>
       </c>
       <c r="I66" s="3">
-        <v>673200</v>
+        <v>628900</v>
       </c>
       <c r="J66" s="3">
-        <v>724500</v>
+        <v>676700</v>
       </c>
       <c r="K66" s="3">
         <v>793700</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-91100</v>
+        <v>-85100</v>
       </c>
       <c r="E72" s="3">
-        <v>-138600</v>
+        <v>-129400</v>
       </c>
       <c r="F72" s="3">
-        <v>-170000</v>
+        <v>-158800</v>
       </c>
       <c r="G72" s="3">
-        <v>-198400</v>
+        <v>-185300</v>
       </c>
       <c r="H72" s="3">
-        <v>-110000</v>
+        <v>-102700</v>
       </c>
       <c r="I72" s="3">
-        <v>-122500</v>
+        <v>-114400</v>
       </c>
       <c r="J72" s="3">
-        <v>-85600</v>
+        <v>-79900</v>
       </c>
       <c r="K72" s="3">
         <v>-82100</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>708600</v>
+        <v>661900</v>
       </c>
       <c r="E76" s="3">
-        <v>656700</v>
+        <v>613400</v>
       </c>
       <c r="F76" s="3">
-        <v>624400</v>
+        <v>583300</v>
       </c>
       <c r="G76" s="3">
-        <v>596000</v>
+        <v>556700</v>
       </c>
       <c r="H76" s="3">
-        <v>684800</v>
+        <v>639700</v>
       </c>
       <c r="I76" s="3">
-        <v>672100</v>
+        <v>627800</v>
       </c>
       <c r="J76" s="3">
-        <v>707500</v>
+        <v>660900</v>
       </c>
       <c r="K76" s="3">
         <v>691400</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50600</v>
+        <v>47300</v>
       </c>
       <c r="E81" s="3">
-        <v>31600</v>
+        <v>29500</v>
       </c>
       <c r="F81" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="G81" s="3">
-        <v>-88300</v>
+        <v>-82500</v>
       </c>
       <c r="H81" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="I81" s="3">
-        <v>-36600</v>
+        <v>-34200</v>
       </c>
       <c r="J81" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K81" s="3">
         <v>62200</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>51100</v>
+        <v>47700</v>
       </c>
       <c r="E89" s="3">
-        <v>-33600</v>
+        <v>-31400</v>
       </c>
       <c r="F89" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="G89" s="3">
-        <v>-34600</v>
+        <v>-32300</v>
       </c>
       <c r="H89" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="I89" s="3">
-        <v>-13700</v>
+        <v>-12800</v>
       </c>
       <c r="J89" s="3">
-        <v>88000</v>
+        <v>82200</v>
       </c>
       <c r="K89" s="3">
         <v>13600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36900</v>
+        <v>-34500</v>
       </c>
       <c r="E94" s="3">
-        <v>-32900</v>
+        <v>-30700</v>
       </c>
       <c r="F94" s="3">
-        <v>-45100</v>
+        <v>-42200</v>
       </c>
       <c r="G94" s="3">
-        <v>-154800</v>
+        <v>-144600</v>
       </c>
       <c r="H94" s="3">
-        <v>-20000</v>
+        <v>-18600</v>
       </c>
       <c r="I94" s="3">
-        <v>-26000</v>
+        <v>-24300</v>
       </c>
       <c r="J94" s="3">
-        <v>-82700</v>
+        <v>-77300</v>
       </c>
       <c r="K94" s="3">
         <v>314600</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="E100" s="3">
-        <v>22700</v>
+        <v>21200</v>
       </c>
       <c r="F100" s="3">
-        <v>44100</v>
+        <v>41200</v>
       </c>
       <c r="G100" s="3">
-        <v>141900</v>
+        <v>132500</v>
       </c>
       <c r="H100" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="I100" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="J100" s="3">
-        <v>-10400</v>
+        <v>-9700</v>
       </c>
       <c r="K100" s="3">
         <v>-242800</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22000</v>
+        <v>20600</v>
       </c>
       <c r="E102" s="3">
-        <v>-43800</v>
+        <v>-40900</v>
       </c>
       <c r="F102" s="3">
-        <v>-23500</v>
+        <v>-21900</v>
       </c>
       <c r="G102" s="3">
-        <v>-47500</v>
+        <v>-44400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I102" s="3">
-        <v>-33400</v>
+        <v>-31200</v>
       </c>
       <c r="J102" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="K102" s="3">
         <v>85100</v>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>181500</v>
+        <v>179900</v>
       </c>
       <c r="E8" s="3">
-        <v>165800</v>
+        <v>164300</v>
       </c>
       <c r="F8" s="3">
-        <v>162100</v>
+        <v>160600</v>
       </c>
       <c r="G8" s="3">
-        <v>171100</v>
+        <v>169500</v>
       </c>
       <c r="H8" s="3">
-        <v>150700</v>
+        <v>149400</v>
       </c>
       <c r="I8" s="3">
-        <v>111200</v>
+        <v>110200</v>
       </c>
       <c r="J8" s="3">
-        <v>150900</v>
+        <v>149500</v>
       </c>
       <c r="K8" s="3">
         <v>388500</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="E9" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="F9" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="G9" s="3">
-        <v>88000</v>
+        <v>87200</v>
       </c>
       <c r="H9" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="I9" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="J9" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="K9" s="3">
         <v>26800</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>154000</v>
+        <v>152600</v>
       </c>
       <c r="E10" s="3">
-        <v>138900</v>
+        <v>137600</v>
       </c>
       <c r="F10" s="3">
-        <v>136400</v>
+        <v>135100</v>
       </c>
       <c r="G10" s="3">
-        <v>83100</v>
+        <v>82400</v>
       </c>
       <c r="H10" s="3">
-        <v>115400</v>
+        <v>114400</v>
       </c>
       <c r="I10" s="3">
-        <v>86900</v>
+        <v>86100</v>
       </c>
       <c r="J10" s="3">
-        <v>135700</v>
+        <v>134500</v>
       </c>
       <c r="K10" s="3">
         <v>361700</v>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>96600</v>
+        <v>95800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>120400</v>
+        <v>119300</v>
       </c>
       <c r="E17" s="3">
-        <v>123900</v>
+        <v>122800</v>
       </c>
       <c r="F17" s="3">
-        <v>123900</v>
+        <v>122800</v>
       </c>
       <c r="G17" s="3">
-        <v>255200</v>
+        <v>252900</v>
       </c>
       <c r="H17" s="3">
-        <v>134000</v>
+        <v>132800</v>
       </c>
       <c r="I17" s="3">
-        <v>149600</v>
+        <v>148200</v>
       </c>
       <c r="J17" s="3">
-        <v>149100</v>
+        <v>147800</v>
       </c>
       <c r="K17" s="3">
         <v>286800</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>61200</v>
+        <v>60600</v>
       </c>
       <c r="E18" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="F18" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="G18" s="3">
-        <v>-84100</v>
+        <v>-83400</v>
       </c>
       <c r="H18" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="I18" s="3">
-        <v>-38300</v>
+        <v>-38000</v>
       </c>
       <c r="J18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K18" s="3">
         <v>101700</v>
@@ -1457,10 +1457,10 @@
         <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G20" s="3">
         <v>-6200</v>
@@ -1472,7 +1472,7 @@
         <v>-2900</v>
       </c>
       <c r="J20" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K20" s="3">
         <v>-27000</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57900</v>
+        <v>57400</v>
       </c>
       <c r="E21" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="F21" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="G21" s="3">
-        <v>-91300</v>
+        <v>-90500</v>
       </c>
       <c r="H21" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="I21" s="3">
-        <v>-41600</v>
+        <v>-41300</v>
       </c>
       <c r="J21" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="K21" s="3">
         <v>76700</v>
@@ -1658,22 +1658,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58500</v>
+        <v>58000</v>
       </c>
       <c r="E23" s="3">
-        <v>37600</v>
+        <v>37300</v>
       </c>
       <c r="F23" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="G23" s="3">
-        <v>-90300</v>
+        <v>-89500</v>
       </c>
       <c r="H23" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="I23" s="3">
-        <v>-41200</v>
+        <v>-40900</v>
       </c>
       <c r="J23" s="3">
         <v>3400</v>
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="E24" s="3">
         <v>8100</v>
@@ -1735,13 +1735,13 @@
         <v>6500</v>
       </c>
       <c r="G24" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="H24" s="3">
         <v>2400</v>
       </c>
       <c r="I24" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1862,22 +1862,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="E26" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="F26" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="G26" s="3">
-        <v>-82500</v>
+        <v>-81700</v>
       </c>
       <c r="H26" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I26" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="J26" s="3">
         <v>2800</v>
@@ -1930,22 +1930,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="E27" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="F27" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="G27" s="3">
-        <v>-82500</v>
+        <v>-81700</v>
       </c>
       <c r="H27" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I27" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="J27" s="3">
         <v>2800</v>
@@ -2273,10 +2273,10 @@
         <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F32" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G32" s="3">
         <v>6200</v>
@@ -2288,7 +2288,7 @@
         <v>2900</v>
       </c>
       <c r="J32" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K32" s="3">
         <v>27000</v>
@@ -2338,22 +2338,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="E33" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="F33" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="G33" s="3">
-        <v>-82500</v>
+        <v>-81700</v>
       </c>
       <c r="H33" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I33" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="J33" s="3">
         <v>2800</v>
@@ -2474,22 +2474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="E35" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="F35" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="G35" s="3">
-        <v>-82500</v>
+        <v>-81700</v>
       </c>
       <c r="H35" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I35" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="J35" s="3">
         <v>2800</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>343100</v>
+        <v>340000</v>
       </c>
       <c r="E41" s="3">
-        <v>323100</v>
+        <v>320200</v>
       </c>
       <c r="F41" s="3">
-        <v>348100</v>
+        <v>345000</v>
       </c>
       <c r="G41" s="3">
-        <v>364000</v>
+        <v>360700</v>
       </c>
       <c r="H41" s="3">
-        <v>417900</v>
+        <v>414200</v>
       </c>
       <c r="I41" s="3">
-        <v>432600</v>
+        <v>428700</v>
       </c>
       <c r="J41" s="3">
-        <v>470800</v>
+        <v>466600</v>
       </c>
       <c r="K41" s="3">
         <v>492400</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>151400</v>
+        <v>150000</v>
       </c>
       <c r="E43" s="3">
-        <v>190600</v>
+        <v>188900</v>
       </c>
       <c r="F43" s="3">
-        <v>156200</v>
+        <v>154800</v>
       </c>
       <c r="G43" s="3">
-        <v>148400</v>
+        <v>147000</v>
       </c>
       <c r="H43" s="3">
-        <v>248300</v>
+        <v>246000</v>
       </c>
       <c r="I43" s="3">
-        <v>234000</v>
+        <v>231800</v>
       </c>
       <c r="J43" s="3">
-        <v>238400</v>
+        <v>236200</v>
       </c>
       <c r="K43" s="3">
         <v>152800</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52800</v>
+        <v>52300</v>
       </c>
       <c r="E45" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="F45" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="G45" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="H45" s="3">
-        <v>145400</v>
+        <v>144100</v>
       </c>
       <c r="I45" s="3">
-        <v>167100</v>
+        <v>165600</v>
       </c>
       <c r="J45" s="3">
-        <v>128000</v>
+        <v>126800</v>
       </c>
       <c r="K45" s="3">
         <v>205300</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>519200</v>
+        <v>514500</v>
       </c>
       <c r="E47" s="3">
-        <v>463000</v>
+        <v>458800</v>
       </c>
       <c r="F47" s="3">
-        <v>413000</v>
+        <v>409300</v>
       </c>
       <c r="G47" s="3">
-        <v>349900</v>
+        <v>346800</v>
       </c>
       <c r="H47" s="3">
-        <v>323100</v>
+        <v>320200</v>
       </c>
       <c r="I47" s="3">
-        <v>320600</v>
+        <v>317700</v>
       </c>
       <c r="J47" s="3">
-        <v>395000</v>
+        <v>391500</v>
       </c>
       <c r="K47" s="3">
         <v>510400</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27400</v>
+        <v>27200</v>
       </c>
       <c r="E48" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="F48" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="G48" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="H48" s="3">
-        <v>47800</v>
+        <v>47400</v>
       </c>
       <c r="I48" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="J48" s="3">
-        <v>70700</v>
+        <v>70100</v>
       </c>
       <c r="K48" s="3">
         <v>81600</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14500</v>
+        <v>14300</v>
       </c>
       <c r="E52" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>30900</v>
+        <v>30700</v>
       </c>
       <c r="G52" s="3">
-        <v>37400</v>
+        <v>37100</v>
       </c>
       <c r="H52" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="I52" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="J52" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="K52" s="3">
         <v>17900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1113500</v>
+        <v>1103500</v>
       </c>
       <c r="E54" s="3">
-        <v>1061000</v>
+        <v>1051400</v>
       </c>
       <c r="F54" s="3">
-        <v>1023400</v>
+        <v>1014200</v>
       </c>
       <c r="G54" s="3">
-        <v>987600</v>
+        <v>978700</v>
       </c>
       <c r="H54" s="3">
-        <v>1233600</v>
+        <v>1222500</v>
       </c>
       <c r="I54" s="3">
-        <v>1256600</v>
+        <v>1245300</v>
       </c>
       <c r="J54" s="3">
-        <v>1337600</v>
+        <v>1325500</v>
       </c>
       <c r="K54" s="3">
         <v>1485000</v>
@@ -3674,13 +3674,13 @@
         <v>5400</v>
       </c>
       <c r="E57" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F57" s="3">
         <v>1900</v>
       </c>
       <c r="G57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>3600</v>
@@ -3689,7 +3689,7 @@
         <v>5900</v>
       </c>
       <c r="J57" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="K57" s="3">
         <v>6700</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>268800</v>
+        <v>266400</v>
       </c>
       <c r="E59" s="3">
-        <v>273800</v>
+        <v>271300</v>
       </c>
       <c r="F59" s="3">
-        <v>301700</v>
+        <v>298900</v>
       </c>
       <c r="G59" s="3">
-        <v>340900</v>
+        <v>337900</v>
       </c>
       <c r="H59" s="3">
-        <v>357000</v>
+        <v>353700</v>
       </c>
       <c r="I59" s="3">
-        <v>349300</v>
+        <v>346200</v>
       </c>
       <c r="J59" s="3">
-        <v>341500</v>
+        <v>338400</v>
       </c>
       <c r="K59" s="3">
         <v>420000</v>
@@ -3943,16 +3943,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>153000</v>
+        <v>151700</v>
       </c>
       <c r="E61" s="3">
-        <v>142700</v>
+        <v>141400</v>
       </c>
       <c r="F61" s="3">
-        <v>117800</v>
+        <v>116700</v>
       </c>
       <c r="G61" s="3">
-        <v>73800</v>
+        <v>73100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="E62" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="F62" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="G62" s="3">
         <v>5700</v>
       </c>
       <c r="H62" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="I62" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="J62" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="K62" s="3">
         <v>33700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>451700</v>
+        <v>447600</v>
       </c>
       <c r="E66" s="3">
-        <v>447600</v>
+        <v>443500</v>
       </c>
       <c r="F66" s="3">
-        <v>440200</v>
+        <v>436200</v>
       </c>
       <c r="G66" s="3">
-        <v>431000</v>
+        <v>427100</v>
       </c>
       <c r="H66" s="3">
-        <v>593900</v>
+        <v>588500</v>
       </c>
       <c r="I66" s="3">
-        <v>628900</v>
+        <v>623200</v>
       </c>
       <c r="J66" s="3">
-        <v>676700</v>
+        <v>670600</v>
       </c>
       <c r="K66" s="3">
         <v>793700</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85100</v>
+        <v>-84300</v>
       </c>
       <c r="E72" s="3">
-        <v>-129400</v>
+        <v>-128300</v>
       </c>
       <c r="F72" s="3">
-        <v>-158800</v>
+        <v>-157300</v>
       </c>
       <c r="G72" s="3">
-        <v>-185300</v>
+        <v>-183600</v>
       </c>
       <c r="H72" s="3">
-        <v>-102700</v>
+        <v>-101800</v>
       </c>
       <c r="I72" s="3">
-        <v>-114400</v>
+        <v>-113400</v>
       </c>
       <c r="J72" s="3">
-        <v>-79900</v>
+        <v>-79200</v>
       </c>
       <c r="K72" s="3">
         <v>-82100</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>661900</v>
+        <v>655900</v>
       </c>
       <c r="E76" s="3">
-        <v>613400</v>
+        <v>607900</v>
       </c>
       <c r="F76" s="3">
-        <v>583300</v>
+        <v>578000</v>
       </c>
       <c r="G76" s="3">
-        <v>556700</v>
+        <v>551700</v>
       </c>
       <c r="H76" s="3">
-        <v>639700</v>
+        <v>633900</v>
       </c>
       <c r="I76" s="3">
-        <v>627800</v>
+        <v>622100</v>
       </c>
       <c r="J76" s="3">
-        <v>660900</v>
+        <v>654900</v>
       </c>
       <c r="K76" s="3">
         <v>691400</v>
@@ -5130,22 +5130,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="E81" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="F81" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="G81" s="3">
-        <v>-82500</v>
+        <v>-81700</v>
       </c>
       <c r="H81" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I81" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="J81" s="3">
         <v>2800</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47700</v>
+        <v>47300</v>
       </c>
       <c r="E89" s="3">
-        <v>-31400</v>
+        <v>-31100</v>
       </c>
       <c r="F89" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="G89" s="3">
-        <v>-32300</v>
+        <v>-32000</v>
       </c>
       <c r="H89" s="3">
         <v>4400</v>
       </c>
       <c r="I89" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="J89" s="3">
-        <v>82200</v>
+        <v>81400</v>
       </c>
       <c r="K89" s="3">
         <v>13600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34500</v>
+        <v>-34100</v>
       </c>
       <c r="E94" s="3">
-        <v>-30700</v>
+        <v>-30500</v>
       </c>
       <c r="F94" s="3">
-        <v>-42200</v>
+        <v>-41800</v>
       </c>
       <c r="G94" s="3">
-        <v>-144600</v>
+        <v>-143300</v>
       </c>
       <c r="H94" s="3">
-        <v>-18600</v>
+        <v>-18500</v>
       </c>
       <c r="I94" s="3">
-        <v>-24300</v>
+        <v>-24000</v>
       </c>
       <c r="J94" s="3">
-        <v>-77300</v>
+        <v>-76600</v>
       </c>
       <c r="K94" s="3">
         <v>314600</v>
@@ -6299,22 +6299,22 @@
         <v>7300</v>
       </c>
       <c r="E100" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="F100" s="3">
-        <v>41200</v>
+        <v>40800</v>
       </c>
       <c r="G100" s="3">
-        <v>132500</v>
+        <v>131400</v>
       </c>
       <c r="H100" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="I100" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J100" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="K100" s="3">
         <v>-242800</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="E102" s="3">
-        <v>-40900</v>
+        <v>-40600</v>
       </c>
       <c r="F102" s="3">
-        <v>-21900</v>
+        <v>-21700</v>
       </c>
       <c r="G102" s="3">
-        <v>-44400</v>
+        <v>-44000</v>
       </c>
       <c r="H102" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="I102" s="3">
-        <v>-31200</v>
+        <v>-30900</v>
       </c>
       <c r="J102" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="K102" s="3">
         <v>85100</v>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>179900</v>
+        <v>142100</v>
       </c>
       <c r="E8" s="3">
-        <v>164300</v>
+        <v>171500</v>
       </c>
       <c r="F8" s="3">
-        <v>160600</v>
+        <v>156600</v>
       </c>
       <c r="G8" s="3">
-        <v>169500</v>
+        <v>153100</v>
       </c>
       <c r="H8" s="3">
-        <v>149400</v>
+        <v>161600</v>
       </c>
       <c r="I8" s="3">
-        <v>110200</v>
+        <v>142400</v>
       </c>
       <c r="J8" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K8" s="3">
         <v>149500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>388500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>316600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>345800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>302600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>431100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>317700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>418100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>540200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>270800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>224700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>175600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>148600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>155800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27300</v>
+        <v>30200</v>
       </c>
       <c r="E9" s="3">
-        <v>26700</v>
+        <v>26000</v>
       </c>
       <c r="F9" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="G9" s="3">
-        <v>87200</v>
+        <v>24300</v>
       </c>
       <c r="H9" s="3">
-        <v>35000</v>
+        <v>83100</v>
       </c>
       <c r="I9" s="3">
-        <v>24100</v>
+        <v>33400</v>
       </c>
       <c r="J9" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K9" s="3">
         <v>15000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>26300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>33000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>17700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>152600</v>
+        <v>111900</v>
       </c>
       <c r="E10" s="3">
-        <v>137600</v>
+        <v>145500</v>
       </c>
       <c r="F10" s="3">
-        <v>135100</v>
+        <v>131200</v>
       </c>
       <c r="G10" s="3">
-        <v>82400</v>
+        <v>128800</v>
       </c>
       <c r="H10" s="3">
-        <v>114400</v>
+        <v>78500</v>
       </c>
       <c r="I10" s="3">
-        <v>86100</v>
+        <v>109000</v>
       </c>
       <c r="J10" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K10" s="3">
         <v>134500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>361700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>292600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>320400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>276300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>398100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>279600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>375100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>502200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>249000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>207000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>161800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>140000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>147500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,11 +1160,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>95800</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>91300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>119300</v>
+        <v>96300</v>
       </c>
       <c r="E17" s="3">
-        <v>122800</v>
+        <v>113700</v>
       </c>
       <c r="F17" s="3">
-        <v>122800</v>
+        <v>117000</v>
       </c>
       <c r="G17" s="3">
-        <v>252900</v>
+        <v>117000</v>
       </c>
       <c r="H17" s="3">
-        <v>132800</v>
+        <v>241100</v>
       </c>
       <c r="I17" s="3">
-        <v>148200</v>
+        <v>126600</v>
       </c>
       <c r="J17" s="3">
+        <v>141300</v>
+      </c>
+      <c r="K17" s="3">
         <v>147800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>286800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>281700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>319500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>267200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>295500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>341600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>406400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>455900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>191700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>168600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>120200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>91400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>98100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>60600</v>
+        <v>45800</v>
       </c>
       <c r="E18" s="3">
-        <v>41500</v>
+        <v>57800</v>
       </c>
       <c r="F18" s="3">
-        <v>37900</v>
+        <v>39600</v>
       </c>
       <c r="G18" s="3">
-        <v>-83400</v>
+        <v>36100</v>
       </c>
       <c r="H18" s="3">
-        <v>16600</v>
+        <v>-79500</v>
       </c>
       <c r="I18" s="3">
-        <v>-38000</v>
+        <v>15800</v>
       </c>
       <c r="J18" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>101700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>135600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>84200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>79100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>56100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>55400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>57100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>57700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>57400</v>
+        <v>45200</v>
       </c>
       <c r="E21" s="3">
-        <v>36900</v>
+        <v>54700</v>
       </c>
       <c r="F21" s="3">
-        <v>35200</v>
+        <v>35100</v>
       </c>
       <c r="G21" s="3">
-        <v>-90500</v>
+        <v>33500</v>
       </c>
       <c r="H21" s="3">
-        <v>13900</v>
+        <v>-86200</v>
       </c>
       <c r="I21" s="3">
-        <v>-41300</v>
+        <v>13300</v>
       </c>
       <c r="J21" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K21" s="3">
         <v>7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>76700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>164200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>94400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>81200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>58000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>59400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>61500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>59800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58000</v>
+        <v>45300</v>
       </c>
       <c r="E23" s="3">
-        <v>37300</v>
+        <v>55200</v>
       </c>
       <c r="F23" s="3">
-        <v>32900</v>
+        <v>35500</v>
       </c>
       <c r="G23" s="3">
-        <v>-89500</v>
+        <v>31400</v>
       </c>
       <c r="H23" s="3">
-        <v>14000</v>
+        <v>-85300</v>
       </c>
       <c r="I23" s="3">
-        <v>-40900</v>
+        <v>13400</v>
       </c>
       <c r="J23" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>147900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>88900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>81100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>57700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>59300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>60900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11100</v>
+        <v>-700</v>
       </c>
       <c r="E24" s="3">
-        <v>8100</v>
+        <v>10600</v>
       </c>
       <c r="F24" s="3">
-        <v>6500</v>
+        <v>7700</v>
       </c>
       <c r="G24" s="3">
-        <v>-7800</v>
+        <v>6200</v>
       </c>
       <c r="H24" s="3">
-        <v>2400</v>
+        <v>-7400</v>
       </c>
       <c r="I24" s="3">
-        <v>-6900</v>
+        <v>2300</v>
       </c>
       <c r="J24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>46900</v>
+        <v>46000</v>
       </c>
       <c r="E26" s="3">
-        <v>29200</v>
+        <v>44700</v>
       </c>
       <c r="F26" s="3">
-        <v>26500</v>
+        <v>27900</v>
       </c>
       <c r="G26" s="3">
-        <v>-81700</v>
+        <v>25200</v>
       </c>
       <c r="H26" s="3">
-        <v>11700</v>
+        <v>-77900</v>
       </c>
       <c r="I26" s="3">
-        <v>-33900</v>
+        <v>11100</v>
       </c>
       <c r="J26" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>66600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>55200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>46900</v>
+        <v>46000</v>
       </c>
       <c r="E27" s="3">
-        <v>29200</v>
+        <v>44700</v>
       </c>
       <c r="F27" s="3">
-        <v>26500</v>
+        <v>27900</v>
       </c>
       <c r="G27" s="3">
-        <v>-81700</v>
+        <v>25200</v>
       </c>
       <c r="H27" s="3">
-        <v>11700</v>
+        <v>-77900</v>
       </c>
       <c r="I27" s="3">
-        <v>-33900</v>
+        <v>11100</v>
       </c>
       <c r="J27" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>143200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>66600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>55200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>46900</v>
+        <v>46000</v>
       </c>
       <c r="E33" s="3">
-        <v>29200</v>
+        <v>44700</v>
       </c>
       <c r="F33" s="3">
-        <v>26500</v>
+        <v>27900</v>
       </c>
       <c r="G33" s="3">
-        <v>-81700</v>
+        <v>25200</v>
       </c>
       <c r="H33" s="3">
-        <v>11700</v>
+        <v>-77900</v>
       </c>
       <c r="I33" s="3">
-        <v>-33900</v>
+        <v>11100</v>
       </c>
       <c r="J33" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>143200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>66600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>55200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>46900</v>
+        <v>46000</v>
       </c>
       <c r="E35" s="3">
-        <v>29200</v>
+        <v>44700</v>
       </c>
       <c r="F35" s="3">
-        <v>26500</v>
+        <v>27900</v>
       </c>
       <c r="G35" s="3">
-        <v>-81700</v>
+        <v>25200</v>
       </c>
       <c r="H35" s="3">
-        <v>11700</v>
+        <v>-77900</v>
       </c>
       <c r="I35" s="3">
-        <v>-33900</v>
+        <v>11100</v>
       </c>
       <c r="J35" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>143200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>66600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>55200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>340000</v>
+        <v>398700</v>
       </c>
       <c r="E41" s="3">
-        <v>320200</v>
+        <v>324100</v>
       </c>
       <c r="F41" s="3">
-        <v>345000</v>
+        <v>305200</v>
       </c>
       <c r="G41" s="3">
-        <v>360700</v>
+        <v>328800</v>
       </c>
       <c r="H41" s="3">
-        <v>414200</v>
+        <v>343800</v>
       </c>
       <c r="I41" s="3">
-        <v>428700</v>
+        <v>394800</v>
       </c>
       <c r="J41" s="3">
+        <v>408600</v>
+      </c>
+      <c r="K41" s="3">
         <v>466600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>492400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>405400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>422200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>384900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>378600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>117200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>79400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>239200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>275600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>208300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>132300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>125700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>140800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2886,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>150000</v>
+        <v>164900</v>
       </c>
       <c r="E43" s="3">
-        <v>188900</v>
+        <v>143000</v>
       </c>
       <c r="F43" s="3">
-        <v>154800</v>
+        <v>180000</v>
       </c>
       <c r="G43" s="3">
-        <v>147000</v>
+        <v>147600</v>
       </c>
       <c r="H43" s="3">
-        <v>246000</v>
+        <v>140100</v>
       </c>
       <c r="I43" s="3">
-        <v>231800</v>
+        <v>234500</v>
       </c>
       <c r="J43" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K43" s="3">
         <v>236200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>152800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>268800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>283700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>52100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>203600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3300</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4400</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,76 +3028,82 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52300</v>
+        <v>49000</v>
       </c>
       <c r="E45" s="3">
-        <v>31200</v>
+        <v>49800</v>
       </c>
       <c r="F45" s="3">
-        <v>31400</v>
+        <v>29800</v>
       </c>
       <c r="G45" s="3">
-        <v>40700</v>
+        <v>29900</v>
       </c>
       <c r="H45" s="3">
-        <v>144100</v>
+        <v>38800</v>
       </c>
       <c r="I45" s="3">
-        <v>165600</v>
+        <v>137400</v>
       </c>
       <c r="J45" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K45" s="3">
         <v>126800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>205300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>178300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>186600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>370700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>171500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>171900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>170900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>158600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>168700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>91700</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>67900</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,144 +3170,153 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>514500</v>
+        <v>425600</v>
       </c>
       <c r="E47" s="3">
-        <v>458800</v>
+        <v>490500</v>
       </c>
       <c r="F47" s="3">
-        <v>409300</v>
+        <v>437300</v>
       </c>
       <c r="G47" s="3">
-        <v>346800</v>
+        <v>390200</v>
       </c>
       <c r="H47" s="3">
-        <v>320200</v>
+        <v>330500</v>
       </c>
       <c r="I47" s="3">
-        <v>317700</v>
+        <v>305200</v>
       </c>
       <c r="J47" s="3">
+        <v>302800</v>
+      </c>
+      <c r="K47" s="3">
         <v>391500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>510400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>578100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>655400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>909100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>968300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>688300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>707400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>617000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>261900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>255800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>314900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>297700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>236800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27200</v>
+        <v>25500</v>
       </c>
       <c r="E48" s="3">
-        <v>31700</v>
+        <v>25900</v>
       </c>
       <c r="F48" s="3">
-        <v>34000</v>
+        <v>30200</v>
       </c>
       <c r="G48" s="3">
-        <v>36900</v>
+        <v>32400</v>
       </c>
       <c r="H48" s="3">
-        <v>47400</v>
+        <v>35200</v>
       </c>
       <c r="I48" s="3">
-        <v>59700</v>
+        <v>45200</v>
       </c>
       <c r="J48" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K48" s="3">
         <v>70100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>92000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>96100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8900</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5200</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="F52" s="3">
-        <v>30700</v>
+        <v>13500</v>
       </c>
       <c r="G52" s="3">
-        <v>37100</v>
+        <v>29200</v>
       </c>
       <c r="H52" s="3">
-        <v>32500</v>
+        <v>35400</v>
       </c>
       <c r="I52" s="3">
-        <v>20400</v>
+        <v>30900</v>
       </c>
       <c r="J52" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K52" s="3">
         <v>12400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>88800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>50000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>152900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>290800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>386900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>361500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>337900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>205100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>240600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1103500</v>
+        <v>1077300</v>
       </c>
       <c r="E54" s="3">
-        <v>1051400</v>
+        <v>1051900</v>
       </c>
       <c r="F54" s="3">
-        <v>1014200</v>
+        <v>1002300</v>
       </c>
       <c r="G54" s="3">
-        <v>978700</v>
+        <v>966800</v>
       </c>
       <c r="H54" s="3">
-        <v>1222500</v>
+        <v>933000</v>
       </c>
       <c r="I54" s="3">
-        <v>1245300</v>
+        <v>1165300</v>
       </c>
       <c r="J54" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1325500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1485000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1599600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1701200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1689500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2069800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1059600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1142900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1349900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1115800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1036300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>888900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>782000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>695600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
-        <v>9400</v>
+        <v>5100</v>
       </c>
       <c r="F57" s="3">
-        <v>1900</v>
+        <v>9000</v>
       </c>
       <c r="G57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
-        <v>3600</v>
-      </c>
       <c r="I57" s="3">
-        <v>5900</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>5100</v>
       </c>
       <c r="R57" s="3">
         <v>5100</v>
       </c>
       <c r="S57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T57" s="3">
         <v>5000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2000</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,76 +3934,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>266400</v>
+        <v>242200</v>
       </c>
       <c r="E59" s="3">
-        <v>271300</v>
+        <v>253900</v>
       </c>
       <c r="F59" s="3">
-        <v>298900</v>
+        <v>258600</v>
       </c>
       <c r="G59" s="3">
-        <v>337900</v>
+        <v>285000</v>
       </c>
       <c r="H59" s="3">
-        <v>353700</v>
+        <v>322100</v>
       </c>
       <c r="I59" s="3">
-        <v>346200</v>
+        <v>337200</v>
       </c>
       <c r="J59" s="3">
+        <v>330000</v>
+      </c>
+      <c r="K59" s="3">
         <v>338400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>420000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>456400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>433100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>431000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1611500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>224200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>361500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>189000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>220600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>277900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>152400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>55300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>205500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,25 +4076,28 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>151700</v>
+        <v>143200</v>
       </c>
       <c r="E61" s="3">
-        <v>141400</v>
+        <v>144600</v>
       </c>
       <c r="F61" s="3">
-        <v>116700</v>
+        <v>134800</v>
       </c>
       <c r="G61" s="3">
-        <v>73100</v>
+        <v>111200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>69700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4005,67 +4147,70 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21600</v>
+        <v>15700</v>
       </c>
       <c r="E62" s="3">
-        <v>17300</v>
+        <v>20500</v>
       </c>
       <c r="F62" s="3">
-        <v>11100</v>
+        <v>16500</v>
       </c>
       <c r="G62" s="3">
-        <v>5700</v>
+        <v>10600</v>
       </c>
       <c r="H62" s="3">
-        <v>22000</v>
+        <v>5400</v>
       </c>
       <c r="I62" s="3">
-        <v>23700</v>
+        <v>20900</v>
       </c>
       <c r="J62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K62" s="3">
         <v>31600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>51400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>81500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>92100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>90000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8900</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>447600</v>
+        <v>406200</v>
       </c>
       <c r="E66" s="3">
-        <v>443500</v>
+        <v>426600</v>
       </c>
       <c r="F66" s="3">
-        <v>436200</v>
+        <v>422800</v>
       </c>
       <c r="G66" s="3">
-        <v>427100</v>
+        <v>415800</v>
       </c>
       <c r="H66" s="3">
-        <v>588500</v>
+        <v>407100</v>
       </c>
       <c r="I66" s="3">
-        <v>623200</v>
+        <v>561000</v>
       </c>
       <c r="J66" s="3">
+        <v>594000</v>
+      </c>
+      <c r="K66" s="3">
         <v>670600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>793700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1149400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1282900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1302400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2122600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>366300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>501700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>726100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>675100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>665900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>480400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>420000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>384400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-84300</v>
+        <v>-34500</v>
       </c>
       <c r="E72" s="3">
-        <v>-128300</v>
+        <v>-80400</v>
       </c>
       <c r="F72" s="3">
-        <v>-157300</v>
+        <v>-122300</v>
       </c>
       <c r="G72" s="3">
-        <v>-183600</v>
+        <v>-150000</v>
       </c>
       <c r="H72" s="3">
-        <v>-101800</v>
+        <v>-175100</v>
       </c>
       <c r="I72" s="3">
-        <v>-113400</v>
+        <v>-97000</v>
       </c>
       <c r="J72" s="3">
+        <v>-108100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-79200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-144200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-181100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>310400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>506800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>475500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>459100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>272300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>207200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>264700</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>171200</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>655900</v>
+        <v>671100</v>
       </c>
       <c r="E76" s="3">
-        <v>607900</v>
+        <v>625200</v>
       </c>
       <c r="F76" s="3">
-        <v>578000</v>
+        <v>579500</v>
       </c>
       <c r="G76" s="3">
-        <v>551700</v>
+        <v>551000</v>
       </c>
       <c r="H76" s="3">
-        <v>633900</v>
+        <v>525900</v>
       </c>
       <c r="I76" s="3">
-        <v>622100</v>
+        <v>604300</v>
       </c>
       <c r="J76" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K76" s="3">
         <v>654900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>691400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>450200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>418300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>387000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-52800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>693400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>641200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>623800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>440800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>370400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>408500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>361900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>311200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>46900</v>
+        <v>46000</v>
       </c>
       <c r="E81" s="3">
-        <v>29200</v>
+        <v>44700</v>
       </c>
       <c r="F81" s="3">
-        <v>26500</v>
+        <v>27900</v>
       </c>
       <c r="G81" s="3">
-        <v>-81700</v>
+        <v>25200</v>
       </c>
       <c r="H81" s="3">
-        <v>11700</v>
+        <v>-77900</v>
       </c>
       <c r="I81" s="3">
-        <v>-33900</v>
+        <v>11100</v>
       </c>
       <c r="J81" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>143200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>66600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>55200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47300</v>
+        <v>26400</v>
       </c>
       <c r="E89" s="3">
-        <v>-31100</v>
+        <v>45100</v>
       </c>
       <c r="F89" s="3">
-        <v>-20700</v>
+        <v>-29600</v>
       </c>
       <c r="G89" s="3">
-        <v>-32000</v>
+        <v>-19800</v>
       </c>
       <c r="H89" s="3">
-        <v>4400</v>
+        <v>-30500</v>
       </c>
       <c r="I89" s="3">
-        <v>-12700</v>
+        <v>4200</v>
       </c>
       <c r="J89" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K89" s="3">
         <v>81400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>181100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-51800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>149000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-191800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-48500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>189300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>51400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>78700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>82100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>121600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34100</v>
+        <v>53200</v>
       </c>
       <c r="E94" s="3">
-        <v>-30500</v>
+        <v>-32500</v>
       </c>
       <c r="F94" s="3">
-        <v>-41800</v>
+        <v>-29000</v>
       </c>
       <c r="G94" s="3">
-        <v>-143300</v>
+        <v>-39800</v>
       </c>
       <c r="H94" s="3">
-        <v>-18500</v>
+        <v>-136600</v>
       </c>
       <c r="I94" s="3">
-        <v>-24000</v>
+        <v>-17600</v>
       </c>
       <c r="J94" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-76600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>314600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-199000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>91300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>127200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>322400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>65700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>50800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-62200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-117500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7300</v>
+        <v>-6400</v>
       </c>
       <c r="E100" s="3">
-        <v>21000</v>
+        <v>6900</v>
       </c>
       <c r="F100" s="3">
-        <v>40800</v>
+        <v>20100</v>
       </c>
       <c r="G100" s="3">
-        <v>131400</v>
+        <v>38900</v>
       </c>
       <c r="H100" s="3">
-        <v>11900</v>
+        <v>125200</v>
       </c>
       <c r="I100" s="3">
-        <v>5800</v>
+        <v>11400</v>
       </c>
       <c r="J100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-242800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>75400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>33900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-86300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6373,125 +6621,131 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20400</v>
+        <v>73100</v>
       </c>
       <c r="E102" s="3">
-        <v>-40600</v>
+        <v>19400</v>
       </c>
       <c r="F102" s="3">
-        <v>-21700</v>
+        <v>-38700</v>
       </c>
       <c r="G102" s="3">
-        <v>-44000</v>
+        <v>-20700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2600</v>
+        <v>-41900</v>
       </c>
       <c r="I102" s="3">
-        <v>-30900</v>
+        <v>-2500</v>
       </c>
       <c r="J102" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>85100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-63600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>149000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-231900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-111400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>75600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>49500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>142100</v>
+        <v>120700</v>
       </c>
       <c r="E8" s="3">
-        <v>171500</v>
+        <v>216300</v>
       </c>
       <c r="F8" s="3">
-        <v>156600</v>
+        <v>146600</v>
       </c>
       <c r="G8" s="3">
-        <v>153100</v>
+        <v>176900</v>
       </c>
       <c r="H8" s="3">
         <v>161600</v>
       </c>
       <c r="I8" s="3">
+        <v>158000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>166700</v>
+      </c>
+      <c r="K8" s="3">
         <v>142400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>105100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>149500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>388500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>316600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>345800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>302600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>431100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>317700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>418100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>540200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>270800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>224700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>175600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>148600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>155800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30200</v>
+        <v>32100</v>
       </c>
       <c r="E9" s="3">
-        <v>26000</v>
+        <v>49100</v>
       </c>
       <c r="F9" s="3">
+        <v>31100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>33400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>26800</v>
+      </c>
+      <c r="O9" s="3">
+        <v>24000</v>
+      </c>
+      <c r="P9" s="3">
         <v>25400</v>
       </c>
-      <c r="G9" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>83100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>33400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>23000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>26800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>24000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>25400</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>26300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>33000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>38100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>43000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>38000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>21800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>17700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>13800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>8200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>111900</v>
+        <v>88600</v>
       </c>
       <c r="E10" s="3">
-        <v>145500</v>
+        <v>167200</v>
       </c>
       <c r="F10" s="3">
-        <v>131200</v>
+        <v>115500</v>
       </c>
       <c r="G10" s="3">
-        <v>128800</v>
+        <v>150100</v>
       </c>
       <c r="H10" s="3">
-        <v>78500</v>
+        <v>135300</v>
       </c>
       <c r="I10" s="3">
+        <v>132900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K10" s="3">
         <v>109000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>82100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>134500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>361700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>292600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>320400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>276300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>398100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>279600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>375100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>502200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>249000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>207000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>161800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>140000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>147500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,31 +1180,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>91300</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>94200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1184,11 +1224,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96300</v>
+        <v>72500</v>
       </c>
       <c r="E17" s="3">
-        <v>113700</v>
+        <v>143900</v>
       </c>
       <c r="F17" s="3">
-        <v>117000</v>
+        <v>99400</v>
       </c>
       <c r="G17" s="3">
-        <v>117000</v>
+        <v>117300</v>
       </c>
       <c r="H17" s="3">
-        <v>241100</v>
+        <v>120700</v>
       </c>
       <c r="I17" s="3">
+        <v>120800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>248700</v>
+      </c>
+      <c r="K17" s="3">
         <v>126600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>141300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>147800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>286800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>281700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>319500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>267200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>295500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>341600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>406400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>455900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>191700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>168600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>120200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>91400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>98100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45800</v>
+        <v>48200</v>
       </c>
       <c r="E18" s="3">
-        <v>57800</v>
+        <v>72400</v>
       </c>
       <c r="F18" s="3">
-        <v>39600</v>
+        <v>47200</v>
       </c>
       <c r="G18" s="3">
-        <v>36100</v>
+        <v>59600</v>
       </c>
       <c r="H18" s="3">
-        <v>-79500</v>
+        <v>40800</v>
       </c>
       <c r="I18" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="K18" s="3">
         <v>15800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-36200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>101700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>34900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>26300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>35400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>135600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-23900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>84200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>79100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>56100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>55400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>57100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>57700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-4700</v>
+        <v>-2600</v>
       </c>
       <c r="H20" s="3">
-        <v>-5900</v>
+        <v>-4200</v>
       </c>
       <c r="I20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>32700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>12300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>9300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>21400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>3700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45200</v>
+        <v>47900</v>
       </c>
       <c r="E21" s="3">
-        <v>54700</v>
+        <v>75500</v>
       </c>
       <c r="F21" s="3">
-        <v>35100</v>
+        <v>46600</v>
       </c>
       <c r="G21" s="3">
+        <v>56500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>13300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>76700</v>
+      </c>
+      <c r="O21" s="3">
+        <v>38300</v>
+      </c>
+      <c r="P21" s="3">
         <v>33500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-86200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-39300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>76700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>38300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>33500</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>73100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>164200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-14800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>33000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>94400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>81200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>58000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>59400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>61500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>59800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45300</v>
+        <v>48900</v>
       </c>
       <c r="E23" s="3">
-        <v>55200</v>
+        <v>73300</v>
       </c>
       <c r="F23" s="3">
-        <v>35500</v>
+        <v>46700</v>
       </c>
       <c r="G23" s="3">
-        <v>31400</v>
+        <v>57000</v>
       </c>
       <c r="H23" s="3">
-        <v>-85300</v>
+        <v>36700</v>
       </c>
       <c r="I23" s="3">
+        <v>32400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K23" s="3">
         <v>13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-38900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>74700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>38200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>33700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>68100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>147900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-14600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>33100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>88900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>81100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>57700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>59300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>60900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>59700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-700</v>
+        <v>10100</v>
       </c>
       <c r="E24" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="F24" s="3">
-        <v>7700</v>
+        <v>-800</v>
       </c>
       <c r="G24" s="3">
-        <v>6200</v>
+        <v>10900</v>
       </c>
       <c r="H24" s="3">
-        <v>-7400</v>
+        <v>7900</v>
       </c>
       <c r="I24" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>14500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>12700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>19300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>9900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>4500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>46000</v>
+        <v>38800</v>
       </c>
       <c r="E26" s="3">
-        <v>44700</v>
+        <v>63100</v>
       </c>
       <c r="F26" s="3">
-        <v>27900</v>
+        <v>47500</v>
       </c>
       <c r="G26" s="3">
-        <v>25200</v>
+        <v>46100</v>
       </c>
       <c r="H26" s="3">
-        <v>-77900</v>
+        <v>28700</v>
       </c>
       <c r="I26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K26" s="3">
         <v>11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-32300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>62200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>35100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>24100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>56400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>143200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-19700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>27100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>76900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>66600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>45000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>39900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>51000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>55200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>46000</v>
+        <v>38800</v>
       </c>
       <c r="E27" s="3">
-        <v>44700</v>
+        <v>63100</v>
       </c>
       <c r="F27" s="3">
-        <v>27900</v>
+        <v>47500</v>
       </c>
       <c r="G27" s="3">
-        <v>25200</v>
+        <v>46100</v>
       </c>
       <c r="H27" s="3">
-        <v>-77900</v>
+        <v>28700</v>
       </c>
       <c r="I27" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K27" s="3">
         <v>11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-32300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>62200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>35100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>24100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>56400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>143200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-19700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>27100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>76900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>66600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>45000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>39900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>51000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>55200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4000</v>
-      </c>
       <c r="G32" s="3">
-        <v>4700</v>
+        <v>2600</v>
       </c>
       <c r="H32" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="I32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-32700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-9300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-21400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-3700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>46000</v>
+        <v>38800</v>
       </c>
       <c r="E33" s="3">
-        <v>44700</v>
+        <v>63100</v>
       </c>
       <c r="F33" s="3">
-        <v>27900</v>
+        <v>47500</v>
       </c>
       <c r="G33" s="3">
-        <v>25200</v>
+        <v>46100</v>
       </c>
       <c r="H33" s="3">
-        <v>-77900</v>
+        <v>28700</v>
       </c>
       <c r="I33" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K33" s="3">
         <v>11100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-32300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>62200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>35100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>24100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>56400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>143200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-19700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>27100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>76900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>66600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>45000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>39900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>51000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>55200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>46000</v>
+        <v>38800</v>
       </c>
       <c r="E35" s="3">
-        <v>44700</v>
+        <v>63100</v>
       </c>
       <c r="F35" s="3">
-        <v>27900</v>
+        <v>47500</v>
       </c>
       <c r="G35" s="3">
-        <v>25200</v>
+        <v>46100</v>
       </c>
       <c r="H35" s="3">
-        <v>-77900</v>
+        <v>28700</v>
       </c>
       <c r="I35" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K35" s="3">
         <v>11100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-32300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>62200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>35100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>24100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>56400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>143200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-19700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>27100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>76900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>66600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>45000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>39900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>51000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>55200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>398700</v>
+        <v>518900</v>
       </c>
       <c r="E41" s="3">
-        <v>324100</v>
+        <v>625400</v>
       </c>
       <c r="F41" s="3">
-        <v>305200</v>
+        <v>411400</v>
       </c>
       <c r="G41" s="3">
-        <v>328800</v>
+        <v>334400</v>
       </c>
       <c r="H41" s="3">
-        <v>343800</v>
+        <v>314900</v>
       </c>
       <c r="I41" s="3">
+        <v>339300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>354700</v>
+      </c>
+      <c r="K41" s="3">
         <v>394800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>408600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>466600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>492400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>405400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>422200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>384900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>378600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>117200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>79400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>239200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>275600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>208300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>132300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>125700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>140800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,79 +3069,91 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164900</v>
+        <v>201000</v>
       </c>
       <c r="E43" s="3">
-        <v>143000</v>
+        <v>177200</v>
       </c>
       <c r="F43" s="3">
-        <v>180000</v>
+        <v>170100</v>
       </c>
       <c r="G43" s="3">
         <v>147600</v>
       </c>
       <c r="H43" s="3">
-        <v>140100</v>
+        <v>185700</v>
       </c>
       <c r="I43" s="3">
+        <v>152200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K43" s="3">
         <v>234500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>221000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>236200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>152800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>268800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>283700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>52100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>203600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>18700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>17700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>20100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>20600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>29800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3300</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X43" s="3">
-        <v>4400</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,79 +3223,91 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49000</v>
+        <v>51900</v>
       </c>
       <c r="E45" s="3">
-        <v>49800</v>
+        <v>38300</v>
       </c>
       <c r="F45" s="3">
-        <v>29800</v>
+        <v>50600</v>
       </c>
       <c r="G45" s="3">
-        <v>29900</v>
+        <v>51400</v>
       </c>
       <c r="H45" s="3">
-        <v>38800</v>
+        <v>30700</v>
       </c>
       <c r="I45" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K45" s="3">
         <v>137400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>157900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>126800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>205300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>197200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>178300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>186600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>370700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>171500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>171900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>170900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>158600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>168700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>91700</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3">
-        <v>67900</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>67900</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,150 +3377,168 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>425600</v>
+        <v>335900</v>
       </c>
       <c r="E47" s="3">
-        <v>490500</v>
+        <v>266100</v>
       </c>
       <c r="F47" s="3">
-        <v>437300</v>
+        <v>439100</v>
       </c>
       <c r="G47" s="3">
-        <v>390200</v>
+        <v>506100</v>
       </c>
       <c r="H47" s="3">
-        <v>330500</v>
+        <v>451200</v>
       </c>
       <c r="I47" s="3">
+        <v>402600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>341000</v>
+      </c>
+      <c r="K47" s="3">
         <v>305200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>302800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>391500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>510400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>578100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>655400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>909100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>968300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>688300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>707400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>617000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>261900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>255800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>314900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>297700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>236800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25500</v>
+        <v>17400</v>
       </c>
       <c r="E48" s="3">
-        <v>25900</v>
+        <v>20200</v>
       </c>
       <c r="F48" s="3">
-        <v>30200</v>
+        <v>26300</v>
       </c>
       <c r="G48" s="3">
-        <v>32400</v>
+        <v>26700</v>
       </c>
       <c r="H48" s="3">
-        <v>35200</v>
+        <v>31200</v>
       </c>
       <c r="I48" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K48" s="3">
         <v>45200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>56900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>70100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>81600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>92000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>98000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>96100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>38600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>14000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>13500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>11900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>12100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>8900</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3">
-        <v>5200</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>21700</v>
       </c>
       <c r="E52" s="3">
-        <v>13700</v>
+        <v>21300</v>
       </c>
       <c r="F52" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="G52" s="3">
-        <v>29200</v>
+        <v>14100</v>
       </c>
       <c r="H52" s="3">
-        <v>35400</v>
+        <v>13900</v>
       </c>
       <c r="I52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K52" s="3">
         <v>30900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>19500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>12400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>17900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>36100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>41400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>38800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>88800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>50000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>152900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>290800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>386900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>361500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>337900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>205100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>240600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1077300</v>
+        <v>1147000</v>
       </c>
       <c r="E54" s="3">
-        <v>1051900</v>
+        <v>1148900</v>
       </c>
       <c r="F54" s="3">
-        <v>1002300</v>
+        <v>1111500</v>
       </c>
       <c r="G54" s="3">
-        <v>966800</v>
+        <v>1085300</v>
       </c>
       <c r="H54" s="3">
-        <v>933000</v>
+        <v>1034100</v>
       </c>
       <c r="I54" s="3">
+        <v>997500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>962600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1165300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1187000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1325500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1485000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1599600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1701200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1689500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2069800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1059600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1142900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1349900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1115800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1036300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>888900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>782000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>695600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +4055,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>44600</v>
+      </c>
+      <c r="S57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="U57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>6700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>8400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>8200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>44600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>4800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>5000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>3400</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2200</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X57" s="3">
-        <v>2000</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,79 +4205,91 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>242200</v>
+        <v>224000</v>
       </c>
       <c r="E59" s="3">
-        <v>253900</v>
+        <v>251800</v>
       </c>
       <c r="F59" s="3">
-        <v>258600</v>
+        <v>249900</v>
       </c>
       <c r="G59" s="3">
-        <v>285000</v>
+        <v>262000</v>
       </c>
       <c r="H59" s="3">
-        <v>322100</v>
+        <v>266900</v>
       </c>
       <c r="I59" s="3">
+        <v>294000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>332300</v>
+      </c>
+      <c r="K59" s="3">
         <v>337200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>330000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>338400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>420000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>456400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>433100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>431000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1611500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>224200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>361500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>189000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>220600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>277900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>152400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>55300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>205500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,31 +4359,37 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>143200</v>
+        <v>110300</v>
       </c>
       <c r="E61" s="3">
-        <v>144600</v>
+        <v>124800</v>
       </c>
       <c r="F61" s="3">
-        <v>134800</v>
+        <v>147700</v>
       </c>
       <c r="G61" s="3">
-        <v>111200</v>
+        <v>149200</v>
       </c>
       <c r="H61" s="3">
-        <v>69700</v>
+        <v>139100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>114800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>71900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4150,79 +4436,91 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15700</v>
+        <v>11300</v>
       </c>
       <c r="E62" s="3">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="F62" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="G62" s="3">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="H62" s="3">
-        <v>5400</v>
+        <v>17000</v>
       </c>
       <c r="I62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K62" s="3">
         <v>20900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>22600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>31600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>33700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>41200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>51400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>63800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>70700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>81500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>92100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>90000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>8900</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>406200</v>
+        <v>350300</v>
       </c>
       <c r="E66" s="3">
-        <v>426600</v>
+        <v>393600</v>
       </c>
       <c r="F66" s="3">
-        <v>422800</v>
+        <v>419100</v>
       </c>
       <c r="G66" s="3">
-        <v>415800</v>
+        <v>440200</v>
       </c>
       <c r="H66" s="3">
-        <v>407100</v>
+        <v>436200</v>
       </c>
       <c r="I66" s="3">
+        <v>429000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K66" s="3">
         <v>561000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>594000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>670600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>793700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1149400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1282900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1302400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2122600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>366300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>501700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>726100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>675100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>665900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>480400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>420000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>384400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-34500</v>
+        <v>60900</v>
       </c>
       <c r="E72" s="3">
-        <v>-80400</v>
+        <v>27300</v>
       </c>
       <c r="F72" s="3">
-        <v>-122300</v>
+        <v>-35600</v>
       </c>
       <c r="G72" s="3">
-        <v>-150000</v>
+        <v>-83000</v>
       </c>
       <c r="H72" s="3">
-        <v>-175100</v>
+        <v>-126200</v>
       </c>
       <c r="I72" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-180600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-97000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-108100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-79200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-82100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-144200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-181100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-200200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>310400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>506800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>475500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>459100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>272300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>207200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>264700</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X72" s="3">
-        <v>171200</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>171200</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>671100</v>
+        <v>796800</v>
       </c>
       <c r="E76" s="3">
-        <v>625200</v>
+        <v>755300</v>
       </c>
       <c r="F76" s="3">
-        <v>579500</v>
+        <v>692500</v>
       </c>
       <c r="G76" s="3">
-        <v>551000</v>
+        <v>645100</v>
       </c>
       <c r="H76" s="3">
-        <v>525900</v>
+        <v>597900</v>
       </c>
       <c r="I76" s="3">
+        <v>568500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>542500</v>
+      </c>
+      <c r="K76" s="3">
         <v>604300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>593000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>654900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>691400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>450200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>418300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>387000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>693400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>641200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>623800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>440800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>370400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>408500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>361900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>311200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>46000</v>
+        <v>38800</v>
       </c>
       <c r="E81" s="3">
-        <v>44700</v>
+        <v>63100</v>
       </c>
       <c r="F81" s="3">
-        <v>27900</v>
+        <v>47500</v>
       </c>
       <c r="G81" s="3">
-        <v>25200</v>
+        <v>46100</v>
       </c>
       <c r="H81" s="3">
-        <v>-77900</v>
+        <v>28700</v>
       </c>
       <c r="I81" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K81" s="3">
         <v>11100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-32300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>62200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>35100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>24100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>56400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>143200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-19700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>27100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>76900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>66600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>45000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>39900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>51000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>55200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26400</v>
+        <v>49200</v>
       </c>
       <c r="E89" s="3">
-        <v>45100</v>
+        <v>148600</v>
       </c>
       <c r="F89" s="3">
-        <v>-29600</v>
+        <v>27200</v>
       </c>
       <c r="G89" s="3">
-        <v>-19800</v>
+        <v>46500</v>
       </c>
       <c r="H89" s="3">
-        <v>-30500</v>
+        <v>-30600</v>
       </c>
       <c r="I89" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>81400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>13600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>181100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-51800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>149000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-20100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-191800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-48500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>189300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>51400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>78700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>82100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>121600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>53200</v>
+        <v>-119900</v>
       </c>
       <c r="E94" s="3">
-        <v>-32500</v>
+        <v>86800</v>
       </c>
       <c r="F94" s="3">
-        <v>-29000</v>
+        <v>54800</v>
       </c>
       <c r="G94" s="3">
-        <v>-39800</v>
+        <v>-33600</v>
       </c>
       <c r="H94" s="3">
-        <v>-136600</v>
+        <v>-30000</v>
       </c>
       <c r="I94" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-140900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-76600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>314600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-199000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>91300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-34500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>127200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>322400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>65700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-37700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-28700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>50800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-14200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-62200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-117500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,87 +7021,99 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6400</v>
+        <v>-39700</v>
       </c>
       <c r="E100" s="3">
-        <v>6900</v>
+        <v>-22700</v>
       </c>
       <c r="F100" s="3">
-        <v>20100</v>
+        <v>-6600</v>
       </c>
       <c r="G100" s="3">
-        <v>38900</v>
+        <v>7100</v>
       </c>
       <c r="H100" s="3">
-        <v>125200</v>
+        <v>20700</v>
       </c>
       <c r="I100" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K100" s="3">
         <v>11400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-242800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-11400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>75400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-15300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-11800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>33900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-86300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-19000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-14100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-6500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>8800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6624,128 +7122,140 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>2500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>73100</v>
+        <v>-110000</v>
       </c>
       <c r="E102" s="3">
-        <v>19400</v>
+        <v>212900</v>
       </c>
       <c r="F102" s="3">
-        <v>-38700</v>
+        <v>75400</v>
       </c>
       <c r="G102" s="3">
-        <v>-20700</v>
+        <v>20000</v>
       </c>
       <c r="H102" s="3">
-        <v>-41900</v>
+        <v>-39900</v>
       </c>
       <c r="I102" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-29500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>85100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-16300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>31900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-63600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>149000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-5800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-231900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-111400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>75600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>81000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>49500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>12800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>15400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,358 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>120700</v>
+        <v>154700</v>
       </c>
       <c r="E8" s="3">
-        <v>216300</v>
+        <v>119500</v>
       </c>
       <c r="F8" s="3">
-        <v>146600</v>
+        <v>214100</v>
       </c>
       <c r="G8" s="3">
-        <v>176900</v>
+        <v>145100</v>
       </c>
       <c r="H8" s="3">
-        <v>161600</v>
+        <v>175100</v>
       </c>
       <c r="I8" s="3">
-        <v>158000</v>
+        <v>159900</v>
       </c>
       <c r="J8" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K8" s="3">
         <v>166700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>142400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>105100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>149500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>388500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>316600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>345800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>302600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>431100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>317700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>418100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>540200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>270800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>224700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>175600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>148600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>155800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32100</v>
+        <v>30100</v>
       </c>
       <c r="E9" s="3">
-        <v>49100</v>
+        <v>31800</v>
       </c>
       <c r="F9" s="3">
-        <v>31100</v>
+        <v>48600</v>
       </c>
       <c r="G9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K9" s="3">
+        <v>85700</v>
+      </c>
+      <c r="L9" s="3">
+        <v>33400</v>
+      </c>
+      <c r="M9" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O9" s="3">
         <v>26800</v>
       </c>
-      <c r="H9" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>25100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>85700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>33400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>23000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>15000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>26800</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>26300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>17700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>88600</v>
+        <v>124600</v>
       </c>
       <c r="E10" s="3">
-        <v>167200</v>
+        <v>87700</v>
       </c>
       <c r="F10" s="3">
-        <v>115500</v>
+        <v>165500</v>
       </c>
       <c r="G10" s="3">
-        <v>150100</v>
+        <v>114300</v>
       </c>
       <c r="H10" s="3">
-        <v>135300</v>
+        <v>148600</v>
       </c>
       <c r="I10" s="3">
-        <v>132900</v>
+        <v>134000</v>
       </c>
       <c r="J10" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K10" s="3">
         <v>81000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>82100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>134500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>361700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>292600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>320400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>276300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>398100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>279600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>375100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>502200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>249000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>207000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>161800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>140000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>147500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,22 +1202,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1209,11 +1228,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>94200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1230,8 +1249,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1263,8 +1282,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>72500</v>
+        <v>64800</v>
       </c>
       <c r="E17" s="3">
-        <v>143900</v>
+        <v>71800</v>
       </c>
       <c r="F17" s="3">
-        <v>99400</v>
+        <v>142400</v>
       </c>
       <c r="G17" s="3">
-        <v>117300</v>
+        <v>98400</v>
       </c>
       <c r="H17" s="3">
-        <v>120700</v>
+        <v>116100</v>
       </c>
       <c r="I17" s="3">
-        <v>120800</v>
+        <v>119500</v>
       </c>
       <c r="J17" s="3">
+        <v>119500</v>
+      </c>
+      <c r="K17" s="3">
         <v>248700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>147800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>286800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>281700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>319500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>267200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>295500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>341600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>406400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>455900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>191700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>168600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>120200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>91400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>98100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48200</v>
+        <v>89800</v>
       </c>
       <c r="E18" s="3">
-        <v>72400</v>
+        <v>47700</v>
       </c>
       <c r="F18" s="3">
-        <v>47200</v>
+        <v>71700</v>
       </c>
       <c r="G18" s="3">
-        <v>59600</v>
+        <v>46700</v>
       </c>
       <c r="H18" s="3">
-        <v>40800</v>
+        <v>59000</v>
       </c>
       <c r="I18" s="3">
-        <v>37200</v>
+        <v>40400</v>
       </c>
       <c r="J18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-82000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>101700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>135600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-23900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>84200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>79100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>56100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>55400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>57100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>57700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1581,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>21400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>47900</v>
+        <v>90800</v>
       </c>
       <c r="E21" s="3">
-        <v>75500</v>
+        <v>47400</v>
       </c>
       <c r="F21" s="3">
-        <v>46600</v>
+        <v>74800</v>
       </c>
       <c r="G21" s="3">
-        <v>56500</v>
+        <v>46100</v>
       </c>
       <c r="H21" s="3">
-        <v>36200</v>
+        <v>55900</v>
       </c>
       <c r="I21" s="3">
-        <v>34600</v>
+        <v>35900</v>
       </c>
       <c r="J21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-89000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-39300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>76700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>164200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-14800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>33000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>94400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>81200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>58000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>59400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>61500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>59800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1819,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48900</v>
+        <v>91600</v>
       </c>
       <c r="E23" s="3">
-        <v>73300</v>
+        <v>48400</v>
       </c>
       <c r="F23" s="3">
-        <v>46700</v>
+        <v>72600</v>
       </c>
       <c r="G23" s="3">
-        <v>57000</v>
+        <v>46300</v>
       </c>
       <c r="H23" s="3">
-        <v>36700</v>
+        <v>56400</v>
       </c>
       <c r="I23" s="3">
-        <v>32400</v>
+        <v>36300</v>
       </c>
       <c r="J23" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-88000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>68100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>147900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>33100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>88900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>81100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>57700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>60900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>59700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="3">
         <v>10100</v>
       </c>
-      <c r="E24" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
-        <v>10900</v>
-      </c>
       <c r="H24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I24" s="3">
         <v>7900</v>
       </c>
-      <c r="I24" s="3">
-        <v>6400</v>
-      </c>
       <c r="J24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38800</v>
+        <v>69000</v>
       </c>
       <c r="E26" s="3">
-        <v>63100</v>
+        <v>38400</v>
       </c>
       <c r="F26" s="3">
-        <v>47500</v>
+        <v>62400</v>
       </c>
       <c r="G26" s="3">
-        <v>46100</v>
+        <v>47000</v>
       </c>
       <c r="H26" s="3">
-        <v>28700</v>
+        <v>45600</v>
       </c>
       <c r="I26" s="3">
-        <v>26000</v>
+        <v>28400</v>
       </c>
       <c r="J26" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-80400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-32300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>62200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>27100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>66600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>45000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>39900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>51000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>55200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38800</v>
+        <v>69000</v>
       </c>
       <c r="E27" s="3">
-        <v>63100</v>
+        <v>38400</v>
       </c>
       <c r="F27" s="3">
-        <v>47500</v>
+        <v>62400</v>
       </c>
       <c r="G27" s="3">
-        <v>46100</v>
+        <v>47000</v>
       </c>
       <c r="H27" s="3">
-        <v>28700</v>
+        <v>45600</v>
       </c>
       <c r="I27" s="3">
-        <v>26000</v>
+        <v>28400</v>
       </c>
       <c r="J27" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-80400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>56400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>143200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>66600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>45000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>51000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>55200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2379,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2539,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>4200</v>
-      </c>
       <c r="I32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-21400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38800</v>
+        <v>69000</v>
       </c>
       <c r="E33" s="3">
-        <v>63100</v>
+        <v>38400</v>
       </c>
       <c r="F33" s="3">
-        <v>47500</v>
+        <v>62400</v>
       </c>
       <c r="G33" s="3">
-        <v>46100</v>
+        <v>47000</v>
       </c>
       <c r="H33" s="3">
-        <v>28700</v>
+        <v>45600</v>
       </c>
       <c r="I33" s="3">
-        <v>26000</v>
+        <v>28400</v>
       </c>
       <c r="J33" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-80400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-32300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>62200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>143200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>66600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>39900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>51000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>55200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38800</v>
+        <v>69000</v>
       </c>
       <c r="E35" s="3">
-        <v>63100</v>
+        <v>38400</v>
       </c>
       <c r="F35" s="3">
-        <v>47500</v>
+        <v>62400</v>
       </c>
       <c r="G35" s="3">
-        <v>46100</v>
+        <v>47000</v>
       </c>
       <c r="H35" s="3">
-        <v>28700</v>
+        <v>45600</v>
       </c>
       <c r="I35" s="3">
-        <v>26000</v>
+        <v>28400</v>
       </c>
       <c r="J35" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-80400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-32300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>62200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>143200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>66600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>39900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>51000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>55200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3006,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>518900</v>
+        <v>607300</v>
       </c>
       <c r="E41" s="3">
-        <v>625400</v>
+        <v>513600</v>
       </c>
       <c r="F41" s="3">
-        <v>411400</v>
+        <v>619000</v>
       </c>
       <c r="G41" s="3">
-        <v>334400</v>
+        <v>407200</v>
       </c>
       <c r="H41" s="3">
-        <v>314900</v>
+        <v>331000</v>
       </c>
       <c r="I41" s="3">
-        <v>339300</v>
+        <v>311700</v>
       </c>
       <c r="J41" s="3">
+        <v>335800</v>
+      </c>
+      <c r="K41" s="3">
         <v>354700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>394800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>408600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>466600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>492400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>405400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>422200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>384900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>378600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>117200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>79400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>239200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>275600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>208300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>132300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>125700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>140800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3164,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>201000</v>
+        <v>211400</v>
       </c>
       <c r="E43" s="3">
-        <v>177200</v>
+        <v>198900</v>
       </c>
       <c r="F43" s="3">
-        <v>170100</v>
+        <v>175400</v>
       </c>
       <c r="G43" s="3">
-        <v>147600</v>
+        <v>168300</v>
       </c>
       <c r="H43" s="3">
-        <v>185700</v>
+        <v>146000</v>
       </c>
       <c r="I43" s="3">
-        <v>152200</v>
+        <v>183800</v>
       </c>
       <c r="J43" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K43" s="3">
         <v>144600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>234500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>221000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>236200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>152800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>268800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>283700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>203600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3300</v>
       </c>
-      <c r="Y43" s="3" t="s">
+      <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4400</v>
       </c>
-      <c r="AA43" s="3" t="s">
+      <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,85 +3324,91 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51900</v>
+        <v>45700</v>
       </c>
       <c r="E45" s="3">
-        <v>38300</v>
+        <v>51400</v>
       </c>
       <c r="F45" s="3">
-        <v>50600</v>
+        <v>37900</v>
       </c>
       <c r="G45" s="3">
-        <v>51400</v>
+        <v>50000</v>
       </c>
       <c r="H45" s="3">
-        <v>30700</v>
+        <v>50900</v>
       </c>
       <c r="I45" s="3">
-        <v>30900</v>
+        <v>30400</v>
       </c>
       <c r="J45" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K45" s="3">
         <v>40000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>157900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>126800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>205300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>197200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>178300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>186600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>370700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>171500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>171900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>170900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>158600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>168700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>91700</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>67900</v>
       </c>
-      <c r="AA45" s="3" t="s">
+      <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,162 +3484,171 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>335900</v>
+        <v>308600</v>
       </c>
       <c r="E47" s="3">
-        <v>266100</v>
+        <v>332400</v>
       </c>
       <c r="F47" s="3">
-        <v>439100</v>
+        <v>263400</v>
       </c>
       <c r="G47" s="3">
-        <v>506100</v>
+        <v>434600</v>
       </c>
       <c r="H47" s="3">
-        <v>451200</v>
+        <v>500900</v>
       </c>
       <c r="I47" s="3">
-        <v>402600</v>
+        <v>446600</v>
       </c>
       <c r="J47" s="3">
+        <v>398400</v>
+      </c>
+      <c r="K47" s="3">
         <v>341000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>305200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>302800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>391500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>510400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>578100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>655400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>909100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>968300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>688300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>707400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>617000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>261900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>255800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>314900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>297700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>236800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17400</v>
+        <v>15800</v>
       </c>
       <c r="E48" s="3">
-        <v>20200</v>
+        <v>17200</v>
       </c>
       <c r="F48" s="3">
-        <v>26300</v>
+        <v>20000</v>
       </c>
       <c r="G48" s="3">
-        <v>26700</v>
+        <v>26100</v>
       </c>
       <c r="H48" s="3">
-        <v>31200</v>
+        <v>26500</v>
       </c>
       <c r="I48" s="3">
-        <v>33400</v>
+        <v>30900</v>
       </c>
       <c r="J48" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K48" s="3">
         <v>36300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>81600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>92000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>98000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>96100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>38600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8900</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5200</v>
       </c>
-      <c r="AA48" s="3" t="s">
+      <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3724,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3884,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21700</v>
+        <v>24600</v>
       </c>
       <c r="E52" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="F52" s="3">
-        <v>12700</v>
+        <v>21100</v>
       </c>
       <c r="G52" s="3">
-        <v>14100</v>
+        <v>12500</v>
       </c>
       <c r="H52" s="3">
         <v>13900</v>
       </c>
       <c r="I52" s="3">
-        <v>30200</v>
+        <v>13800</v>
       </c>
       <c r="J52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K52" s="3">
         <v>36500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>88800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>152900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>290800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>386900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>361500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>337900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>205100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>240600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1147000</v>
+        <v>1213400</v>
       </c>
       <c r="E54" s="3">
-        <v>1148900</v>
+        <v>1135300</v>
       </c>
       <c r="F54" s="3">
-        <v>1111500</v>
+        <v>1137100</v>
       </c>
       <c r="G54" s="3">
-        <v>1085300</v>
+        <v>1100200</v>
       </c>
       <c r="H54" s="3">
-        <v>1034100</v>
+        <v>1074100</v>
       </c>
       <c r="I54" s="3">
-        <v>997500</v>
+        <v>1023500</v>
       </c>
       <c r="J54" s="3">
+        <v>987300</v>
+      </c>
+      <c r="K54" s="3">
         <v>962600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1165300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1187000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1325500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1485000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1599600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1701200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1689500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2069800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1059600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1142900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1349900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1115800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1036300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>888900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>782000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>695600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4186,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4600</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
-        <v>5300</v>
-      </c>
       <c r="H57" s="3">
-        <v>9300</v>
+        <v>5200</v>
       </c>
       <c r="I57" s="3">
-        <v>1900</v>
+        <v>9200</v>
       </c>
       <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>5100</v>
       </c>
       <c r="U57" s="3">
         <v>5100</v>
       </c>
       <c r="V57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="W57" s="3">
         <v>5000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2200</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2000</v>
       </c>
-      <c r="AA57" s="3" t="s">
+      <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,85 +4344,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224000</v>
+        <v>224300</v>
       </c>
       <c r="E59" s="3">
-        <v>251800</v>
+        <v>221700</v>
       </c>
       <c r="F59" s="3">
-        <v>249900</v>
+        <v>249200</v>
       </c>
       <c r="G59" s="3">
-        <v>262000</v>
+        <v>247300</v>
       </c>
       <c r="H59" s="3">
-        <v>266900</v>
+        <v>259300</v>
       </c>
       <c r="I59" s="3">
-        <v>294000</v>
+        <v>264100</v>
       </c>
       <c r="J59" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K59" s="3">
         <v>332300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>337200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>330000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>338400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>420000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>456400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>433100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>431000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1611500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>224200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>361500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>189000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>220600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>277900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>152400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>55300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>205500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,35 +4504,38 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>110300</v>
+        <v>109200</v>
       </c>
       <c r="E61" s="3">
-        <v>124800</v>
+        <v>109200</v>
       </c>
       <c r="F61" s="3">
-        <v>147700</v>
+        <v>123600</v>
       </c>
       <c r="G61" s="3">
-        <v>149200</v>
+        <v>146200</v>
       </c>
       <c r="H61" s="3">
-        <v>139100</v>
+        <v>147600</v>
       </c>
       <c r="I61" s="3">
-        <v>114800</v>
+        <v>137700</v>
       </c>
       <c r="J61" s="3">
+        <v>113600</v>
+      </c>
+      <c r="K61" s="3">
         <v>71900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4584,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,67 +4596,67 @@
         <v>11300</v>
       </c>
       <c r="E62" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="F62" s="3">
-        <v>16200</v>
+        <v>11400</v>
       </c>
       <c r="G62" s="3">
-        <v>21200</v>
+        <v>16000</v>
       </c>
       <c r="H62" s="3">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="I62" s="3">
-        <v>10900</v>
+        <v>16900</v>
       </c>
       <c r="J62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>81500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>92100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>90000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8900</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
@@ -4519,8 +4664,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>350300</v>
+        <v>356100</v>
       </c>
       <c r="E66" s="3">
-        <v>393600</v>
+        <v>346700</v>
       </c>
       <c r="F66" s="3">
-        <v>419100</v>
+        <v>389600</v>
       </c>
       <c r="G66" s="3">
-        <v>440200</v>
+        <v>414800</v>
       </c>
       <c r="H66" s="3">
-        <v>436200</v>
+        <v>435700</v>
       </c>
       <c r="I66" s="3">
-        <v>429000</v>
+        <v>431800</v>
       </c>
       <c r="J66" s="3">
+        <v>424600</v>
+      </c>
+      <c r="K66" s="3">
         <v>420000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>561000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>594000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>670600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>793700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1149400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1282900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1302400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2122600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>366300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>501700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>726100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>675100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>665900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>480400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>420000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>384400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>60900</v>
+        <v>129200</v>
       </c>
       <c r="E72" s="3">
-        <v>27300</v>
+        <v>60300</v>
       </c>
       <c r="F72" s="3">
-        <v>-35600</v>
+        <v>27000</v>
       </c>
       <c r="G72" s="3">
-        <v>-83000</v>
+        <v>-35200</v>
       </c>
       <c r="H72" s="3">
-        <v>-126200</v>
+        <v>-82100</v>
       </c>
       <c r="I72" s="3">
-        <v>-154700</v>
+        <v>-124900</v>
       </c>
       <c r="J72" s="3">
+        <v>-153100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-180600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-108100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-82100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-144200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-181100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>310400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>506800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>475500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>459100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>272300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>207200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>264700</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>171200</v>
       </c>
-      <c r="AA72" s="3" t="s">
+      <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>796800</v>
+        <v>857300</v>
       </c>
       <c r="E76" s="3">
-        <v>755300</v>
+        <v>788600</v>
       </c>
       <c r="F76" s="3">
-        <v>692500</v>
+        <v>747500</v>
       </c>
       <c r="G76" s="3">
-        <v>645100</v>
+        <v>685400</v>
       </c>
       <c r="H76" s="3">
-        <v>597900</v>
+        <v>638500</v>
       </c>
       <c r="I76" s="3">
-        <v>568500</v>
+        <v>591700</v>
       </c>
       <c r="J76" s="3">
+        <v>562700</v>
+      </c>
+      <c r="K76" s="3">
         <v>542500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>604300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>593000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>654900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>691400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>450200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>418300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>387000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-52800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>693400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>641200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>623800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>440800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>370400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>408500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>361900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>311200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38800</v>
+        <v>69000</v>
       </c>
       <c r="E81" s="3">
-        <v>63100</v>
+        <v>38400</v>
       </c>
       <c r="F81" s="3">
-        <v>47500</v>
+        <v>62400</v>
       </c>
       <c r="G81" s="3">
-        <v>46100</v>
+        <v>47000</v>
       </c>
       <c r="H81" s="3">
-        <v>28700</v>
+        <v>45600</v>
       </c>
       <c r="I81" s="3">
-        <v>26000</v>
+        <v>28400</v>
       </c>
       <c r="J81" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-80400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-32300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>62200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>143200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>66600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>39900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>51000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>55200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6011,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6089,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49200</v>
+        <v>67100</v>
       </c>
       <c r="E89" s="3">
-        <v>148600</v>
+        <v>48700</v>
       </c>
       <c r="F89" s="3">
-        <v>27200</v>
+        <v>147100</v>
       </c>
       <c r="G89" s="3">
-        <v>46500</v>
+        <v>26900</v>
       </c>
       <c r="H89" s="3">
-        <v>-30600</v>
+        <v>46000</v>
       </c>
       <c r="I89" s="3">
-        <v>-20400</v>
+        <v>-30300</v>
       </c>
       <c r="J89" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-31500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>81400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>181100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>149000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-191800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-48500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>189300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>51400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>78700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>82100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>121600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6601,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6679,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-119900</v>
+        <v>40200</v>
       </c>
       <c r="E94" s="3">
-        <v>86800</v>
+        <v>-118700</v>
       </c>
       <c r="F94" s="3">
-        <v>54800</v>
+        <v>85900</v>
       </c>
       <c r="G94" s="3">
-        <v>-33600</v>
+        <v>54300</v>
       </c>
       <c r="H94" s="3">
-        <v>-30000</v>
+        <v>-33200</v>
       </c>
       <c r="I94" s="3">
-        <v>-41100</v>
+        <v>-29600</v>
       </c>
       <c r="J94" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-140900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>314600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-199000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>91300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>127200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>322400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>65700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-37700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-28700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>50800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-62200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-117500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,97 +7269,103 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39700</v>
+        <v>-7800</v>
       </c>
       <c r="E100" s="3">
-        <v>-22700</v>
+        <v>-39300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6600</v>
+        <v>-22500</v>
       </c>
       <c r="G100" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="H100" s="3">
         <v>7100</v>
       </c>
-      <c r="H100" s="3">
-        <v>20700</v>
-      </c>
       <c r="I100" s="3">
-        <v>40100</v>
+        <v>20500</v>
       </c>
       <c r="J100" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K100" s="3">
         <v>129200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-242800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>75400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>33900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-86300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7128,134 +7376,140 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-110000</v>
+        <v>99400</v>
       </c>
       <c r="E102" s="3">
-        <v>212900</v>
+        <v>-108900</v>
       </c>
       <c r="F102" s="3">
-        <v>75400</v>
+        <v>210700</v>
       </c>
       <c r="G102" s="3">
-        <v>20000</v>
+        <v>74600</v>
       </c>
       <c r="H102" s="3">
-        <v>-39900</v>
+        <v>19800</v>
       </c>
       <c r="I102" s="3">
-        <v>-21400</v>
+        <v>-39500</v>
       </c>
       <c r="J102" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-43300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>85100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-63600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>149000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-231900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-111400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>75600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>81000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>49500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,384 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>154700</v>
+        <v>182400</v>
       </c>
       <c r="E8" s="3">
-        <v>119500</v>
+        <v>135900</v>
       </c>
       <c r="F8" s="3">
-        <v>214100</v>
+        <v>149900</v>
       </c>
       <c r="G8" s="3">
-        <v>145100</v>
+        <v>115800</v>
       </c>
       <c r="H8" s="3">
-        <v>175100</v>
+        <v>207500</v>
       </c>
       <c r="I8" s="3">
+        <v>140700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>169700</v>
+      </c>
+      <c r="K8" s="3">
         <v>159900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>156400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>166700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>142400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>105100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>149500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>388500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>316600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>345800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>302600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>431100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>317700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>418100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>540200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>270800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>224700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>175600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>148600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>155800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>127500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30100</v>
+        <v>47700</v>
       </c>
       <c r="E9" s="3">
-        <v>31800</v>
+        <v>27500</v>
       </c>
       <c r="F9" s="3">
-        <v>48600</v>
+        <v>29200</v>
       </c>
       <c r="G9" s="3">
         <v>30800</v>
       </c>
       <c r="H9" s="3">
-        <v>26600</v>
+        <v>47100</v>
       </c>
       <c r="I9" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K9" s="3">
         <v>26000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>24800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>85700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>33400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>23000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>15000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>26800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>24000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>25400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>26300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>33000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>38100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>43000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>38000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>21800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>17700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>13800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>8500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>8200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>124600</v>
+        <v>134700</v>
       </c>
       <c r="E10" s="3">
-        <v>87700</v>
+        <v>108400</v>
       </c>
       <c r="F10" s="3">
-        <v>165500</v>
+        <v>120800</v>
       </c>
       <c r="G10" s="3">
-        <v>114300</v>
+        <v>85000</v>
       </c>
       <c r="H10" s="3">
-        <v>148600</v>
+        <v>160400</v>
       </c>
       <c r="I10" s="3">
+        <v>110800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K10" s="3">
         <v>134000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>131600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>81000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>109000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>82100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>134500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>361700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>292600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>320400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>276300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>398100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>279600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>375100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>502200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>249000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>207000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>161800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>140000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>147500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>120600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,40 +1239,46 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>94200</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>94200</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1252,11 +1292,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1285,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64800</v>
+        <v>90000</v>
       </c>
       <c r="E17" s="3">
-        <v>71800</v>
+        <v>61100</v>
       </c>
       <c r="F17" s="3">
-        <v>142400</v>
+        <v>62800</v>
       </c>
       <c r="G17" s="3">
-        <v>98400</v>
+        <v>69600</v>
       </c>
       <c r="H17" s="3">
-        <v>116100</v>
+        <v>138000</v>
       </c>
       <c r="I17" s="3">
+        <v>95400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K17" s="3">
         <v>119500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>119500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>248700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>126600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>141300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>147800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>286800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>281700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>319500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>267200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>295500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>341600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>406400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>455900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>191700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>168600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>120200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>91400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>98100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>95900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>89800</v>
+        <v>92500</v>
       </c>
       <c r="E18" s="3">
-        <v>47700</v>
+        <v>74800</v>
       </c>
       <c r="F18" s="3">
-        <v>71700</v>
+        <v>87100</v>
       </c>
       <c r="G18" s="3">
-        <v>46700</v>
+        <v>46200</v>
       </c>
       <c r="H18" s="3">
-        <v>59000</v>
+        <v>69500</v>
       </c>
       <c r="I18" s="3">
+        <v>45300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K18" s="3">
         <v>40400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>36800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-82000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>15800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-36200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>101700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>34900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>26300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>35400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>135600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-23900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>84200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>79100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>56100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>55400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>57100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>57700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,168 +1648,182 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>32700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>12300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>9300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>21400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>4700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>90800</v>
+        <v>91900</v>
       </c>
       <c r="E21" s="3">
-        <v>47400</v>
+        <v>76000</v>
       </c>
       <c r="F21" s="3">
-        <v>74800</v>
+        <v>88000</v>
       </c>
       <c r="G21" s="3">
-        <v>46100</v>
+        <v>45900</v>
       </c>
       <c r="H21" s="3">
-        <v>55900</v>
+        <v>72500</v>
       </c>
       <c r="I21" s="3">
+        <v>44700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K21" s="3">
         <v>35900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>34200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-89000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-39300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>7300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>76700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>38300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>33500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>73100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>164200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-14800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>33000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>94400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>81200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>58000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>59400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>61500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>59800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1822,168 +1902,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>91600</v>
+        <v>91900</v>
       </c>
       <c r="E23" s="3">
-        <v>48400</v>
+        <v>75800</v>
       </c>
       <c r="F23" s="3">
-        <v>72600</v>
+        <v>88800</v>
       </c>
       <c r="G23" s="3">
-        <v>46300</v>
+        <v>46900</v>
       </c>
       <c r="H23" s="3">
-        <v>56400</v>
+        <v>70300</v>
       </c>
       <c r="I23" s="3">
+        <v>44800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K23" s="3">
         <v>36300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>32100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-88000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-38900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>74700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>38200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>33700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>68100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>147900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-14600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>33100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>88900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>81100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>57700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>59300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>60900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>59700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22600</v>
+        <v>19300</v>
       </c>
       <c r="E24" s="3">
-        <v>10000</v>
+        <v>16900</v>
       </c>
       <c r="F24" s="3">
-        <v>10100</v>
+        <v>21900</v>
       </c>
       <c r="G24" s="3">
-        <v>-800</v>
+        <v>9600</v>
       </c>
       <c r="H24" s="3">
-        <v>10800</v>
+        <v>9800</v>
       </c>
       <c r="I24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>11700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>12000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>14500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>12700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>19300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>9900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>4500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69000</v>
+        <v>72700</v>
       </c>
       <c r="E26" s="3">
-        <v>38400</v>
+        <v>58900</v>
       </c>
       <c r="F26" s="3">
-        <v>62400</v>
+        <v>66900</v>
       </c>
       <c r="G26" s="3">
-        <v>47000</v>
+        <v>37200</v>
       </c>
       <c r="H26" s="3">
+        <v>60500</v>
+      </c>
+      <c r="I26" s="3">
         <v>45600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K26" s="3">
         <v>28400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>25800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-80400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-32300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>62200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>35100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>24100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>56400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>143200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-19700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>27100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>76900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>66600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>45000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>39900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>51000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>55200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69000</v>
+        <v>72700</v>
       </c>
       <c r="E27" s="3">
-        <v>38400</v>
+        <v>58900</v>
       </c>
       <c r="F27" s="3">
-        <v>62400</v>
+        <v>66900</v>
       </c>
       <c r="G27" s="3">
-        <v>47000</v>
+        <v>37200</v>
       </c>
       <c r="H27" s="3">
+        <v>60500</v>
+      </c>
+      <c r="I27" s="3">
         <v>45600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K27" s="3">
         <v>28400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>25800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-80400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-32300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>62200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>35100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>24100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>56400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>143200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-19700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>27100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>76900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>66600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>45000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>39900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>51000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>55200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1800</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-32700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-12300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-9300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-21400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-4700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69000</v>
+        <v>72700</v>
       </c>
       <c r="E33" s="3">
-        <v>38400</v>
+        <v>58900</v>
       </c>
       <c r="F33" s="3">
-        <v>62400</v>
+        <v>66900</v>
       </c>
       <c r="G33" s="3">
-        <v>47000</v>
+        <v>37200</v>
       </c>
       <c r="H33" s="3">
+        <v>60500</v>
+      </c>
+      <c r="I33" s="3">
         <v>45600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K33" s="3">
         <v>28400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>25800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-80400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>11100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-32300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>62200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>35100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>24100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>56400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>143200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-19700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>27100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>76900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>66600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>45000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>39900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>51000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>55200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69000</v>
+        <v>72700</v>
       </c>
       <c r="E35" s="3">
-        <v>38400</v>
+        <v>58900</v>
       </c>
       <c r="F35" s="3">
-        <v>62400</v>
+        <v>66900</v>
       </c>
       <c r="G35" s="3">
-        <v>47000</v>
+        <v>37200</v>
       </c>
       <c r="H35" s="3">
+        <v>60500</v>
+      </c>
+      <c r="I35" s="3">
         <v>45600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K35" s="3">
         <v>28400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>25800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-80400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>11100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-32300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>62200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>35100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>24100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>56400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>143200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-19700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>27100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>76900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>66600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>45000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>39900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>51000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>55200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>607300</v>
+        <v>800300</v>
       </c>
       <c r="E41" s="3">
-        <v>513600</v>
+        <v>699500</v>
       </c>
       <c r="F41" s="3">
-        <v>619000</v>
+        <v>588600</v>
       </c>
       <c r="G41" s="3">
-        <v>407200</v>
+        <v>497800</v>
       </c>
       <c r="H41" s="3">
-        <v>331000</v>
+        <v>600000</v>
       </c>
       <c r="I41" s="3">
+        <v>394700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>320800</v>
+      </c>
+      <c r="K41" s="3">
         <v>311700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>335800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>354700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>394800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>408600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>466600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>492400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>405400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>422200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>384900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>378600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>117200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>79400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>239200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>275600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>208300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>132300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>125700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>140800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,88 +3347,100 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>211400</v>
+        <v>218900</v>
       </c>
       <c r="E43" s="3">
-        <v>198900</v>
+        <v>220700</v>
       </c>
       <c r="F43" s="3">
-        <v>175400</v>
+        <v>204900</v>
       </c>
       <c r="G43" s="3">
-        <v>168300</v>
+        <v>192800</v>
       </c>
       <c r="H43" s="3">
-        <v>146000</v>
+        <v>170000</v>
       </c>
       <c r="I43" s="3">
+        <v>163200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>141600</v>
+      </c>
+      <c r="K43" s="3">
         <v>183800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>150700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>144600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>234500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>221000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>236200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>152800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>268800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>283700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>52100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>203600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>18700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>17700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>20100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>20600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>29800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>3300</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>4400</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3327,88 +3519,100 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45700</v>
+        <v>40900</v>
       </c>
       <c r="E45" s="3">
-        <v>51400</v>
+        <v>35700</v>
       </c>
       <c r="F45" s="3">
-        <v>37900</v>
+        <v>44300</v>
       </c>
       <c r="G45" s="3">
-        <v>50000</v>
+        <v>49800</v>
       </c>
       <c r="H45" s="3">
-        <v>50900</v>
+        <v>36700</v>
       </c>
       <c r="I45" s="3">
+        <v>48500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K45" s="3">
         <v>30400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>30600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>40000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>137400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>157900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>126800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>205300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>197200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>178300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>186600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>370700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>171500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>171900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>170900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>158600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>168700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>91700</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>67900</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>67900</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3487,168 +3691,186 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308600</v>
+        <v>202300</v>
       </c>
       <c r="E47" s="3">
-        <v>332400</v>
+        <v>194400</v>
       </c>
       <c r="F47" s="3">
-        <v>263400</v>
+        <v>299100</v>
       </c>
       <c r="G47" s="3">
-        <v>434600</v>
+        <v>322200</v>
       </c>
       <c r="H47" s="3">
-        <v>500900</v>
+        <v>255300</v>
       </c>
       <c r="I47" s="3">
+        <v>421200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>485500</v>
+      </c>
+      <c r="K47" s="3">
         <v>446600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>398400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>341000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>305200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>302800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>391500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>510400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>578100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>655400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>909100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>968300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>688300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>707400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>617000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>261900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>255800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>314900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>297700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>236800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15800</v>
+        <v>13700</v>
       </c>
       <c r="E48" s="3">
-        <v>17200</v>
+        <v>14500</v>
       </c>
       <c r="F48" s="3">
-        <v>20000</v>
+        <v>15300</v>
       </c>
       <c r="G48" s="3">
-        <v>26100</v>
+        <v>16700</v>
       </c>
       <c r="H48" s="3">
-        <v>26500</v>
+        <v>19400</v>
       </c>
       <c r="I48" s="3">
+        <v>25300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K48" s="3">
         <v>30900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>33100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>36300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>45200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>56900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>70100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>81600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>92000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>98000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>96100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>38600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>14000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>11900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>12200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>12100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>8900</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>5200</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3727,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24600</v>
+        <v>14900</v>
       </c>
       <c r="E52" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="F52" s="3">
-        <v>21100</v>
+        <v>23800</v>
       </c>
       <c r="G52" s="3">
-        <v>12500</v>
+        <v>20800</v>
       </c>
       <c r="H52" s="3">
-        <v>13900</v>
+        <v>20500</v>
       </c>
       <c r="I52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K52" s="3">
         <v>13800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>29800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>36500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>30900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>19500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>17900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>36100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>41400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>38800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>88800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>50000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>152900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>290800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>386900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>361500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>337900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>205100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>240600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>141700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1213400</v>
+        <v>1291100</v>
       </c>
       <c r="E54" s="3">
-        <v>1135300</v>
+        <v>1184900</v>
       </c>
       <c r="F54" s="3">
-        <v>1137100</v>
+        <v>1176100</v>
       </c>
       <c r="G54" s="3">
-        <v>1100200</v>
+        <v>1100400</v>
       </c>
       <c r="H54" s="3">
-        <v>1074100</v>
+        <v>1102200</v>
       </c>
       <c r="I54" s="3">
+        <v>1066300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1041100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1023500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>987300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>962600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1165300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1187000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1325500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1485000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1599600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1701200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1689500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2069800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1059600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1142900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1349900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1115800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1036300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>888900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>782000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>695600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>586200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,88 +4447,96 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2000</v>
+        <v>9200</v>
       </c>
       <c r="E57" s="3">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="F57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
-        <v>2700</v>
-      </c>
       <c r="H57" s="3">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="I57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>44600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2200</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>2000</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4347,88 +4615,100 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224300</v>
+        <v>247000</v>
       </c>
       <c r="E59" s="3">
-        <v>221700</v>
+        <v>223200</v>
       </c>
       <c r="F59" s="3">
-        <v>249200</v>
+        <v>217400</v>
       </c>
       <c r="G59" s="3">
-        <v>247300</v>
+        <v>214900</v>
       </c>
       <c r="H59" s="3">
-        <v>259300</v>
+        <v>241500</v>
       </c>
       <c r="I59" s="3">
+        <v>239700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K59" s="3">
         <v>264100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>291000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>332300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>337200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>330000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>338400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>420000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>456400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>433100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>431000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1611500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>224200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>361500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>189000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>220600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>277900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>152400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>55300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>205500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4507,41 +4787,47 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>109200</v>
+        <v>54000</v>
       </c>
       <c r="E61" s="3">
-        <v>109200</v>
+        <v>54000</v>
       </c>
       <c r="F61" s="3">
-        <v>123600</v>
+        <v>105800</v>
       </c>
       <c r="G61" s="3">
-        <v>146200</v>
+        <v>105800</v>
       </c>
       <c r="H61" s="3">
-        <v>147600</v>
+        <v>119800</v>
       </c>
       <c r="I61" s="3">
+        <v>141700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K61" s="3">
         <v>137700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>113600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>71900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4587,88 +4873,100 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11300</v>
+        <v>13800</v>
       </c>
       <c r="E62" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="F62" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G62" s="3">
-        <v>16000</v>
+        <v>10900</v>
       </c>
       <c r="H62" s="3">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="I62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K62" s="3">
         <v>16900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>20900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>22600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>31600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>33700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>41200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>51400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>63800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>70700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>81500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>92100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>90000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>8900</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>356100</v>
+        <v>328500</v>
       </c>
       <c r="E66" s="3">
-        <v>346700</v>
+        <v>296700</v>
       </c>
       <c r="F66" s="3">
-        <v>389600</v>
+        <v>345200</v>
       </c>
       <c r="G66" s="3">
-        <v>414800</v>
+        <v>336000</v>
       </c>
       <c r="H66" s="3">
-        <v>435700</v>
+        <v>377600</v>
       </c>
       <c r="I66" s="3">
+        <v>402000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>422300</v>
+      </c>
+      <c r="K66" s="3">
         <v>431800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>424600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>420000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>561000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>594000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>670600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>793700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1149400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1282900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1302400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2122600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>366300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>501700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>726100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>675100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>665900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>480400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>420000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>384400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>333000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>129200</v>
+        <v>256400</v>
       </c>
       <c r="E72" s="3">
-        <v>60300</v>
+        <v>183900</v>
       </c>
       <c r="F72" s="3">
-        <v>27000</v>
+        <v>125200</v>
       </c>
       <c r="G72" s="3">
-        <v>-35200</v>
+        <v>58500</v>
       </c>
       <c r="H72" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-153100</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-180600</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-108100</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-82100</v>
       </c>
-      <c r="I72" s="3">
-        <v>-124900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-153100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-180600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-97000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-108100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-82100</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-144200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-181100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-200200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>310400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>506800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>475500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>459100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>272300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>207200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>264700</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>171200</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>171200</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>857300</v>
+        <v>962600</v>
       </c>
       <c r="E76" s="3">
-        <v>788600</v>
+        <v>888200</v>
       </c>
       <c r="F76" s="3">
-        <v>747500</v>
+        <v>830900</v>
       </c>
       <c r="G76" s="3">
-        <v>685400</v>
+        <v>764400</v>
       </c>
       <c r="H76" s="3">
-        <v>638500</v>
+        <v>724600</v>
       </c>
       <c r="I76" s="3">
+        <v>664300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>618800</v>
+      </c>
+      <c r="K76" s="3">
         <v>591700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>562700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>542500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>604300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>593000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>654900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>691400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>450200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>418300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>387000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-52800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>693400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>641200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>623800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>440800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>370400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>408500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>361900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>311200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>253200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69000</v>
+        <v>72700</v>
       </c>
       <c r="E81" s="3">
-        <v>38400</v>
+        <v>58900</v>
       </c>
       <c r="F81" s="3">
-        <v>62400</v>
+        <v>66900</v>
       </c>
       <c r="G81" s="3">
-        <v>47000</v>
+        <v>37200</v>
       </c>
       <c r="H81" s="3">
+        <v>60500</v>
+      </c>
+      <c r="I81" s="3">
         <v>45600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K81" s="3">
         <v>28400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>25800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-80400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>11100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-32300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>62200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>35100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>24100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>56400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>143200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-19700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>27100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>76900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>66600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>45000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>39900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>51000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>55200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>50100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6092,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>67100</v>
+        <v>98900</v>
       </c>
       <c r="E89" s="3">
-        <v>48700</v>
+        <v>53800</v>
       </c>
       <c r="F89" s="3">
-        <v>147100</v>
+        <v>65000</v>
       </c>
       <c r="G89" s="3">
-        <v>26900</v>
+        <v>47200</v>
       </c>
       <c r="H89" s="3">
-        <v>46000</v>
+        <v>142600</v>
       </c>
       <c r="I89" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-30300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-31500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>81400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>181100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-51800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>149000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-20100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-191800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-48500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>189300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>51400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>78700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>82100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>121600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>65500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6682,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>40200</v>
+        <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>-118700</v>
+        <v>106700</v>
       </c>
       <c r="F94" s="3">
-        <v>85900</v>
+        <v>39000</v>
       </c>
       <c r="G94" s="3">
-        <v>54300</v>
+        <v>-115100</v>
       </c>
       <c r="H94" s="3">
-        <v>-33200</v>
+        <v>83300</v>
       </c>
       <c r="I94" s="3">
+        <v>52600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-29600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-40700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-140900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-17600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-22900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-76600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>314600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-199000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>91300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-34500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>127200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>322400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>65700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-37700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-28700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>50800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-62200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-117500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-98800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,106 +7758,118 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7800</v>
+        <v>-800</v>
       </c>
       <c r="E100" s="3">
-        <v>-39300</v>
+        <v>-54100</v>
       </c>
       <c r="F100" s="3">
-        <v>-22500</v>
+        <v>-7500</v>
       </c>
       <c r="G100" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K100" s="3">
+        <v>20500</v>
+      </c>
+      <c r="L100" s="3">
+        <v>39700</v>
+      </c>
+      <c r="M100" s="3">
+        <v>129200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-242800</v>
+      </c>
+      <c r="R100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="T100" s="3">
+        <v>75400</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="W100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="X100" s="3">
+        <v>33900</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-6500</v>
       </c>
-      <c r="H100" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>20500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>39700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>129200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>11400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>5600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-242800</v>
-      </c>
-      <c r="P100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="R100" s="3">
-        <v>75400</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="V100" s="3">
-        <v>33900</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-86300</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>8800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -7379,137 +7877,149 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>2500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>99400</v>
+        <v>95400</v>
       </c>
       <c r="E102" s="3">
-        <v>-108900</v>
+        <v>106300</v>
       </c>
       <c r="F102" s="3">
-        <v>210700</v>
+        <v>96400</v>
       </c>
       <c r="G102" s="3">
-        <v>74600</v>
+        <v>-105600</v>
       </c>
       <c r="H102" s="3">
-        <v>19800</v>
+        <v>204200</v>
       </c>
       <c r="I102" s="3">
+        <v>72400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-39500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-21100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-43300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-29500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>85100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>31900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-63600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>149000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-5800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-231900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-111400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>75600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>81000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>49500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>12800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>15400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-7000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YRD_QTR_FIN.xlsx
@@ -789,25 +789,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>182400</v>
+        <v>182800</v>
       </c>
       <c r="E8" s="3">
-        <v>135900</v>
+        <v>136200</v>
       </c>
       <c r="F8" s="3">
-        <v>149900</v>
+        <v>150200</v>
       </c>
       <c r="G8" s="3">
-        <v>115800</v>
+        <v>116100</v>
       </c>
       <c r="H8" s="3">
-        <v>207500</v>
+        <v>207900</v>
       </c>
       <c r="I8" s="3">
-        <v>140700</v>
+        <v>141000</v>
       </c>
       <c r="J8" s="3">
-        <v>169700</v>
+        <v>170100</v>
       </c>
       <c r="K8" s="3">
         <v>159900</v>
@@ -875,19 +875,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="E9" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="F9" s="3">
         <v>29200</v>
       </c>
       <c r="G9" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="H9" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="I9" s="3">
         <v>29900</v>
@@ -961,25 +961,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>134700</v>
+        <v>135000</v>
       </c>
       <c r="E10" s="3">
-        <v>108400</v>
+        <v>108600</v>
       </c>
       <c r="F10" s="3">
-        <v>120800</v>
+        <v>121000</v>
       </c>
       <c r="G10" s="3">
-        <v>85000</v>
+        <v>85200</v>
       </c>
       <c r="H10" s="3">
-        <v>160400</v>
+        <v>160800</v>
       </c>
       <c r="I10" s="3">
-        <v>110800</v>
+        <v>111000</v>
       </c>
       <c r="J10" s="3">
-        <v>144000</v>
+        <v>144300</v>
       </c>
       <c r="K10" s="3">
         <v>134000</v>
@@ -1452,25 +1452,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90000</v>
+        <v>90200</v>
       </c>
       <c r="E17" s="3">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="F17" s="3">
-        <v>62800</v>
+        <v>63000</v>
       </c>
       <c r="G17" s="3">
-        <v>69600</v>
+        <v>69700</v>
       </c>
       <c r="H17" s="3">
-        <v>138000</v>
+        <v>138300</v>
       </c>
       <c r="I17" s="3">
-        <v>95400</v>
+        <v>95600</v>
       </c>
       <c r="J17" s="3">
-        <v>112600</v>
+        <v>112800</v>
       </c>
       <c r="K17" s="3">
         <v>119500</v>
@@ -1538,25 +1538,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>92500</v>
+        <v>92700</v>
       </c>
       <c r="E18" s="3">
-        <v>74800</v>
+        <v>75000</v>
       </c>
       <c r="F18" s="3">
-        <v>87100</v>
+        <v>87300</v>
       </c>
       <c r="G18" s="3">
-        <v>46200</v>
+        <v>46300</v>
       </c>
       <c r="H18" s="3">
-        <v>69500</v>
+        <v>69600</v>
       </c>
       <c r="I18" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="J18" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="K18" s="3">
         <v>40400</v>
@@ -1742,25 +1742,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91900</v>
+        <v>92100</v>
       </c>
       <c r="E21" s="3">
-        <v>76000</v>
+        <v>76200</v>
       </c>
       <c r="F21" s="3">
-        <v>88000</v>
+        <v>88200</v>
       </c>
       <c r="G21" s="3">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="H21" s="3">
-        <v>72500</v>
+        <v>72600</v>
       </c>
       <c r="I21" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="J21" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="K21" s="3">
         <v>35900</v>
@@ -1914,25 +1914,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>91900</v>
+        <v>92100</v>
       </c>
       <c r="E23" s="3">
-        <v>75800</v>
+        <v>75900</v>
       </c>
       <c r="F23" s="3">
-        <v>88800</v>
+        <v>89000</v>
       </c>
       <c r="G23" s="3">
-        <v>46900</v>
+        <v>47000</v>
       </c>
       <c r="H23" s="3">
-        <v>70300</v>
+        <v>70500</v>
       </c>
       <c r="I23" s="3">
-        <v>44800</v>
+        <v>44900</v>
       </c>
       <c r="J23" s="3">
-        <v>54700</v>
+        <v>54800</v>
       </c>
       <c r="K23" s="3">
         <v>36300</v>
@@ -2006,10 +2006,10 @@
         <v>16900</v>
       </c>
       <c r="F24" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="G24" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="H24" s="3">
         <v>9800</v>
@@ -2172,25 +2172,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72700</v>
+        <v>72800</v>
       </c>
       <c r="E26" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="F26" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G26" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="H26" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="I26" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="J26" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="K26" s="3">
         <v>28400</v>
@@ -2258,25 +2258,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>72700</v>
+        <v>72800</v>
       </c>
       <c r="E27" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="F27" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G27" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="H27" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="I27" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="J27" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="K27" s="3">
         <v>28400</v>
@@ -2774,25 +2774,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>72700</v>
+        <v>72800</v>
       </c>
       <c r="E33" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="F33" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G33" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="H33" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="I33" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="J33" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="K33" s="3">
         <v>28400</v>
@@ -2946,25 +2946,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>72700</v>
+        <v>72800</v>
       </c>
       <c r="E35" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="F35" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G35" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="H35" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="I35" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="J35" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="K35" s="3">
         <v>28400</v>
@@ -3187,25 +3187,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800300</v>
+        <v>802100</v>
       </c>
       <c r="E41" s="3">
-        <v>699500</v>
+        <v>701100</v>
       </c>
       <c r="F41" s="3">
-        <v>588600</v>
+        <v>589900</v>
       </c>
       <c r="G41" s="3">
-        <v>497800</v>
+        <v>498900</v>
       </c>
       <c r="H41" s="3">
-        <v>600000</v>
+        <v>601300</v>
       </c>
       <c r="I41" s="3">
-        <v>394700</v>
+        <v>395500</v>
       </c>
       <c r="J41" s="3">
-        <v>320800</v>
+        <v>321500</v>
       </c>
       <c r="K41" s="3">
         <v>311700</v>
@@ -3359,25 +3359,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>218900</v>
+        <v>219400</v>
       </c>
       <c r="E43" s="3">
-        <v>220700</v>
+        <v>221200</v>
       </c>
       <c r="F43" s="3">
-        <v>204900</v>
+        <v>205400</v>
       </c>
       <c r="G43" s="3">
-        <v>192800</v>
+        <v>193200</v>
       </c>
       <c r="H43" s="3">
-        <v>170000</v>
+        <v>170300</v>
       </c>
       <c r="I43" s="3">
-        <v>163200</v>
+        <v>163500</v>
       </c>
       <c r="J43" s="3">
-        <v>141600</v>
+        <v>141900</v>
       </c>
       <c r="K43" s="3">
         <v>183800</v>
@@ -3531,25 +3531,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40900</v>
+        <v>41000</v>
       </c>
       <c r="E45" s="3">
         <v>35700</v>
       </c>
       <c r="F45" s="3">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="G45" s="3">
-        <v>49800</v>
+        <v>49900</v>
       </c>
       <c r="H45" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="I45" s="3">
-        <v>48500</v>
+        <v>48600</v>
       </c>
       <c r="J45" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="K45" s="3">
         <v>30400</v>
@@ -3703,25 +3703,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>202300</v>
+        <v>202700</v>
       </c>
       <c r="E47" s="3">
-        <v>194400</v>
+        <v>194800</v>
       </c>
       <c r="F47" s="3">
-        <v>299100</v>
+        <v>299700</v>
       </c>
       <c r="G47" s="3">
-        <v>322200</v>
+        <v>322900</v>
       </c>
       <c r="H47" s="3">
-        <v>255300</v>
+        <v>255800</v>
       </c>
       <c r="I47" s="3">
-        <v>421200</v>
+        <v>422100</v>
       </c>
       <c r="J47" s="3">
-        <v>485500</v>
+        <v>486500</v>
       </c>
       <c r="K47" s="3">
         <v>446600</v>
@@ -3798,10 +3798,10 @@
         <v>15300</v>
       </c>
       <c r="G48" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="H48" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="I48" s="3">
         <v>25300</v>
@@ -4139,10 +4139,10 @@
         <v>20100</v>
       </c>
       <c r="F52" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="G52" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="H52" s="3">
         <v>20500</v>
@@ -4305,25 +4305,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1291100</v>
+        <v>1293900</v>
       </c>
       <c r="E54" s="3">
-        <v>1184900</v>
+        <v>1187500</v>
       </c>
       <c r="F54" s="3">
-        <v>1176100</v>
+        <v>1178700</v>
       </c>
       <c r="G54" s="3">
-        <v>1100400</v>
+        <v>1102800</v>
       </c>
       <c r="H54" s="3">
-        <v>1102200</v>
+        <v>1104600</v>
       </c>
       <c r="I54" s="3">
-        <v>1066300</v>
+        <v>1068700</v>
       </c>
       <c r="J54" s="3">
-        <v>1041100</v>
+        <v>1043400</v>
       </c>
       <c r="K54" s="3">
         <v>1023500</v>
@@ -4461,7 +4461,7 @@
         <v>2700</v>
       </c>
       <c r="F57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G57" s="3">
         <v>4400</v>
@@ -4627,25 +4627,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>247000</v>
+        <v>247500</v>
       </c>
       <c r="E59" s="3">
-        <v>223200</v>
+        <v>223700</v>
       </c>
       <c r="F59" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="G59" s="3">
-        <v>214900</v>
+        <v>215300</v>
       </c>
       <c r="H59" s="3">
-        <v>241500</v>
+        <v>242100</v>
       </c>
       <c r="I59" s="3">
-        <v>239700</v>
+        <v>240200</v>
       </c>
       <c r="J59" s="3">
-        <v>251300</v>
+        <v>251900</v>
       </c>
       <c r="K59" s="3">
         <v>264100</v>
@@ -4799,25 +4799,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54000</v>
+        <v>54100</v>
       </c>
       <c r="E61" s="3">
-        <v>54000</v>
+        <v>54100</v>
       </c>
       <c r="F61" s="3">
-        <v>105800</v>
+        <v>106000</v>
       </c>
       <c r="G61" s="3">
-        <v>105800</v>
+        <v>106000</v>
       </c>
       <c r="H61" s="3">
-        <v>119800</v>
+        <v>120000</v>
       </c>
       <c r="I61" s="3">
-        <v>141700</v>
+        <v>142000</v>
       </c>
       <c r="J61" s="3">
-        <v>143100</v>
+        <v>143400</v>
       </c>
       <c r="K61" s="3">
         <v>137700</v>
@@ -4897,13 +4897,13 @@
         <v>10900</v>
       </c>
       <c r="H62" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="I62" s="3">
         <v>15500</v>
       </c>
       <c r="J62" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="K62" s="3">
         <v>16900</v>
@@ -5229,25 +5229,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>328500</v>
+        <v>329200</v>
       </c>
       <c r="E66" s="3">
-        <v>296700</v>
+        <v>297400</v>
       </c>
       <c r="F66" s="3">
-        <v>345200</v>
+        <v>345900</v>
       </c>
       <c r="G66" s="3">
-        <v>336000</v>
+        <v>336700</v>
       </c>
       <c r="H66" s="3">
-        <v>377600</v>
+        <v>378400</v>
       </c>
       <c r="I66" s="3">
-        <v>402000</v>
+        <v>402900</v>
       </c>
       <c r="J66" s="3">
-        <v>422300</v>
+        <v>423200</v>
       </c>
       <c r="K66" s="3">
         <v>431800</v>
@@ -5691,25 +5691,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>256400</v>
+        <v>257000</v>
       </c>
       <c r="E72" s="3">
-        <v>183900</v>
+        <v>184300</v>
       </c>
       <c r="F72" s="3">
-        <v>125200</v>
+        <v>125500</v>
       </c>
       <c r="G72" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="H72" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="I72" s="3">
-        <v>-34100</v>
+        <v>-34200</v>
       </c>
       <c r="J72" s="3">
-        <v>-79600</v>
+        <v>-79800</v>
       </c>
       <c r="K72" s="3">
         <v>-124900</v>
@@ -6035,25 +6035,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>962600</v>
+        <v>964700</v>
       </c>
       <c r="E76" s="3">
-        <v>888200</v>
+        <v>890100</v>
       </c>
       <c r="F76" s="3">
-        <v>830900</v>
+        <v>832700</v>
       </c>
       <c r="G76" s="3">
-        <v>764400</v>
+        <v>766000</v>
       </c>
       <c r="H76" s="3">
-        <v>724600</v>
+        <v>726100</v>
       </c>
       <c r="I76" s="3">
-        <v>664300</v>
+        <v>665700</v>
       </c>
       <c r="J76" s="3">
-        <v>618800</v>
+        <v>620200</v>
       </c>
       <c r="K76" s="3">
         <v>591700</v>
@@ -6298,25 +6298,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>72700</v>
+        <v>72800</v>
       </c>
       <c r="E81" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="F81" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G81" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="H81" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="I81" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="J81" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="K81" s="3">
         <v>28400</v>
@@ -6932,25 +6932,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98900</v>
+        <v>99100</v>
       </c>
       <c r="E89" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="F89" s="3">
-        <v>65000</v>
+        <v>65200</v>
       </c>
       <c r="G89" s="3">
-        <v>47200</v>
+        <v>47300</v>
       </c>
       <c r="H89" s="3">
-        <v>142600</v>
+        <v>142900</v>
       </c>
       <c r="I89" s="3">
         <v>26100</v>
       </c>
       <c r="J89" s="3">
-        <v>44600</v>
+        <v>44700</v>
       </c>
       <c r="K89" s="3">
         <v>-30300</v>
@@ -7311,22 +7311,22 @@
         <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>106700</v>
+        <v>106900</v>
       </c>
       <c r="F94" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="G94" s="3">
-        <v>-115100</v>
+        <v>-115300</v>
       </c>
       <c r="H94" s="3">
-        <v>83300</v>
+        <v>83500</v>
       </c>
       <c r="I94" s="3">
-        <v>52600</v>
+        <v>52700</v>
       </c>
       <c r="J94" s="3">
-        <v>-32200</v>
+        <v>-32300</v>
       </c>
       <c r="K94" s="3">
         <v>-29600</v>
@@ -7773,7 +7773,7 @@
         <v>-800</v>
       </c>
       <c r="E100" s="3">
-        <v>-54100</v>
+        <v>-54200</v>
       </c>
       <c r="F100" s="3">
         <v>-7500</v>
@@ -7782,7 +7782,7 @@
         <v>-38100</v>
       </c>
       <c r="H100" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="I100" s="3">
         <v>-6300</v>
@@ -7942,25 +7942,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>95400</v>
+        <v>95600</v>
       </c>
       <c r="E102" s="3">
-        <v>106300</v>
+        <v>106500</v>
       </c>
       <c r="F102" s="3">
-        <v>96400</v>
+        <v>96600</v>
       </c>
       <c r="G102" s="3">
-        <v>-105600</v>
+        <v>-105800</v>
       </c>
       <c r="H102" s="3">
-        <v>204200</v>
+        <v>204600</v>
       </c>
       <c r="I102" s="3">
-        <v>72400</v>
+        <v>72500</v>
       </c>
       <c r="J102" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="K102" s="3">
         <v>-39500</v>
